--- a/Problems 1.xlsx
+++ b/Problems 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="205">
   <si>
     <t>Пусть T1 - множество чисел в римских цифрах, а T2 - множество чисел в арабских цифрах. A - отношение  над множествами T1 и T2.</t>
   </si>
@@ -217,6 +217,9 @@
     <t>Выполните реляционное деление отношения R1 на отношение R2.</t>
   </si>
   <si>
+    <t>пустой ответ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Марина руководит отделом, в котором работает ее мать Варя, айтишник Дима и секретарша Вера. Отец Марины руководит всей фирмой. </t>
   </si>
   <si>
@@ -280,6 +283,9 @@
     <t>A5</t>
   </si>
   <si>
+    <t>A6</t>
+  </si>
+  <si>
     <t>Название</t>
   </si>
   <si>
@@ -295,6 +301,9 @@
     <t>Дата</t>
   </si>
   <si>
+    <t>Номер</t>
+  </si>
+  <si>
     <t>Свой</t>
   </si>
   <si>
@@ -421,6 +430,18 @@
     <t>среда</t>
   </si>
   <si>
+    <t>понедельник</t>
+  </si>
+  <si>
+    <t>четверг</t>
+  </si>
+  <si>
+    <t>суббота</t>
+  </si>
+  <si>
+    <t>воскресенье</t>
+  </si>
+  <si>
     <t>У сети отелей в базе данных хранятся отели, , списки аниматоров по отелям и сезоны.</t>
   </si>
   <si>
@@ -505,6 +526,18 @@
     <t>R1&lt;AND&gt;R3</t>
   </si>
   <si>
+    <t>6*</t>
+  </si>
+  <si>
+    <t>7*</t>
+  </si>
+  <si>
+    <t>8*</t>
+  </si>
+  <si>
+    <t>9*</t>
+  </si>
+  <si>
     <t>R2&lt;AND&gt;R3</t>
   </si>
   <si>
@@ -514,6 +547,9 @@
     <t>R3&lt;OR&gt;R4</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t xml:space="preserve">Стрелка Пирса pi(A,B) = NOT A AND NOT B </t>
   </si>
   <si>
@@ -526,9 +562,24 @@
     <t>NOT sh(A,B) OR A</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>sh(A, B)</t>
+  </si>
+  <si>
+    <t>NOT sh(A,B)</t>
+  </si>
+  <si>
     <t>pi(A,B) OR sh(A,B)</t>
   </si>
   <si>
+    <t>pi(A, B)</t>
+  </si>
+  <si>
     <t>Рассмотрим базу данных из задачи 12. Какой результат по правилам реляционного исчисления кортежей выдаст следующий скрипт?</t>
   </si>
   <si>
@@ -544,16 +595,37 @@
     <t>С помощью какого скрипта можно посмотреть зарплаты аниматоров, развлекающих клиентов зимой?</t>
   </si>
   <si>
+    <t>RANGE SALARY is R1</t>
+  </si>
+  <si>
+    <t>SALARY.ANIMATE, SALARY.PAYMENT WHERE EXISTS (SALARY.ANIMATE=ANIMATOR.ANIMATE AND ANIMATOR.SEASON=W)</t>
+  </si>
+  <si>
     <t>Выпишите минимальное множество функциональных зависимостей FD отношений R1 и R2 из задачи 12.</t>
   </si>
   <si>
+    <t>ANIMATE-&gt;{PAYMENT, HOTEL, SEASON}</t>
+  </si>
+  <si>
     <t>Какие, например, функциональные зависимости можно вывести из минимальных по условию предыдущей задачи?</t>
   </si>
   <si>
+    <t>ANIMATE-&gt;HOTEL</t>
+  </si>
+  <si>
+    <t>ANIMATE-&gt;SEASON</t>
+  </si>
+  <si>
+    <t>{ANIMATE, HOTEL}-&gt;SEASON</t>
+  </si>
+  <si>
     <t>Постройте диаграмму минимальных функциональных зависимостей для задачи 12.</t>
   </si>
   <si>
     <t>Перечислите все внешние ключи в задаче 12.</t>
+  </si>
+  <si>
+    <t>ANIMATE, HOTEL, SEASON</t>
   </si>
   <si>
     <t>Представьте базу данных 12й задачи одной таблицей.</t>
@@ -564,9 +636,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="d/m;@"/>
   </numFmts>
@@ -622,13 +694,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -636,10 +701,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -650,9 +715,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,8 +784,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,61 +830,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,15 +843,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,18 +865,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFAB9F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -817,13 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,13 +895,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,19 +925,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +979,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,79 +1045,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,25 +1063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,6 +1092,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1037,15 +1138,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1068,8 +1160,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,189 +1181,163 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1286,24 +1352,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,7 +1560,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8351520" y="9745980"/>
+          <a:off x="8366760" y="9745980"/>
           <a:ext cx="1210945" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1750,64 +1819,6 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2044700" cy="273685"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Text Box 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6964680" y="28910280"/>
-          <a:ext cx="2044700" cy="273685"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ru-RU" altLang="en-US" sz="1100"/>
-            <a:t>Соответствуют обеим моделям</a:t>
-          </a:r>
-          <a:endParaRPr lang="ru-RU" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>159</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -1820,7 +1831,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6957060" y="29260800"/>
+          <a:off x="6972300" y="29260800"/>
           <a:ext cx="2223135" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1886,7 +1897,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6941820" y="29611320"/>
+          <a:off x="6957060" y="29611320"/>
           <a:ext cx="2046605" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1935,7 +1946,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>565785</xdr:colOff>
+      <xdr:colOff>550545</xdr:colOff>
       <xdr:row>153</xdr:row>
       <xdr:rowOff>113030</xdr:rowOff>
     </xdr:to>
@@ -1992,8 +2003,113 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7680960" y="24490680"/>
+          <a:off x="7696200" y="24490680"/>
           <a:ext cx="4857750" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Text Box 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1569720" y="44470320"/>
+          <a:ext cx="876300" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;NOT&gt; R =</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>413385</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="task17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1260475" y="70264655"/>
+          <a:ext cx="3412490" cy="2326640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2263,10 +2379,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:V283"/>
+  <dimension ref="A2:Y421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="S136" sqref="S136"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B400" workbookViewId="0">
+      <selection activeCell="N407" sqref="N407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2280,6 +2396,7 @@
     <col min="7" max="7" width="2.66666666666667" customWidth="1"/>
     <col min="9" max="9" width="9.77777777777778" customWidth="1"/>
     <col min="13" max="13" width="10.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="9.22222222222222"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -2704,27 +2821,27 @@
       <c r="J26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:13">
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2738,28 +2855,28 @@
       <c r="I31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="13">
-        <v>2</v>
-      </c>
-      <c r="N31" s="13">
+      <c r="L31" s="11">
+        <v>2</v>
+      </c>
+      <c r="N31" s="11">
         <v>6</v>
       </c>
-      <c r="O31" s="13" t="s">
+      <c r="O31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q31" s="13" t="s">
+      <c r="Q31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R31" s="13">
+      <c r="R31" s="11">
         <v>89</v>
       </c>
-      <c r="T31" s="15">
+      <c r="T31" s="13">
         <v>5</v>
       </c>
-      <c r="U31" s="15" t="s">
+      <c r="U31" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2770,28 +2887,28 @@
       <c r="I32" s="7">
         <v>8</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="11">
         <v>7</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="11">
         <v>7</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="O32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q32" s="13" t="s">
+      <c r="Q32" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="R32" s="13">
+      <c r="R32" s="11">
         <v>78</v>
       </c>
-      <c r="T32" s="15" t="s">
+      <c r="T32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="U32" s="15">
+      <c r="U32" s="13">
         <v>6</v>
       </c>
     </row>
@@ -2802,50 +2919,50 @@
       <c r="I33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="11">
         <v>89</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="11">
         <v>45</v>
       </c>
-      <c r="O33" s="13" t="s">
+      <c r="O33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q33" s="13" t="s">
+      <c r="Q33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="R33" s="13">
+      <c r="R33" s="11">
         <v>5</v>
       </c>
-      <c r="T33" s="15">
+      <c r="T33" s="13">
         <v>4</v>
       </c>
-      <c r="U33" s="15" t="s">
+      <c r="U33" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="14:18">
-      <c r="N34" s="13">
+      <c r="N34" s="11">
         <v>32</v>
       </c>
-      <c r="O34" s="13" t="s">
+      <c r="O34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q34" s="13" t="s">
+      <c r="Q34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R34" s="13">
+      <c r="R34" s="11">
         <v>890</v>
       </c>
     </row>
     <row r="35" spans="14:15">
-      <c r="N35" s="13">
+      <c r="N35" s="11">
         <v>109</v>
       </c>
-      <c r="O35" s="13" t="s">
+      <c r="O35" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2910,7 +3027,7 @@
       <c r="I47" s="8">
         <v>3</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="12" t="s">
         <v>40</v>
       </c>
       <c r="K47" s="8" t="s">
@@ -3115,7 +3232,7 @@
       <c r="I65" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J65" s="14" t="s">
+      <c r="J65" s="12" t="s">
         <v>52</v>
       </c>
       <c r="K65" s="8">
@@ -3335,16 +3452,16 @@
       </c>
     </row>
     <row r="100" spans="8:12">
-      <c r="H100" s="16" t="s">
+      <c r="H100" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I100" s="16" t="s">
+      <c r="I100" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K100" s="16" t="s">
+      <c r="K100" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L100" s="16" t="s">
+      <c r="L100" s="14" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3355,13 +3472,13 @@
       <c r="G101" t="s">
         <v>18</v>
       </c>
-      <c r="H101" s="17">
+      <c r="H101" s="15">
         <v>45544</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J101" s="14" t="s">
+      <c r="J101" s="12" t="s">
         <v>40</v>
       </c>
       <c r="K101" s="8">
@@ -3372,7 +3489,7 @@
       </c>
     </row>
     <row r="102" spans="8:12">
-      <c r="H102" s="17">
+      <c r="H102" s="15">
         <v>45534</v>
       </c>
       <c r="I102" s="8" t="s">
@@ -3394,16 +3511,16 @@
       </c>
     </row>
     <row r="105" spans="10:13">
-      <c r="J105" s="16" t="s">
+      <c r="J105" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K105" s="16" t="s">
+      <c r="K105" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L105" s="16" t="s">
+      <c r="L105" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="M105" s="16" t="s">
+      <c r="M105" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3414,7 +3531,7 @@
       <c r="I106" t="s">
         <v>18</v>
       </c>
-      <c r="J106" s="17">
+      <c r="J106" s="15">
         <v>45544</v>
       </c>
       <c r="K106" s="8" t="s">
@@ -3428,7 +3545,7 @@
       </c>
     </row>
     <row r="107" spans="10:13">
-      <c r="J107" s="17">
+      <c r="J107" s="15">
         <v>45534</v>
       </c>
       <c r="K107" s="8" t="s">
@@ -3460,7 +3577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="8:11">
+    <row r="117" spans="8:13">
       <c r="H117" s="8">
         <v>56</v>
       </c>
@@ -3470,8 +3587,11 @@
       <c r="K117" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="6:11">
+      <c r="M117" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="6:13">
       <c r="F118" t="s">
         <v>38</v>
       </c>
@@ -3484,12 +3604,13 @@
       <c r="I118" s="8">
         <v>8</v>
       </c>
-      <c r="J118" s="14" t="s">
+      <c r="J118" s="12" t="s">
         <v>40</v>
       </c>
       <c r="K118" s="8">
         <v>87</v>
       </c>
+      <c r="M118" s="16"/>
     </row>
     <row r="119" spans="8:11">
       <c r="H119" s="8">
@@ -3544,19 +3665,19 @@
       <c r="H126" s="8">
         <v>56</v>
       </c>
-      <c r="J126" s="18"/>
+      <c r="J126" s="17"/>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
         <v>7</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3564,12 +3685,12 @@
         <v>8</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="158" spans="7:13">
       <c r="G158" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I158" s="7">
         <v>1</v>
@@ -3577,10 +3698,10 @@
       <c r="J158" s="7">
         <v>7</v>
       </c>
-      <c r="L158" s="19" t="s">
+      <c r="L158" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M158" s="19">
+      <c r="M158" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3591,10 +3712,10 @@
       <c r="J159" s="7">
         <v>8</v>
       </c>
-      <c r="L159" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="M159" s="19">
+      <c r="L159" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M159" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3605,10 +3726,10 @@
       <c r="J160" s="7">
         <v>9</v>
       </c>
-      <c r="L160" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="M160" s="19">
+      <c r="L160" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M160" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3617,90 +3738,90 @@
         <v>4</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L161" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="M161" s="19">
+      <c r="L161" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M161" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="163" spans="7:13">
       <c r="G163" t="s">
-        <v>75</v>
-      </c>
-      <c r="I163" s="20">
+        <v>76</v>
+      </c>
+      <c r="I163" s="18">
         <v>67</v>
       </c>
-      <c r="J163" s="20">
+      <c r="J163" s="18">
         <v>67</v>
       </c>
-      <c r="L163" s="19">
-        <v>1</v>
-      </c>
-      <c r="M163" s="19" t="s">
-        <v>76</v>
+      <c r="L163" s="18">
+        <v>1</v>
+      </c>
+      <c r="M163" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="164" spans="9:13">
-      <c r="I164" s="20">
-        <v>2</v>
-      </c>
-      <c r="J164" s="20">
+      <c r="I164" s="18">
+        <v>2</v>
+      </c>
+      <c r="J164" s="18">
         <v>7</v>
       </c>
-      <c r="L164" s="19">
-        <v>2</v>
-      </c>
-      <c r="M164" s="19" t="s">
+      <c r="L164" s="18">
+        <v>2</v>
+      </c>
+      <c r="M164" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="165" spans="9:13">
-      <c r="I165" s="20">
+      <c r="I165" s="18">
         <v>87</v>
       </c>
-      <c r="J165" s="20">
+      <c r="J165" s="18">
         <v>65</v>
       </c>
-      <c r="L165" s="19">
+      <c r="L165" s="18">
         <v>3</v>
       </c>
-      <c r="M165" s="19" t="s">
-        <v>77</v>
+      <c r="M165" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="166" spans="9:13">
-      <c r="I166" s="20">
-        <v>2</v>
-      </c>
-      <c r="J166" s="20">
+      <c r="I166" s="18">
+        <v>2</v>
+      </c>
+      <c r="J166" s="18">
         <v>7</v>
       </c>
-      <c r="L166" s="19">
+      <c r="L166" s="18">
         <v>4</v>
       </c>
-      <c r="M166" s="19" t="s">
-        <v>73</v>
+      <c r="M166" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="168" spans="7:13">
       <c r="G168" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I168" s="13">
         <v>9</v>
       </c>
       <c r="J168" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="K168" s="21"/>
-      <c r="L168" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="M168" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K168" s="19"/>
+      <c r="L168" s="13" t="s">
         <v>80</v>
+      </c>
+      <c r="M168" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="169" spans="9:13">
@@ -3710,11 +3831,11 @@
       <c r="J169" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K169" s="21"/>
-      <c r="L169" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="M169" s="15">
+      <c r="K169" s="19"/>
+      <c r="L169" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M169" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3723,13 +3844,13 @@
         <v>45</v>
       </c>
       <c r="J170" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K170" s="21"/>
-      <c r="L170" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M170" s="15">
+        <v>78</v>
+      </c>
+      <c r="K170" s="19"/>
+      <c r="L170" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M170" s="13">
         <v>2</v>
       </c>
     </row>
@@ -3738,72 +3859,72 @@
         <v>4</v>
       </c>
       <c r="J171" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K171" s="21"/>
-      <c r="L171" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="M171" s="15">
+        <v>74</v>
+      </c>
+      <c r="K171" s="19"/>
+      <c r="L171" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M171" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="173" spans="7:13">
       <c r="G173" t="s">
-        <v>84</v>
-      </c>
-      <c r="I173" s="19">
-        <v>1</v>
-      </c>
-      <c r="J173" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="L173" s="20">
-        <v>1</v>
-      </c>
-      <c r="M173" s="20">
+        <v>85</v>
+      </c>
+      <c r="I173" s="18">
+        <v>1</v>
+      </c>
+      <c r="J173" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L173" s="18">
+        <v>1</v>
+      </c>
+      <c r="M173" s="18">
         <v>9876</v>
       </c>
     </row>
     <row r="174" spans="9:13">
-      <c r="I174" s="19">
-        <v>2</v>
-      </c>
-      <c r="J174" s="19" t="s">
+      <c r="I174" s="18">
+        <v>2</v>
+      </c>
+      <c r="J174" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L174" s="20">
-        <v>2</v>
-      </c>
-      <c r="M174" s="20">
+      <c r="L174" s="18">
+        <v>2</v>
+      </c>
+      <c r="M174" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="9:13">
-      <c r="I175" s="19">
+      <c r="I175" s="18">
         <v>78</v>
       </c>
-      <c r="J175" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L175" s="20">
+      <c r="J175" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L175" s="18">
         <v>3</v>
       </c>
-      <c r="M175" s="20">
+      <c r="M175" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="176" spans="9:13">
-      <c r="I176" s="19">
+      <c r="I176" s="18">
         <v>4</v>
       </c>
-      <c r="J176" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L176" s="20">
+      <c r="J176" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L176" s="18">
         <v>4</v>
       </c>
-      <c r="M176" s="20">
+      <c r="M176" s="18">
         <v>4</v>
       </c>
     </row>
@@ -3812,131 +3933,152 @@
         <v>9</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="180" spans="9:13">
-      <c r="I180" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="180" spans="9:14">
+      <c r="I180" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J180" s="16" t="s">
+      <c r="J180" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K180" s="16" t="s">
+      <c r="K180" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L180" s="16" t="s">
+      <c r="L180" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M180" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="181" spans="9:13">
-      <c r="I181" s="16" t="s">
+      <c r="M180" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="J181" s="16" t="s">
+      <c r="N180" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="K181" s="16" t="s">
+    </row>
+    <row r="181" spans="9:14">
+      <c r="I181" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L181" s="16" t="s">
+      <c r="J181" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="M181" s="16" t="s">
+      <c r="K181" s="14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="182" spans="9:13">
+      <c r="L181" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="M181" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N181" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="182" spans="9:14">
       <c r="I182" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J182" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K182" s="8">
         <v>1</v>
       </c>
       <c r="L182" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M182" s="22">
+        <v>98</v>
+      </c>
+      <c r="M182" s="21">
         <v>36892</v>
       </c>
-    </row>
-    <row r="183" spans="9:13">
+      <c r="N182" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="9:14">
       <c r="I183" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J183" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K183" s="8">
         <v>2</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M183" s="22">
+        <v>101</v>
+      </c>
+      <c r="M183" s="21">
         <v>39815</v>
       </c>
-    </row>
-    <row r="184" spans="9:13">
+      <c r="N183" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="9:14">
       <c r="I184" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J184" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K184" s="8">
         <v>3</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M184" s="22">
+        <v>98</v>
+      </c>
+      <c r="M184" s="21">
         <v>43833</v>
       </c>
-    </row>
-    <row r="185" spans="9:13">
+      <c r="N184" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="9:14">
       <c r="I185" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J185" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K185" s="8">
         <v>1</v>
       </c>
       <c r="L185" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M185" s="22">
+        <v>106</v>
+      </c>
+      <c r="M185" s="21">
         <v>36892</v>
       </c>
-    </row>
-    <row r="186" spans="9:13">
+      <c r="N185" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="9:14">
       <c r="I186" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J186" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K186" s="8">
         <v>3</v>
       </c>
       <c r="L186" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M186" s="22">
+        <v>101</v>
+      </c>
+      <c r="M186" s="21">
         <v>42374</v>
+      </c>
+      <c r="N186" s="22">
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3944,28 +4086,28 @@
         <v>10</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="192" spans="6:15">
       <c r="F192" t="s">
-        <v>70</v>
-      </c>
-      <c r="H192" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H192" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I192" s="16" t="s">
+      <c r="I192" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J192" s="16" t="s">
+      <c r="J192" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="K192" s="16" t="s">
+      <c r="K192" s="14" t="s">
         <v>64</v>
       </c>
       <c r="M192" s="23" t="s">
@@ -3979,648 +4121,648 @@
       </c>
     </row>
     <row r="193" spans="8:15">
-      <c r="H193" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I193" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J193" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K193" s="16" t="s">
+      <c r="H193" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M193" s="16" t="s">
-        <v>110</v>
+      <c r="I193" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J193" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K193" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M193" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="N193" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O193" s="23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="194" spans="8:15">
       <c r="H194" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I194" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J194" s="8">
         <v>290</v>
       </c>
       <c r="K194" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M194" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N194" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O194" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="195" spans="8:15">
       <c r="H195" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I195" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="I195" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="J195" s="8">
         <v>302</v>
       </c>
       <c r="K195" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M195" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N195" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O195" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="196" spans="8:11">
       <c r="H196" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I196" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J196" s="8">
         <v>300</v>
       </c>
       <c r="K196" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="197" spans="8:11">
       <c r="H197" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I197" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="I197" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="J197" s="8">
         <v>296</v>
       </c>
       <c r="K197" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="198" spans="8:11">
       <c r="H198" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I198" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J198" s="8">
         <v>298</v>
       </c>
       <c r="K198" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="200" spans="6:15">
+      <c r="F200" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H200" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I200" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J200" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K200" s="25"/>
+      <c r="M200" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N200" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="O200" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="201" spans="8:15">
+      <c r="H201" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I201" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J201" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K201" s="25"/>
+      <c r="M201" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="N201" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="O201" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="200" spans="6:15">
-      <c r="F200" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H200" s="16" t="s">
+    <row r="202" spans="8:15">
+      <c r="H202" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I202" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J202" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K202" s="26"/>
+      <c r="M202" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N202" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O202" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="203" spans="8:15">
+      <c r="H203" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I203" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J203" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K203" s="26"/>
+      <c r="M203" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N203" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O203" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="204" spans="8:11">
+      <c r="H204" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I204" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J204" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K204" s="26"/>
+    </row>
+    <row r="205" spans="8:11">
+      <c r="H205" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I205" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J205" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K205" s="26"/>
+    </row>
+    <row r="206" spans="8:11">
+      <c r="H206" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I206" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J206" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K206" s="26"/>
+    </row>
+    <row r="208" spans="6:15">
+      <c r="F208" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H208" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I200" s="16" t="s">
+      <c r="I208" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="J200" s="16" t="s">
+      <c r="J208" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="K200" s="24"/>
-      <c r="M200" s="23" t="s">
+      <c r="K208" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M208" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="N200" s="23" t="s">
+      <c r="N208" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="O200" s="23" t="s">
+      <c r="O208" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="201" spans="8:15">
-      <c r="H201" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I201" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J201" s="16" t="s">
+    <row r="209" spans="8:15">
+      <c r="H209" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="K201" s="24"/>
-      <c r="M201" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="N201" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="O201" s="23" t="s">
+      <c r="I209" s="24" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="202" spans="8:15">
-      <c r="H202" s="8" t="s">
+      <c r="J209" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I202" s="8" t="s">
+      <c r="K209" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="M209" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="J202" s="8" t="s">
+      <c r="N209" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="O209" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="K202" s="25"/>
-      <c r="M202" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="N202" s="8" t="s">
+    </row>
+    <row r="210" spans="8:15">
+      <c r="H210" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="O202" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="203" spans="8:15">
-      <c r="H203" s="8" t="s">
+      <c r="I210" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I203" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J203" s="8" t="s">
+      <c r="J210" s="7">
+        <v>290</v>
+      </c>
+      <c r="K210" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K203" s="25"/>
-      <c r="M203" s="8" t="s">
+      <c r="M210" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N203" s="8" t="s">
+      <c r="N210" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O203" s="8" t="s">
+      <c r="O210" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="211" spans="8:15">
+      <c r="H211" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="204" spans="8:11">
-      <c r="H204" s="8" t="s">
+      <c r="I211" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J211" s="7">
+        <v>302</v>
+      </c>
+      <c r="K211" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M211" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I204" s="8" t="s">
+      <c r="N211" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J204" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K204" s="25"/>
-    </row>
-    <row r="205" spans="8:11">
-      <c r="H205" s="8" t="s">
+      <c r="O211" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I205" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J205" s="8" t="s">
+    </row>
+    <row r="212" spans="8:11">
+      <c r="H212" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I212" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J212" s="7">
+        <v>300</v>
+      </c>
+      <c r="K212" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K205" s="25"/>
-    </row>
-    <row r="206" spans="8:11">
-      <c r="H206" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I206" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J206" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K206" s="25"/>
-    </row>
-    <row r="208" spans="6:15">
-      <c r="F208" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H208" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I208" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J208" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="K208" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M208" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="N208" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="O208" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="209" spans="8:15">
-      <c r="H209" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I209" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J209" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K209" s="16" t="s">
+    </row>
+    <row r="213" spans="8:11">
+      <c r="H213" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M209" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="N209" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="O209" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="210" spans="8:15">
-      <c r="H210" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I210" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J210" s="8">
-        <v>290</v>
-      </c>
-      <c r="K210" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M210" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="N210" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="O210" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="211" spans="8:15">
-      <c r="H211" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I211" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J211" s="8">
-        <v>302</v>
-      </c>
-      <c r="K211" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M211" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N211" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="O211" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="212" spans="8:11">
-      <c r="H212" s="8" t="s">
+      <c r="I213" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J213" s="7">
+        <v>296</v>
+      </c>
+      <c r="K213" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I212" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J212" s="8">
-        <v>300</v>
-      </c>
-      <c r="K212" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="213" spans="8:11">
-      <c r="H213" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I213" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J213" s="8">
-        <v>296</v>
-      </c>
-      <c r="K213" s="8" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="214" spans="8:11">
-      <c r="H214" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I214" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J214" s="8">
+      <c r="H214" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I214" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J214" s="7">
         <v>298</v>
       </c>
-      <c r="K214" s="8" t="s">
-        <v>117</v>
+      <c r="K214" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="216" spans="6:15">
       <c r="F216" t="s">
-        <v>84</v>
-      </c>
-      <c r="H216" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H216" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I216" s="16" t="s">
+      <c r="I216" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="J216" s="16" t="s">
+      <c r="J216" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="K216" s="16" t="s">
+      <c r="K216" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="M216" s="23" t="s">
+      <c r="M216" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="N216" s="23" t="s">
+      <c r="N216" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="O216" s="23" t="s">
+      <c r="O216" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="217" spans="8:15">
-      <c r="H217" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I217" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J217" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K217" s="16" t="s">
+      <c r="H217" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I217" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J217" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="K217" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="M217" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="N217" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="O217" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="218" spans="8:15">
+      <c r="H218" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I218" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J218" s="7">
+        <v>290</v>
+      </c>
+      <c r="K218" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M218" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N218" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O218" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="219" spans="8:15">
+      <c r="H219" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I219" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J219" s="7">
+        <v>302</v>
+      </c>
+      <c r="K219" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M219" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N219" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O219" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="220" spans="8:11">
+      <c r="H220" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I220" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J220" s="7">
+        <v>300</v>
+      </c>
+      <c r="K220" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="221" spans="8:11">
+      <c r="H221" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M217" s="16" t="s">
+      <c r="I221" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J221" s="7">
+        <v>296</v>
+      </c>
+      <c r="K221" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="222" spans="8:11">
+      <c r="H222" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I222" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J222" s="7">
+        <v>298</v>
+      </c>
+      <c r="K222" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="224" spans="6:15">
+      <c r="F224" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H224" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I224" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J224" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K224" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M224" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N224" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="O224" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="225" spans="8:15">
+      <c r="H225" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="N217" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="O217" s="23" t="s">
+      <c r="I225" s="24" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="218" spans="8:15">
-      <c r="H218" s="8" t="s">
+      <c r="J225" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I218" s="8" t="s">
+      <c r="K225" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="M225" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="J218" s="8">
+      <c r="N225" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="O225" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="226" spans="8:15">
+      <c r="H226" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I226" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J226" s="7">
         <v>290</v>
       </c>
-      <c r="K218" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M218" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="N218" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="O218" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="219" spans="8:15">
-      <c r="H219" s="8" t="s">
+      <c r="K226" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M226" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N226" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O226" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I219" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J219" s="8">
+    </row>
+    <row r="227" spans="8:15">
+      <c r="H227" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I227" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J227" s="7">
         <v>302</v>
       </c>
-      <c r="K219" s="8" t="s">
+      <c r="K227" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M227" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N227" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O227" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="228" spans="8:11">
+      <c r="H228" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I228" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J228" s="7">
+        <v>300</v>
+      </c>
+      <c r="K228" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="229" spans="8:11">
+      <c r="H229" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I229" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J229" s="7">
+        <v>296</v>
+      </c>
+      <c r="K229" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="230" spans="8:11">
+      <c r="H230" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M219" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N219" s="8" t="s">
+      <c r="I230" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J230" s="7">
+        <v>298</v>
+      </c>
+      <c r="K230" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="O219" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="220" spans="8:11">
-      <c r="H220" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I220" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J220" s="8">
-        <v>300</v>
-      </c>
-      <c r="K220" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="221" spans="8:11">
-      <c r="H221" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I221" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J221" s="8">
-        <v>296</v>
-      </c>
-      <c r="K221" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="222" spans="8:11">
-      <c r="H222" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I222" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J222" s="8">
-        <v>298</v>
-      </c>
-      <c r="K222" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="224" spans="6:15">
-      <c r="F224" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H224" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I224" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J224" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="K224" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M224" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="N224" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="O224" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="225" spans="8:15">
-      <c r="H225" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I225" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J225" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K225" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="M225" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="N225" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="O225" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="226" spans="8:15">
-      <c r="H226" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I226" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J226" s="8">
-        <v>290</v>
-      </c>
-      <c r="K226" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="M226" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="N226" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="O226" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="227" spans="8:15">
-      <c r="H227" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I227" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J227" s="8">
-        <v>302</v>
-      </c>
-      <c r="K227" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="M227" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N227" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="O227" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="228" spans="8:11">
-      <c r="H228" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I228" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J228" s="8">
-        <v>300</v>
-      </c>
-      <c r="K228" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="229" spans="8:11">
-      <c r="H229" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I229" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J229" s="8">
-        <v>296</v>
-      </c>
-      <c r="K229" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="230" spans="8:11">
-      <c r="H230" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I230" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J230" s="8">
-        <v>298</v>
-      </c>
-      <c r="K230" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4628,340 +4770,315 @@
         <v>11</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="235" spans="8:8">
-      <c r="H235" s="16" t="s">
-        <v>130</v>
+      <c r="H235" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="236" spans="8:8">
       <c r="H236" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="237" spans="6:8">
       <c r="F237" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G237" t="s">
         <v>18</v>
       </c>
       <c r="H237" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="238" spans="8:8">
       <c r="H238" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="242" spans="10:10">
+      <c r="J242" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="243" spans="10:10">
+      <c r="J243" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="244" spans="10:10">
+      <c r="J244" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="245" spans="10:10">
+      <c r="J245" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="246" spans="10:10">
+      <c r="J246" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
         <v>12</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="241" spans="8:20">
-      <c r="H241" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I241" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="J241" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="M241" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="N241" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="O241" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="R241" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="S241" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="T241" s="23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="242" spans="8:20">
-      <c r="H242" s="8" t="s">
+      <c r="B250" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I242" s="8">
+    </row>
+    <row r="251" spans="8:20">
+      <c r="H251" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I251" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J251" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M251" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="N251" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O251" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="R251" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="S251" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="T251" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="252" spans="8:20">
+      <c r="H252" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I252" s="8">
         <v>15000</v>
       </c>
-      <c r="J242" s="8">
-        <v>1</v>
-      </c>
-      <c r="M242" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="N242" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O242" s="8">
-        <v>2</v>
-      </c>
-      <c r="R242" s="8">
-        <v>1</v>
-      </c>
-      <c r="S242" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="T242" s="8" t="s">
+      <c r="J252" s="8">
+        <v>1</v>
+      </c>
+      <c r="M252" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="N252" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="O252" s="8">
+        <v>2</v>
+      </c>
+      <c r="R252" s="8">
+        <v>1</v>
+      </c>
+      <c r="S252" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="T252" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="253" spans="6:20">
+      <c r="F253" t="s">
+        <v>38</v>
+      </c>
+      <c r="G253" t="s">
+        <v>18</v>
+      </c>
+      <c r="H253" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I253" s="8">
+        <v>30000</v>
+      </c>
+      <c r="J253" s="8">
+        <v>1</v>
+      </c>
+      <c r="L253" t="s">
+        <v>154</v>
+      </c>
+      <c r="M253" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="N253" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="O253" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>156</v>
+      </c>
+      <c r="R253" s="8">
+        <v>2</v>
+      </c>
+      <c r="S253" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="T253" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="254" spans="8:15">
+      <c r="H254" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I254" s="8">
+        <v>60000</v>
+      </c>
+      <c r="J254" s="8">
+        <v>1</v>
+      </c>
+      <c r="M254" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="N254" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="O254" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="8:15">
+      <c r="H255" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I255" s="8">
+        <v>17000</v>
+      </c>
+      <c r="J255" s="8">
+        <v>1</v>
+      </c>
+      <c r="M255" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N255" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O255" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="8:19">
+      <c r="H256" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I256" s="8">
+        <v>23000</v>
+      </c>
+      <c r="J256" s="8">
+        <v>1</v>
+      </c>
+      <c r="M256" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="N256" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O256" s="8">
+        <v>1</v>
+      </c>
+      <c r="R256" s="14" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="243" spans="6:20">
-      <c r="F243" t="s">
-        <v>38</v>
-      </c>
-      <c r="G243" t="s">
-        <v>18</v>
-      </c>
-      <c r="H243" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I243" s="8">
-        <v>30000</v>
-      </c>
-      <c r="J243" s="8">
-        <v>1</v>
-      </c>
-      <c r="L243" t="s">
-        <v>147</v>
-      </c>
-      <c r="M243" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="N243" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O243" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q243" t="s">
-        <v>149</v>
-      </c>
-      <c r="R243" s="8">
-        <v>2</v>
-      </c>
-      <c r="S243" s="8" t="s">
+      <c r="S256" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="257" spans="8:19">
+      <c r="H257" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I257" s="8">
+        <v>25000</v>
+      </c>
+      <c r="J257" s="8">
+        <v>2</v>
+      </c>
+      <c r="M257" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="N257" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O257" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>166</v>
+      </c>
+      <c r="R257" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="S257" s="28">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="258" spans="8:19">
+      <c r="H258" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I258" s="8">
+        <v>32000</v>
+      </c>
+      <c r="J258" s="8">
+        <v>2</v>
+      </c>
+      <c r="R258" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="S258" s="28">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="259" spans="8:10">
+      <c r="H259" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I259" s="8">
+        <v>16000</v>
+      </c>
+      <c r="J259" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="8:10">
+      <c r="H260" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="T243" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="244" spans="8:15">
-      <c r="H244" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I244" s="8">
-        <v>60000</v>
-      </c>
-      <c r="J244" s="8">
-        <v>1</v>
-      </c>
-      <c r="M244" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="N244" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O244" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="8:15">
-      <c r="H245" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I245" s="8">
-        <v>17000</v>
-      </c>
-      <c r="J245" s="8">
-        <v>1</v>
-      </c>
-      <c r="M245" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="N245" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="O245" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="8:19">
-      <c r="H246" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I246" s="8">
-        <v>23000</v>
-      </c>
-      <c r="J246" s="8">
-        <v>1</v>
-      </c>
-      <c r="M246" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="N246" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="O246" s="8">
-        <v>1</v>
-      </c>
-      <c r="R246" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="S246" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="247" spans="8:19">
-      <c r="H247" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I247" s="8">
-        <v>25000</v>
-      </c>
-      <c r="J247" s="8">
-        <v>2</v>
-      </c>
-      <c r="M247" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="N247" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="O247" s="26">
-        <v>2</v>
-      </c>
-      <c r="Q247" t="s">
-        <v>159</v>
-      </c>
-      <c r="R247" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="S247" s="27">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="248" spans="8:19">
-      <c r="H248" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="I248" s="8">
-        <v>32000</v>
-      </c>
-      <c r="J248" s="8">
-        <v>2</v>
-      </c>
-      <c r="R248" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="S248" s="27">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="249" spans="8:10">
-      <c r="H249" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I249" s="8">
-        <v>16000</v>
-      </c>
-      <c r="J249" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="8:10">
-      <c r="H250" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="I250" s="8">
+      <c r="I260" s="8">
         <v>20000</v>
       </c>
-      <c r="J250" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="8:10">
-      <c r="H251" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I251" s="8">
+      <c r="J260" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="8:10">
+      <c r="H261" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I261" s="8">
         <v>40000</v>
       </c>
-      <c r="J251" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2">
-      <c r="B253" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="255" spans="3:4">
-      <c r="C255" t="s">
-        <v>70</v>
-      </c>
-      <c r="D255" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="256" spans="3:4">
-      <c r="C256" t="s">
-        <v>75</v>
-      </c>
-      <c r="D256" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="257" spans="3:4">
-      <c r="C257" t="s">
-        <v>78</v>
-      </c>
-      <c r="D257" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="258" spans="3:4">
-      <c r="C258" t="s">
-        <v>84</v>
-      </c>
-      <c r="D258" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260">
-        <v>13</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="261" spans="2:2">
-      <c r="B261" s="1" t="s">
-        <v>167</v>
+      <c r="J261" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="2:2">
@@ -4969,88 +5086,1492 @@
         <v>168</v>
       </c>
     </row>
-    <row r="265" spans="5:6">
-      <c r="E265" t="s">
-        <v>70</v>
-      </c>
-      <c r="F265" t="s">
+    <row r="265" spans="3:13">
+      <c r="C265" t="s">
+        <v>71</v>
+      </c>
+      <c r="D265" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="266" spans="5:6">
-      <c r="E266" t="s">
-        <v>75</v>
-      </c>
-      <c r="F266" t="s">
+      <c r="H265" t="s">
+        <v>18</v>
+      </c>
+      <c r="I265" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J265" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K265" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L265" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M265" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="266" spans="9:13">
+      <c r="I266" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J266" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K266" s="8">
+        <v>1</v>
+      </c>
+      <c r="L266" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M266" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="267" spans="9:13">
+      <c r="I267" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J267" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K267" s="8">
+        <v>1</v>
+      </c>
+      <c r="L267" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M267" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="268" spans="9:13">
+      <c r="I268" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J268" s="8">
+        <v>60000</v>
+      </c>
+      <c r="K268" s="8">
+        <v>1</v>
+      </c>
+      <c r="L268" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268">
+      <c r="M268" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="269" spans="9:13">
+      <c r="I269" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J269" s="8">
+        <v>17000</v>
+      </c>
+      <c r="K269" s="8">
+        <v>1</v>
+      </c>
+      <c r="L269" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M269" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="270" spans="9:13">
+      <c r="I270" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J270" s="8">
+        <v>23000</v>
+      </c>
+      <c r="K270" s="8">
+        <v>1</v>
+      </c>
+      <c r="L270" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="M270" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="271" spans="9:13">
+      <c r="I271" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J271" s="8">
+        <v>25000</v>
+      </c>
+      <c r="K271" s="8">
+        <v>2</v>
+      </c>
+      <c r="L271" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M271" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="272" spans="9:13">
+      <c r="I272" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J272" s="8">
+        <v>32000</v>
+      </c>
+      <c r="K272" s="8">
+        <v>2</v>
+      </c>
+      <c r="L272" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M272" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="273" spans="9:13">
+      <c r="I273" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J273" s="8">
+        <v>16000</v>
+      </c>
+      <c r="K273" s="8">
+        <v>2</v>
+      </c>
+      <c r="L273" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M273" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="274" spans="9:13">
+      <c r="I274" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J274" s="8">
+        <v>20000</v>
+      </c>
+      <c r="K274" s="8">
+        <v>2</v>
+      </c>
+      <c r="L274" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="M274" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="275" spans="9:13">
+      <c r="I275" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J275" s="8">
+        <v>40000</v>
+      </c>
+      <c r="K275" s="8">
+        <v>2</v>
+      </c>
+      <c r="L275" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="M275" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="277" spans="3:13">
+      <c r="C277" t="s">
+        <v>76</v>
+      </c>
+      <c r="D277" t="s">
+        <v>174</v>
+      </c>
+      <c r="H277" t="s">
+        <v>18</v>
+      </c>
+      <c r="I277" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J277" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K277" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L277" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M277" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="278" spans="9:13">
+      <c r="I278" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J278" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K278" s="8">
+        <v>2</v>
+      </c>
+      <c r="L278" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M278" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="279" spans="9:13">
+      <c r="I279" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J279" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K279" s="8">
+        <v>1</v>
+      </c>
+      <c r="L279" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M279" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="280" spans="9:13">
+      <c r="I280" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J280" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K280" s="8">
+        <v>2</v>
+      </c>
+      <c r="L280" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M280" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="281" spans="9:13">
+      <c r="I281" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J281" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K281" s="8">
+        <v>1</v>
+      </c>
+      <c r="L281" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M281" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="282" spans="9:13">
+      <c r="I282" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J282" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K282" s="8">
+        <v>1</v>
+      </c>
+      <c r="L282" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M282" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="283" spans="9:13">
+      <c r="I283" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="J283" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K283" s="27">
+        <v>2</v>
+      </c>
+      <c r="L283" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M283" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="288" spans="3:13">
+      <c r="C288" t="s">
+        <v>79</v>
+      </c>
+      <c r="D288" t="s">
+        <v>175</v>
+      </c>
+      <c r="I288" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J288" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K288" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L288" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M288" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="289" spans="9:13">
+      <c r="I289" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J289" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K289" s="8">
+        <v>2</v>
+      </c>
+      <c r="L289" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M289" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="290" spans="9:13">
+      <c r="I290" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J290" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K290" s="8">
+        <v>1</v>
+      </c>
+      <c r="L290" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M290" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="291" spans="9:13">
+      <c r="I291" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J291" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K291" s="8">
+        <v>2</v>
+      </c>
+      <c r="L291" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M291" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="292" spans="9:13">
+      <c r="I292" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J292" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K292" s="8">
+        <v>1</v>
+      </c>
+      <c r="L292" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M292" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="293" spans="9:13">
+      <c r="I293" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J293" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K293" s="8">
+        <v>1</v>
+      </c>
+      <c r="L293" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M293" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="294" spans="9:13">
+      <c r="I294" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="J294" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K294" s="27">
+        <v>2</v>
+      </c>
+      <c r="L294" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M294" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="295" spans="9:13">
+      <c r="I295" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J295" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K295" s="8">
+        <v>2</v>
+      </c>
+      <c r="L295" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M295" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="296" spans="9:13">
+      <c r="I296" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J296" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K296" s="8">
+        <v>1</v>
+      </c>
+      <c r="L296" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M296" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="297" spans="9:13">
+      <c r="I297" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J297" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K297" s="8">
+        <v>2</v>
+      </c>
+      <c r="L297" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M297" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="298" spans="9:13">
+      <c r="I298" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J298" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K298" s="8">
+        <v>1</v>
+      </c>
+      <c r="L298" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M298" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="299" spans="9:13">
+      <c r="I299" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J299" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K299" s="8">
+        <v>1</v>
+      </c>
+      <c r="L299" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M299" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="300" spans="9:13">
+      <c r="I300" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="J300" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K300" s="27">
+        <v>2</v>
+      </c>
+      <c r="L300" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M300" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="304" spans="3:13">
+      <c r="C304" t="s">
+        <v>85</v>
+      </c>
+      <c r="D304" t="s">
+        <v>176</v>
+      </c>
+      <c r="H304" t="s">
+        <v>18</v>
+      </c>
+      <c r="I304" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J304" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="K304" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="L304" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M304" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="305" spans="9:13">
+      <c r="I305" s="8">
+        <v>1</v>
+      </c>
+      <c r="J305" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K305" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L305" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M305" s="28">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="306" spans="9:13">
+      <c r="I306" s="8">
+        <v>2</v>
+      </c>
+      <c r="J306" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K306" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L306" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M306" s="28">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="307" spans="9:13">
+      <c r="I307" s="8">
+        <v>1</v>
+      </c>
+      <c r="J307" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K307" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L307" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M307" s="28">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="308" spans="9:13">
+      <c r="I308" s="8">
+        <v>2</v>
+      </c>
+      <c r="J308" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K308" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L308" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M308" s="28">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="309" spans="9:13">
+      <c r="I309" s="8">
+        <v>3</v>
+      </c>
+      <c r="J309" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K309" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L309" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M309" s="28">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="310" spans="9:13">
+      <c r="I310" s="8">
+        <v>4</v>
+      </c>
+      <c r="J310" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K310" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L310" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M310" s="28">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="311" spans="9:13">
+      <c r="I311" s="8">
+        <v>1</v>
+      </c>
+      <c r="J311" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K311" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L311" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="M311" s="28">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="312" spans="9:13">
+      <c r="I312" s="8">
+        <v>2</v>
+      </c>
+      <c r="J312" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K312" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L312" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M312" s="28">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316">
+        <v>13</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="321" spans="5:10">
+      <c r="E321" t="s">
+        <v>71</v>
+      </c>
+      <c r="F321" t="s">
+        <v>181</v>
+      </c>
+      <c r="I321" t="s">
+        <v>18</v>
+      </c>
+      <c r="J321" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="322" spans="10:14">
+      <c r="J322" t="s">
+        <v>17</v>
+      </c>
+      <c r="K322" t="s">
+        <v>183</v>
+      </c>
+      <c r="L322" t="s">
+        <v>184</v>
+      </c>
+      <c r="M322" t="s">
+        <v>185</v>
+      </c>
+      <c r="N322" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="323" spans="10:14">
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>1</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="10:14">
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>1</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="10:14">
+      <c r="J325">
+        <v>1</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325">
+        <v>1</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="10:14">
+      <c r="J326">
+        <v>1</v>
+      </c>
+      <c r="K326">
+        <v>1</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+      <c r="M326">
+        <v>1</v>
+      </c>
+      <c r="N326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="5:10">
+      <c r="E332" t="s">
+        <v>76</v>
+      </c>
+      <c r="F332" t="s">
+        <v>186</v>
+      </c>
+      <c r="I332" t="s">
+        <v>18</v>
+      </c>
+      <c r="J332" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="333" spans="11:15">
+      <c r="K333" t="s">
+        <v>17</v>
+      </c>
+      <c r="L333" t="s">
+        <v>183</v>
+      </c>
+      <c r="M333" t="s">
+        <v>187</v>
+      </c>
+      <c r="N333" t="s">
+        <v>184</v>
+      </c>
+      <c r="O333" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="334" spans="11:15">
+      <c r="K334">
+        <v>0</v>
+      </c>
+      <c r="L334">
+        <v>0</v>
+      </c>
+      <c r="M334">
+        <v>1</v>
+      </c>
+      <c r="N334">
+        <v>1</v>
+      </c>
+      <c r="O334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="11:15">
+      <c r="K335">
+        <v>0</v>
+      </c>
+      <c r="L335">
+        <v>1</v>
+      </c>
+      <c r="M335">
+        <v>0</v>
+      </c>
+      <c r="N335">
+        <v>1</v>
+      </c>
+      <c r="O335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="11:15">
+      <c r="K336">
+        <v>1</v>
+      </c>
+      <c r="L336">
+        <v>0</v>
+      </c>
+      <c r="M336">
+        <v>0</v>
+      </c>
+      <c r="N336">
+        <v>1</v>
+      </c>
+      <c r="O336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="11:15">
+      <c r="K337">
+        <v>1</v>
+      </c>
+      <c r="L337">
+        <v>1</v>
+      </c>
+      <c r="M337">
+        <v>0</v>
+      </c>
+      <c r="N337">
+        <v>0</v>
+      </c>
+      <c r="O337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344">
         <v>14</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2">
-      <c r="B269" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="270" spans="2:2">
-      <c r="B270" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2">
-      <c r="B271" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2">
-      <c r="B273" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275">
+      <c r="B344" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="347" spans="2:25">
+      <c r="B347" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K347" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L347" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M347" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="R347" s="25"/>
+      <c r="S347" s="25"/>
+      <c r="T347" s="25"/>
+      <c r="U347" s="29"/>
+      <c r="V347" s="29"/>
+      <c r="W347" s="25"/>
+      <c r="X347" s="25"/>
+      <c r="Y347" s="25"/>
+    </row>
+    <row r="348" spans="11:25">
+      <c r="K348" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L348" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M348" s="8">
+        <v>2</v>
+      </c>
+      <c r="R348" s="26"/>
+      <c r="S348" s="26"/>
+      <c r="T348" s="26"/>
+      <c r="U348" s="29"/>
+      <c r="V348" s="29"/>
+      <c r="W348" s="26"/>
+      <c r="X348" s="26"/>
+      <c r="Y348" s="26"/>
+    </row>
+    <row r="349" spans="11:25">
+      <c r="K349" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="L349" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M349" s="8">
+        <v>1</v>
+      </c>
+      <c r="R349" s="26"/>
+      <c r="S349" s="26"/>
+      <c r="T349" s="26"/>
+      <c r="U349" s="29"/>
+      <c r="V349" s="29"/>
+      <c r="W349" s="26"/>
+      <c r="X349" s="26"/>
+      <c r="Y349" s="26"/>
+    </row>
+    <row r="350" spans="11:25">
+      <c r="K350" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L350" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M350" s="8">
+        <v>2</v>
+      </c>
+      <c r="R350" s="26"/>
+      <c r="S350" s="26"/>
+      <c r="T350" s="26"/>
+      <c r="U350" s="29"/>
+      <c r="V350" s="29"/>
+      <c r="W350" s="26"/>
+      <c r="X350" s="26"/>
+      <c r="Y350" s="26"/>
+    </row>
+    <row r="351" spans="11:25">
+      <c r="K351" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L351" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M351" s="8">
+        <v>1</v>
+      </c>
+      <c r="R351" s="26"/>
+      <c r="S351" s="26"/>
+      <c r="T351" s="26"/>
+      <c r="U351" s="29"/>
+      <c r="V351" s="29"/>
+      <c r="W351" s="26"/>
+      <c r="X351" s="26"/>
+      <c r="Y351" s="26"/>
+    </row>
+    <row r="352" spans="11:25">
+      <c r="K352" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="L352" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M352" s="8">
+        <v>1</v>
+      </c>
+      <c r="R352" s="26"/>
+      <c r="S352" s="26"/>
+      <c r="T352" s="26"/>
+      <c r="U352" s="29"/>
+      <c r="V352" s="29"/>
+      <c r="W352" s="26"/>
+      <c r="X352" s="26"/>
+      <c r="Y352" s="26"/>
+    </row>
+    <row r="353" spans="11:25">
+      <c r="K353" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="L353" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M353" s="27">
+        <v>2</v>
+      </c>
+      <c r="R353" s="26"/>
+      <c r="S353" s="26"/>
+      <c r="T353" s="26"/>
+      <c r="U353" s="29"/>
+      <c r="V353" s="29"/>
+      <c r="W353" s="12"/>
+      <c r="X353" s="26"/>
+      <c r="Y353" s="12"/>
+    </row>
+    <row r="354" spans="18:25">
+      <c r="R354" s="26"/>
+      <c r="S354" s="26"/>
+      <c r="T354" s="26"/>
+      <c r="U354" s="29"/>
+      <c r="V354" s="29"/>
+      <c r="W354" s="29"/>
+      <c r="X354" s="29"/>
+      <c r="Y354" s="29"/>
+    </row>
+    <row r="355" spans="18:25">
+      <c r="R355" s="26"/>
+      <c r="S355" s="26"/>
+      <c r="T355" s="26"/>
+      <c r="U355" s="29"/>
+      <c r="V355" s="29"/>
+      <c r="W355" s="29"/>
+      <c r="X355" s="29"/>
+      <c r="Y355" s="29"/>
+    </row>
+    <row r="356" spans="2:25">
+      <c r="B356" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R356" s="26"/>
+      <c r="S356" s="26"/>
+      <c r="T356" s="26"/>
+      <c r="U356" s="29"/>
+      <c r="V356" s="29"/>
+      <c r="W356" s="29"/>
+      <c r="X356" s="29"/>
+      <c r="Y356" s="29"/>
+    </row>
+    <row r="357" spans="18:25">
+      <c r="R357" s="26"/>
+      <c r="S357" s="26"/>
+      <c r="T357" s="26"/>
+      <c r="U357" s="29"/>
+      <c r="V357" s="29"/>
+      <c r="W357" s="29"/>
+      <c r="X357" s="29"/>
+      <c r="Y357" s="29"/>
+    </row>
+    <row r="358" spans="2:8">
+      <c r="B358" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H358" s="1"/>
+    </row>
+    <row r="359" spans="2:8">
+      <c r="B359" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H359" s="1"/>
+    </row>
+    <row r="360" spans="2:8">
+      <c r="B360" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H360" s="1"/>
+    </row>
+    <row r="361" spans="8:8">
+      <c r="H361" s="1"/>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364">
         <v>15</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277">
+      <c r="B364" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="366" spans="6:6">
+      <c r="F366" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373">
         <v>16</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279">
+      <c r="B373" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="375" spans="8:8">
+      <c r="H375" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="376" spans="8:8">
+      <c r="H376" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="377" spans="8:8">
+      <c r="H377" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382">
         <v>17</v>
       </c>
-      <c r="B279" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281">
+      <c r="B382" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399">
         <v>18</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283">
+      <c r="B399" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="402" spans="6:6">
+      <c r="F402" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406">
         <v>19</v>
       </c>
-      <c r="B283" s="1" t="s">
-        <v>180</v>
+      <c r="B406" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="410" spans="8:14">
+      <c r="H410" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I410" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J410" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K410" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L410" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M410" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="N410" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="411" spans="8:14">
+      <c r="H411" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I411" s="8">
+        <v>15000</v>
+      </c>
+      <c r="J411" s="8">
+        <v>1</v>
+      </c>
+      <c r="K411" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L411" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M411" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="N411" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="412" spans="8:14">
+      <c r="H412" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I412" s="8">
+        <v>30000</v>
+      </c>
+      <c r="J412" s="8">
+        <v>1</v>
+      </c>
+      <c r="K412" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L412" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M412" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="N412" s="28">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="413" spans="8:14">
+      <c r="H413" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I413" s="8">
+        <v>60000</v>
+      </c>
+      <c r="J413" s="8">
+        <v>1</v>
+      </c>
+      <c r="K413" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="L413" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M413" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="N413" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="414" spans="8:14">
+      <c r="H414" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I414" s="8">
+        <v>17000</v>
+      </c>
+      <c r="J414" s="8">
+        <v>1</v>
+      </c>
+      <c r="K414" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L414" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M414" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="N414" s="28">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="415" spans="8:14">
+      <c r="H415" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I415" s="8">
+        <v>23000</v>
+      </c>
+      <c r="J415" s="8">
+        <v>1</v>
+      </c>
+      <c r="K415" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="L415" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M415" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="N415" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="416" spans="8:14">
+      <c r="H416" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I416" s="8">
+        <v>25000</v>
+      </c>
+      <c r="J416" s="8">
+        <v>2</v>
+      </c>
+      <c r="K416" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="L416" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M416" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N416" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="417" spans="8:14">
+      <c r="H417" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I417" s="8">
+        <v>32000</v>
+      </c>
+      <c r="J417" s="8">
+        <v>2</v>
+      </c>
+      <c r="K417" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="L417" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M417" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N417" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="418" spans="8:14">
+      <c r="H418" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I418" s="8">
+        <v>16000</v>
+      </c>
+      <c r="J418" s="8">
+        <v>2</v>
+      </c>
+      <c r="K418" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L418" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M418" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N418" s="28">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="419" spans="8:14">
+      <c r="H419" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I419" s="8">
+        <v>20000</v>
+      </c>
+      <c r="J419" s="8">
+        <v>2</v>
+      </c>
+      <c r="K419" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L419" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M419" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N419" s="28">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="420" spans="8:14">
+      <c r="H420" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I420" s="8">
+        <v>40000</v>
+      </c>
+      <c r="J420" s="8">
+        <v>2</v>
+      </c>
+      <c r="K420" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L420" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M420" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N420" s="28">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="421" spans="8:14">
+      <c r="H421" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I421" s="8">
+        <v>17000</v>
+      </c>
+      <c r="J421" s="8">
+        <v>1</v>
+      </c>
+      <c r="K421" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L421" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M421" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="N421" s="28">
+        <v>45047</v>
       </c>
     </row>
   </sheetData>

--- a/Problems 1.xlsx
+++ b/Problems 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9335"/>
+    <workbookView windowWidth="22368" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Var2" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="212">
   <si>
     <t>Пусть T1 - множество чисел в римских цифрах, а T2 - множество чисел в арабских цифрах. A - отношение  над множествами T1 и T2.</t>
   </si>
@@ -67,6 +67,9 @@
     <t>Запишите формулу отношения A  из задачи 1  в выражениях алгебры множеств, а также тело A (корректные кортежи). Какие из приведенных ниже таблиц могут быть телом отношения задачи 1?</t>
   </si>
   <si>
+    <t>???</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -82,6 +85,12 @@
     <t>Тело A:</t>
   </si>
   <si>
+    <t>{&lt;A1</t>
+  </si>
+  <si>
+    <t>&gt;}</t>
+  </si>
+  <si>
     <t xml:space="preserve">могут </t>
   </si>
   <si>
@@ -184,6 +193,9 @@
     <t>Постройте проекцию полученной таблицы по первому и третьему атрибутам.</t>
   </si>
   <si>
+    <t>В реляционной БД:</t>
+  </si>
+  <si>
     <t>Постройте (ϴ-JOIN) объедиенение отношений R1 и R2 по условию, что значение атрибута A1 отношения R2 равно 9.</t>
   </si>
   <si>
@@ -253,6 +265,9 @@
     <t>в</t>
   </si>
   <si>
+    <t>(если две таблицы в каждом пункте - одна БД)</t>
+  </si>
+  <si>
     <t>в)</t>
   </si>
   <si>
@@ -304,6 +319,9 @@
     <t>Номер</t>
   </si>
   <si>
+    <t>Первичный ключ - номер</t>
+  </si>
+  <si>
     <t>Свой</t>
   </si>
   <si>
@@ -400,6 +418,9 @@
     <t>Егорова</t>
   </si>
   <si>
+    <t>потеря данных о ЕГЭ</t>
+  </si>
+  <si>
     <t>Отдел</t>
   </si>
   <si>
@@ -409,6 +430,9 @@
     <t>д)</t>
   </si>
   <si>
+    <t>?????</t>
+  </si>
+  <si>
     <t>Пусть в базе данных хранится таблица с днями недели, соответствующими, например, дням национальной кухни в сети ресторанов.</t>
   </si>
   <si>
@@ -526,27 +550,21 @@
     <t>R1&lt;AND&gt;R3</t>
   </si>
   <si>
-    <t>6*</t>
-  </si>
-  <si>
-    <t>7*</t>
-  </si>
-  <si>
-    <t>8*</t>
-  </si>
-  <si>
-    <t>9*</t>
-  </si>
-  <si>
     <t>R2&lt;AND&gt;R3</t>
   </si>
   <si>
     <t>R2&lt;OR&gt;R3</t>
   </si>
   <si>
+    <t>и так далее?</t>
+  </si>
+  <si>
     <t>R3&lt;OR&gt;R4</t>
   </si>
   <si>
+    <t>??????????????</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -623,6 +641,9 @@
   </si>
   <si>
     <t>Перечислите все внешние ключи в задаче 12.</t>
+  </si>
+  <si>
+    <t>внешний ключ - первичный ключ где-то ещё</t>
   </si>
   <si>
     <t>ANIMATE, HOTEL, SEASON</t>
@@ -636,10 +657,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="d/m;@"/>
   </numFmts>
   <fonts count="27">
@@ -693,45 +714,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,15 +731,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,21 +782,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -814,6 +797,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -821,9 +828,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,13 +852,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,13 +898,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,19 +928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,7 +952,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,25 +1060,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,103 +1084,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,30 +1130,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1138,6 +1141,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,8 +1172,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,163 +1193,178 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1362,7 +1389,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1371,8 +1399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2381,8 +2407,8 @@
   <sheetPr/>
   <dimension ref="A2:Y421"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B400" workbookViewId="0">
-      <selection activeCell="N407" sqref="N407"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="Q283" sqref="Q283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2702,24 +2728,29 @@
         <v>16</v>
       </c>
     </row>
+    <row r="19" spans="15:15">
+      <c r="O19" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="20" spans="8:20">
       <c r="H20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>3</v>
@@ -2734,7 +2765,7 @@
         <v>8</v>
       </c>
       <c r="T20" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="15:20">
@@ -2819,35 +2850,40 @@
     </row>
     <row r="26" spans="10:13">
       <c r="J26" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:13">
       <c r="J27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="L27" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="20.4" spans="3:3">
       <c r="C29" s="6"/>
     </row>
+    <row r="30" spans="15:15">
+      <c r="O30" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="31" spans="8:21">
       <c r="H31" s="7">
         <v>2</v>
@@ -2856,7 +2892,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L31" s="11">
         <v>2</v>
@@ -2865,7 +2901,7 @@
         <v>6</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="11" t="s">
         <v>15</v>
@@ -2900,7 +2936,7 @@
         <v>8</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R32" s="11">
         <v>78</v>
@@ -2929,10 +2965,10 @@
         <v>45</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R33" s="11">
         <v>5</v>
@@ -2949,7 +2985,7 @@
         <v>32</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="11" t="s">
         <v>8</v>
@@ -2963,12 +2999,12 @@
         <v>109</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="3:3">
@@ -2977,7 +3013,7 @@
     <row r="39" spans="3:9">
       <c r="C39" s="1"/>
       <c r="I39" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="3:3">
@@ -2997,18 +3033,18 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="8:12">
       <c r="H46" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I46" s="8">
         <v>15</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L46" s="8">
         <v>7</v>
@@ -3016,22 +3052,22 @@
     </row>
     <row r="47" spans="6:12">
       <c r="F47" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I47" s="8">
         <v>3</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L47" s="8">
         <v>15</v>
@@ -3039,13 +3075,13 @@
     </row>
     <row r="48" spans="8:12">
       <c r="H48" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I48" s="8">
         <v>34</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L48" s="8">
         <v>14</v>
@@ -3053,13 +3089,13 @@
     </row>
     <row r="49" spans="8:12">
       <c r="H49" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I49" s="8">
         <v>8</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L49" s="8">
         <v>3</v>
@@ -3067,7 +3103,7 @@
     </row>
     <row r="50" spans="8:9">
       <c r="H50" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I50" s="8">
         <v>2</v>
@@ -3075,18 +3111,18 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="9:16">
       <c r="I54" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J54" s="8">
         <v>15</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P54" s="8">
         <v>3</v>
@@ -3094,25 +3130,25 @@
     </row>
     <row r="55" spans="9:22">
       <c r="I55" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J55" s="8">
         <v>3</v>
       </c>
       <c r="M55" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P55" s="8">
         <v>15</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V55" s="8">
         <v>34</v>
@@ -3120,13 +3156,13 @@
     </row>
     <row r="56" spans="9:22">
       <c r="I56" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J56" s="8">
         <v>34</v>
       </c>
       <c r="U56" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V56" s="8">
         <v>8</v>
@@ -3134,25 +3170,25 @@
     </row>
     <row r="57" spans="7:22">
       <c r="G57" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="H57" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="J57" s="8">
         <v>8</v>
       </c>
       <c r="S57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V57" s="8">
         <v>2</v>
@@ -3160,7 +3196,7 @@
     </row>
     <row r="58" spans="9:10">
       <c r="I58" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J58" s="8">
         <v>2</v>
@@ -3168,13 +3204,13 @@
     </row>
     <row r="59" spans="9:16">
       <c r="I59" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J59" s="8">
         <v>7</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P59" s="8">
         <v>7</v>
@@ -3182,19 +3218,19 @@
     </row>
     <row r="60" spans="9:16">
       <c r="I60" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J60" s="8">
         <v>14</v>
       </c>
       <c r="M60" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P60" s="8">
         <v>14</v>
@@ -3205,7 +3241,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="8:11">
@@ -3213,7 +3249,7 @@
         <v>10</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K64" s="8">
         <v>1</v>
@@ -3221,19 +3257,19 @@
     </row>
     <row r="65" spans="6:11">
       <c r="F65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K65" s="8">
         <v>2</v>
@@ -3244,7 +3280,7 @@
         <v>11</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K66" s="8">
         <v>3</v>
@@ -3252,7 +3288,7 @@
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="10:12">
@@ -3260,7 +3296,7 @@
         <v>10</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L71" s="8">
         <v>1</v>
@@ -3268,10 +3304,10 @@
     </row>
     <row r="72" spans="10:12">
       <c r="J72" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L72" s="8">
         <v>1</v>
@@ -3282,7 +3318,7 @@
         <v>11</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L73" s="8">
         <v>1</v>
@@ -3293,7 +3329,7 @@
         <v>10</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L74" s="8">
         <v>2</v>
@@ -3301,16 +3337,16 @@
     </row>
     <row r="75" spans="8:12">
       <c r="H75" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L75" s="8">
         <v>2</v>
@@ -3321,7 +3357,7 @@
         <v>11</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L76" s="8">
         <v>2</v>
@@ -3332,7 +3368,7 @@
         <v>10</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L77" s="8">
         <v>3</v>
@@ -3340,10 +3376,10 @@
     </row>
     <row r="78" spans="10:12">
       <c r="J78" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L78" s="8">
         <v>3</v>
@@ -3354,7 +3390,7 @@
         <v>11</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L79" s="8">
         <v>3</v>
@@ -3362,37 +3398,60 @@
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="10:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="13:13">
+      <c r="M87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="10:15">
       <c r="J88" s="8" t="s">
         <v>10</v>
       </c>
       <c r="K88" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="10:11">
+      <c r="N88" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O88" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="10:15">
       <c r="J89" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K89" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="8:11">
+      <c r="N89" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O89" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="8:15">
       <c r="H90" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J90" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K90" s="8">
         <v>1</v>
+      </c>
+      <c r="N90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O90" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="10:11">
@@ -3405,7 +3464,7 @@
     </row>
     <row r="92" spans="10:11">
       <c r="J92" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K92" s="8">
         <v>2</v>
@@ -3429,7 +3488,7 @@
     </row>
     <row r="95" spans="10:11">
       <c r="J95" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K95" s="8">
         <v>3</v>
@@ -3448,44 +3507,44 @@
         <v>5</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="8:12">
       <c r="H100" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K100" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L100" s="14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="6:12">
       <c r="F101" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H101" s="15">
         <v>45544</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K101" s="8">
         <v>9</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="8:12">
@@ -3493,13 +3552,13 @@
         <v>45534</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K102" s="8">
         <v>5</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="11:12">
@@ -3507,41 +3566,41 @@
         <v>1</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="10:13">
       <c r="J105" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K105" s="14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L105" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="8:13">
       <c r="H106" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J106" s="15">
         <v>45544</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L106" s="8">
         <v>9</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="10:13">
@@ -3549,13 +3608,13 @@
         <v>45534</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L107" s="8">
         <v>9</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3563,7 +3622,7 @@
         <v>6</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="8:11">
@@ -3588,15 +3647,15 @@
         <v>3</v>
       </c>
       <c r="M117" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="6:13">
       <c r="F118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H118" s="8">
         <v>86</v>
@@ -3605,7 +3664,7 @@
         <v>8</v>
       </c>
       <c r="J118" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K118" s="8">
         <v>87</v>
@@ -3657,10 +3716,10 @@
     </row>
     <row r="126" spans="6:10">
       <c r="F126" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G126" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H126" s="8">
         <v>56</v>
@@ -3672,12 +3731,12 @@
         <v>7</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3685,12 +3744,12 @@
         <v>8</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="158" spans="7:13">
       <c r="G158" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I158" s="7">
         <v>1</v>
@@ -3699,7 +3758,7 @@
         <v>7</v>
       </c>
       <c r="L158" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M158" s="7">
         <v>2</v>
@@ -3713,7 +3772,7 @@
         <v>8</v>
       </c>
       <c r="L159" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M159" s="7">
         <v>2</v>
@@ -3727,7 +3786,7 @@
         <v>9</v>
       </c>
       <c r="L160" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M160" s="7">
         <v>2</v>
@@ -3738,10 +3797,10 @@
         <v>4</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L161" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M161" s="7">
         <v>4</v>
@@ -3749,7 +3808,7 @@
     </row>
     <row r="163" spans="7:13">
       <c r="G163" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I163" s="18">
         <v>67</v>
@@ -3761,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="M163" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="164" spans="9:13">
@@ -3775,7 +3834,7 @@
         <v>2</v>
       </c>
       <c r="M164" s="18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="9:13">
@@ -3789,10 +3848,10 @@
         <v>3</v>
       </c>
       <c r="M165" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="166" spans="9:13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="166" spans="9:17">
       <c r="I166" s="18">
         <v>2</v>
       </c>
@@ -3803,25 +3862,28 @@
         <v>4</v>
       </c>
       <c r="M166" s="18" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="168" spans="7:13">
       <c r="G168" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I168" s="13">
         <v>9</v>
       </c>
       <c r="J168" s="13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K168" s="19"/>
       <c r="L168" s="13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M168" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="169" spans="9:13">
@@ -3829,11 +3891,11 @@
         <v>8</v>
       </c>
       <c r="J169" s="13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K169" s="19"/>
       <c r="L169" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M169" s="13">
         <v>2</v>
@@ -3844,11 +3906,11 @@
         <v>45</v>
       </c>
       <c r="J170" s="13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K170" s="19"/>
       <c r="L170" s="13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M170" s="13">
         <v>2</v>
@@ -3859,11 +3921,11 @@
         <v>4</v>
       </c>
       <c r="J171" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K171" s="19"/>
       <c r="L171" s="13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M171" s="13">
         <v>4</v>
@@ -3871,60 +3933,60 @@
     </row>
     <row r="173" spans="7:13">
       <c r="G173" t="s">
-        <v>85</v>
-      </c>
-      <c r="I173" s="18">
-        <v>1</v>
-      </c>
-      <c r="J173" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="L173" s="18">
-        <v>1</v>
-      </c>
-      <c r="M173" s="18">
+        <v>90</v>
+      </c>
+      <c r="I173" s="20">
+        <v>1</v>
+      </c>
+      <c r="J173" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L173" s="20">
+        <v>1</v>
+      </c>
+      <c r="M173" s="20">
         <v>9876</v>
       </c>
     </row>
     <row r="174" spans="9:13">
-      <c r="I174" s="18">
-        <v>2</v>
-      </c>
-      <c r="J174" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="L174" s="18">
-        <v>2</v>
-      </c>
-      <c r="M174" s="18">
+      <c r="I174" s="20">
+        <v>2</v>
+      </c>
+      <c r="J174" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L174" s="20">
+        <v>2</v>
+      </c>
+      <c r="M174" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="9:13">
-      <c r="I175" s="18">
+      <c r="I175" s="20">
         <v>78</v>
       </c>
-      <c r="J175" s="18" t="s">
+      <c r="J175" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="L175" s="20">
+        <v>3</v>
+      </c>
+      <c r="M175" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="9:13">
+      <c r="I176" s="20">
+        <v>4</v>
+      </c>
+      <c r="J176" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="L175" s="18">
-        <v>3</v>
-      </c>
-      <c r="M175" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="9:13">
-      <c r="I176" s="18">
+      <c r="L176" s="20">
         <v>4</v>
       </c>
-      <c r="J176" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L176" s="18">
-        <v>4</v>
-      </c>
-      <c r="M176" s="18">
+      <c r="M176" s="20">
         <v>4</v>
       </c>
     </row>
@@ -3933,151 +3995,154 @@
         <v>9</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="180" spans="9:14">
       <c r="I180" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J180" s="14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K180" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L180" s="14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M180" s="14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="N180" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="181" spans="9:14">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="181" spans="9:16">
       <c r="I181" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J181" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="J181" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="K181" s="14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L181" s="14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M181" s="14" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N181" s="14" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="P181" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="182" spans="9:14">
       <c r="I182" s="8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J182" s="8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K182" s="8">
         <v>1</v>
       </c>
       <c r="L182" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M182" s="21">
+        <v>104</v>
+      </c>
+      <c r="M182" s="22">
         <v>36892</v>
       </c>
-      <c r="N182" s="22">
+      <c r="N182" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="9:14">
       <c r="I183" s="8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J183" s="8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K183" s="8">
         <v>2</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M183" s="21">
+        <v>107</v>
+      </c>
+      <c r="M183" s="22">
         <v>39815</v>
       </c>
-      <c r="N183" s="22">
+      <c r="N183" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="9:14">
       <c r="I184" s="8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J184" s="8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K184" s="8">
         <v>3</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M184" s="21">
+        <v>104</v>
+      </c>
+      <c r="M184" s="22">
         <v>43833</v>
       </c>
-      <c r="N184" s="22">
+      <c r="N184" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="185" spans="9:14">
       <c r="I185" s="8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J185" s="8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K185" s="8">
         <v>1</v>
       </c>
       <c r="L185" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="M185" s="21">
+        <v>112</v>
+      </c>
+      <c r="M185" s="22">
         <v>36892</v>
       </c>
-      <c r="N185" s="22">
+      <c r="N185" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="186" spans="9:14">
       <c r="I186" s="8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J186" s="8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K186" s="8">
         <v>3</v>
       </c>
       <c r="L186" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M186" s="21">
+        <v>107</v>
+      </c>
+      <c r="M186" s="22">
         <v>42374</v>
       </c>
-      <c r="N186" s="22">
+      <c r="N186" s="23">
         <v>5</v>
       </c>
     </row>
@@ -4086,683 +4151,689 @@
         <v>10</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="192" spans="6:15">
       <c r="F192" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H192" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I192" s="14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J192" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K192" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="M192" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="N192" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="O192" s="23" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="M192" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="N192" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="O192" s="24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="193" spans="8:15">
       <c r="H193" s="14" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I193" s="14" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J193" s="14" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K193" s="14" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M193" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="N193" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="O193" s="23" t="s">
-        <v>114</v>
+        <v>119</v>
+      </c>
+      <c r="N193" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="O193" s="24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="194" spans="8:15">
       <c r="H194" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I194" s="8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J194" s="8">
         <v>290</v>
       </c>
       <c r="K194" s="8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M194" s="8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N194" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O194" s="8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="195" spans="8:15">
       <c r="H195" s="8" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I195" s="8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J195" s="8">
         <v>302</v>
       </c>
       <c r="K195" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M195" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N195" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O195" s="8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="196" spans="8:11">
       <c r="H196" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I196" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J196" s="8">
         <v>300</v>
       </c>
       <c r="K196" s="8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="197" spans="8:11">
       <c r="H197" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I197" s="8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J197" s="8">
         <v>296</v>
       </c>
       <c r="K197" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="198" spans="8:11">
       <c r="H198" s="8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I198" s="8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J198" s="8">
         <v>298</v>
       </c>
       <c r="K198" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="200" spans="6:17">
+      <c r="F200" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H200" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I200" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J200" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K200" s="26"/>
+      <c r="M200" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N200" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="O200" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="201" spans="8:15">
+      <c r="H201" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I201" s="25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="200" spans="6:15">
-      <c r="F200" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H200" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I200" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="J200" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K200" s="25"/>
-      <c r="M200" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="N200" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="O200" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="201" spans="8:15">
-      <c r="H201" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I201" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="J201" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="K201" s="25"/>
-      <c r="M201" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="N201" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="O201" s="24" t="s">
-        <v>114</v>
+      <c r="J201" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="K201" s="26"/>
+      <c r="M201" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N201" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="O201" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="202" spans="8:15">
       <c r="H202" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I202" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J202" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K202" s="26"/>
+        <v>123</v>
+      </c>
+      <c r="K202" s="27"/>
       <c r="M202" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N202" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O202" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="203" spans="8:15">
       <c r="H203" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I203" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J203" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K203" s="26"/>
+        <v>126</v>
+      </c>
+      <c r="K203" s="27"/>
       <c r="M203" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N203" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O203" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="204" spans="8:11">
       <c r="H204" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I204" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J204" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I204" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J204" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K204" s="26"/>
+      <c r="K204" s="27"/>
     </row>
     <row r="205" spans="8:11">
       <c r="H205" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I205" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J205" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K205" s="26"/>
+        <v>126</v>
+      </c>
+      <c r="K205" s="27"/>
     </row>
     <row r="206" spans="8:11">
       <c r="H206" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I206" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J206" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K206" s="26"/>
+        <v>123</v>
+      </c>
+      <c r="K206" s="27"/>
     </row>
     <row r="208" spans="6:15">
       <c r="F208" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H208" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I208" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="J208" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K208" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M208" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="N208" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="O208" s="24" t="s">
-        <v>64</v>
+        <v>84</v>
+      </c>
+      <c r="H208" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I208" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J208" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K208" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M208" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N208" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="O208" s="25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="8:15">
-      <c r="H209" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I209" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="J209" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="K209" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="M209" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="N209" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="O209" s="24" t="s">
-        <v>114</v>
+      <c r="H209" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I209" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="J209" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="K209" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M209" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N209" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="O209" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="210" spans="8:15">
       <c r="H210" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I210" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J210" s="7">
         <v>290</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M210" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N210" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O210" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="211" spans="8:15">
       <c r="H211" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I211" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J211" s="7">
         <v>302</v>
       </c>
       <c r="K211" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M211" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N211" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O211" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="212" spans="8:11">
       <c r="H212" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I212" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J212" s="7">
         <v>300</v>
       </c>
       <c r="K212" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="213" spans="8:11">
       <c r="H213" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I213" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J213" s="7">
         <v>296</v>
       </c>
       <c r="K213" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="214" spans="8:11">
       <c r="H214" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I214" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J214" s="7">
         <v>298</v>
       </c>
       <c r="K214" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="216" spans="6:15">
       <c r="F216" t="s">
-        <v>85</v>
-      </c>
-      <c r="H216" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I216" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="J216" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K216" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M216" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="N216" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="O216" s="24" t="s">
-        <v>64</v>
+        <v>90</v>
+      </c>
+      <c r="H216" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I216" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J216" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K216" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M216" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N216" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="O216" s="25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="217" spans="8:15">
-      <c r="H217" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I217" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="J217" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="K217" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="M217" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="N217" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="O217" s="24" t="s">
-        <v>114</v>
+      <c r="H217" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I217" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="J217" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="K217" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M217" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N217" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="O217" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="218" spans="8:15">
       <c r="H218" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I218" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J218" s="7">
         <v>290</v>
       </c>
       <c r="K218" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M218" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N218" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O218" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="219" spans="8:15">
       <c r="H219" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I219" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J219" s="7">
         <v>302</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M219" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N219" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O219" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="220" spans="8:11">
       <c r="H220" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I220" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J220" s="7">
         <v>300</v>
       </c>
       <c r="K220" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="221" spans="8:11">
       <c r="H221" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I221" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J221" s="7">
         <v>296</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="222" spans="8:11">
       <c r="H222" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I222" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J222" s="7">
         <v>298</v>
       </c>
       <c r="K222" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="224" spans="6:17">
+      <c r="F224" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H224" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I224" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J224" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K224" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M224" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N224" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="O224" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="225" spans="8:15">
+      <c r="H225" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I225" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="J225" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="K225" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M225" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N225" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="O225" s="25" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="224" spans="6:15">
-      <c r="F224" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="H224" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I224" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="J224" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K224" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M224" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="N224" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="O224" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="225" spans="8:15">
-      <c r="H225" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I225" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="J225" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="K225" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="M225" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="N225" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="O225" s="24" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="226" spans="8:15">
       <c r="H226" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I226" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J226" s="7">
         <v>290</v>
       </c>
       <c r="K226" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M226" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N226" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O226" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="227" spans="8:15">
       <c r="H227" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I227" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J227" s="7">
         <v>302</v>
       </c>
       <c r="K227" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M227" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N227" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O227" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="228" spans="8:11">
       <c r="H228" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I228" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J228" s="7">
         <v>300</v>
       </c>
       <c r="K228" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="229" spans="8:11">
       <c r="H229" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I229" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J229" s="7">
         <v>296</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="230" spans="8:11">
       <c r="H230" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I230" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J230" s="7">
         <v>298</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4770,63 +4841,63 @@
         <v>11</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="235" spans="8:8">
       <c r="H235" s="14" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="236" spans="8:8">
       <c r="H236" s="8" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="237" spans="6:8">
       <c r="F237" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G237" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H237" s="8" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="238" spans="8:8">
       <c r="H238" s="8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="242" spans="10:10">
       <c r="J242" s="14" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="243" spans="10:10">
       <c r="J243" s="8" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="244" spans="10:10">
       <c r="J244" s="8" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="245" spans="10:10">
       <c r="J245" s="8" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="246" spans="10:10">
       <c r="J246" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4834,41 +4905,41 @@
         <v>12</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="251" spans="8:20">
       <c r="H251" s="14" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I251" s="14" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="J251" s="14" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M251" s="14" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="N251" s="14" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="O251" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="R251" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="S251" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="T251" s="23" t="s">
-        <v>148</v>
+        <v>153</v>
+      </c>
+      <c r="R251" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="S251" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="T251" s="24" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="252" spans="8:20">
       <c r="H252" s="8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="I252" s="8">
         <v>15000</v>
@@ -4877,10 +4948,10 @@
         <v>1</v>
       </c>
       <c r="M252" s="8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="N252" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="O252" s="8">
         <v>2</v>
@@ -4889,21 +4960,21 @@
         <v>1</v>
       </c>
       <c r="S252" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="T252" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="253" spans="6:20">
       <c r="F253" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G253" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H253" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I253" s="8">
         <v>30000</v>
@@ -4912,33 +4983,33 @@
         <v>1</v>
       </c>
       <c r="L253" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="M253" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="N253" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="O253" s="8">
         <v>1</v>
       </c>
       <c r="Q253" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="R253" s="8">
         <v>2</v>
       </c>
       <c r="S253" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="T253" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="254" spans="8:15">
       <c r="H254" s="8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="I254" s="8">
         <v>60000</v>
@@ -4947,10 +5018,10 @@
         <v>1</v>
       </c>
       <c r="M254" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="N254" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="O254" s="8">
         <v>2</v>
@@ -4958,7 +5029,7 @@
     </row>
     <row r="255" spans="8:15">
       <c r="H255" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I255" s="8">
         <v>17000</v>
@@ -4967,10 +5038,10 @@
         <v>1</v>
       </c>
       <c r="M255" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N255" s="8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="O255" s="8">
         <v>1</v>
@@ -4978,7 +5049,7 @@
     </row>
     <row r="256" spans="8:19">
       <c r="H256" s="8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I256" s="8">
         <v>23000</v>
@@ -4987,24 +5058,24 @@
         <v>1</v>
       </c>
       <c r="M256" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="N256" s="8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="O256" s="8">
         <v>1</v>
       </c>
       <c r="R256" s="14" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="S256" s="14" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="257" spans="8:19">
       <c r="H257" s="8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="I257" s="8">
         <v>25000</v>
@@ -5012,28 +5083,28 @@
       <c r="J257" s="8">
         <v>2</v>
       </c>
-      <c r="M257" s="27" t="s">
-        <v>165</v>
+      <c r="M257" s="28" t="s">
+        <v>173</v>
       </c>
       <c r="N257" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="O257" s="27">
+        <v>169</v>
+      </c>
+      <c r="O257" s="28">
         <v>2</v>
       </c>
       <c r="Q257" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="R257" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="S257" s="28">
+        <v>159</v>
+      </c>
+      <c r="S257" s="29">
         <v>45627</v>
       </c>
     </row>
     <row r="258" spans="8:19">
       <c r="H258" s="8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="I258" s="8">
         <v>32000</v>
@@ -5042,15 +5113,15 @@
         <v>2</v>
       </c>
       <c r="R258" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="S258" s="28">
+        <v>169</v>
+      </c>
+      <c r="S258" s="29">
         <v>45047</v>
       </c>
     </row>
     <row r="259" spans="8:10">
       <c r="H259" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="I259" s="8">
         <v>16000</v>
@@ -5061,7 +5132,7 @@
     </row>
     <row r="260" spans="8:10">
       <c r="H260" s="8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I260" s="8">
         <v>20000</v>
@@ -5072,7 +5143,7 @@
     </row>
     <row r="261" spans="8:10">
       <c r="H261" s="8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I261" s="8">
         <v>40000</v>
@@ -5083,38 +5154,38 @@
     </row>
     <row r="263" spans="2:2">
       <c r="B263" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="265" spans="3:13">
       <c r="C265" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D265" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H265" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I265" s="14" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="J265" s="14" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K265" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="L265" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="M265" s="23" t="s">
-        <v>148</v>
+        <v>153</v>
+      </c>
+      <c r="L265" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="M265" s="24" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="266" spans="9:13">
       <c r="I266" s="8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="J266" s="8">
         <v>15000</v>
@@ -5123,15 +5194,15 @@
         <v>1</v>
       </c>
       <c r="L266" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M266" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="267" spans="9:13">
       <c r="I267" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J267" s="8">
         <v>30000</v>
@@ -5140,15 +5211,15 @@
         <v>1</v>
       </c>
       <c r="L267" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M267" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="268" spans="9:13">
       <c r="I268" s="8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="J268" s="8">
         <v>60000</v>
@@ -5157,15 +5228,15 @@
         <v>1</v>
       </c>
       <c r="L268" s="8" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="M268" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="269" spans="9:13">
       <c r="I269" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J269" s="8">
         <v>17000</v>
@@ -5174,15 +5245,15 @@
         <v>1</v>
       </c>
       <c r="L269" s="8" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M269" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="270" spans="9:13">
       <c r="I270" s="8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J270" s="8">
         <v>23000</v>
@@ -5191,15 +5262,15 @@
         <v>1</v>
       </c>
       <c r="L270" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="M270" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="271" spans="9:13">
       <c r="I271" s="8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J271" s="8">
         <v>25000</v>
@@ -5208,15 +5279,15 @@
         <v>2</v>
       </c>
       <c r="L271" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M271" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="272" spans="9:13">
       <c r="I272" s="8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J272" s="8">
         <v>32000</v>
@@ -5225,15 +5296,15 @@
         <v>2</v>
       </c>
       <c r="L272" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M272" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="273" spans="9:13">
       <c r="I273" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J273" s="8">
         <v>16000</v>
@@ -5242,15 +5313,15 @@
         <v>2</v>
       </c>
       <c r="L273" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M273" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="274" spans="9:13">
       <c r="I274" s="8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J274" s="8">
         <v>20000</v>
@@ -5259,15 +5330,15 @@
         <v>2</v>
       </c>
       <c r="L274" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M274" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="275" spans="9:13">
       <c r="I275" s="8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="J275" s="8">
         <v>40000</v>
@@ -5276,391 +5347,399 @@
         <v>2</v>
       </c>
       <c r="L275" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M275" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="277" spans="3:13">
       <c r="C277" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D277" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H277" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I277" s="14" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="J277" s="14" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K277" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="L277" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="M277" s="23" t="s">
-        <v>148</v>
+        <v>153</v>
+      </c>
+      <c r="L277" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="M277" s="24" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="278" spans="9:13">
       <c r="I278" s="8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J278" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K278" s="8">
         <v>2</v>
       </c>
       <c r="L278" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M278" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="279" spans="9:13">
       <c r="I279" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J279" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K279" s="8">
         <v>1</v>
       </c>
       <c r="L279" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M279" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="280" spans="9:13">
       <c r="I280" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J280" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K280" s="8">
         <v>2</v>
       </c>
       <c r="L280" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M280" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="281" spans="9:13">
       <c r="I281" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J281" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K281" s="8">
+        <v>1</v>
+      </c>
+      <c r="L281" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M281" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="K281" s="8">
-        <v>1</v>
-      </c>
-      <c r="L281" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="M281" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="282" spans="9:13">
       <c r="I282" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J282" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K282" s="8">
+        <v>1</v>
+      </c>
+      <c r="L282" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M282" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K282" s="8">
-        <v>1</v>
-      </c>
-      <c r="L282" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="M282" s="8" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="283" spans="9:13">
-      <c r="I283" s="27" t="s">
+      <c r="I283" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="J283" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K283" s="28">
+        <v>2</v>
+      </c>
+      <c r="L283" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="J283" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K283" s="27">
-        <v>2</v>
-      </c>
-      <c r="L283" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="M283" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="288" spans="3:13">
       <c r="C288" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D288" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I288" s="14" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="J288" s="14" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K288" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="L288" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="M288" s="23" t="s">
-        <v>148</v>
+        <v>153</v>
+      </c>
+      <c r="L288" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="M288" s="24" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="289" spans="9:13">
       <c r="I289" s="8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J289" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K289" s="8">
         <v>2</v>
       </c>
       <c r="L289" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M289" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="290" spans="9:13">
       <c r="I290" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J290" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K290" s="8">
         <v>1</v>
       </c>
       <c r="L290" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M290" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="291" spans="9:13">
       <c r="I291" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J291" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K291" s="8">
+        <v>2</v>
+      </c>
+      <c r="L291" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="J291" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="K291" s="8">
-        <v>2</v>
-      </c>
-      <c r="L291" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="M291" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="292" spans="9:13">
       <c r="I292" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J292" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K292" s="8">
+        <v>1</v>
+      </c>
+      <c r="L292" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M292" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="K292" s="8">
-        <v>1</v>
-      </c>
-      <c r="L292" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="M292" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="293" spans="9:13">
       <c r="I293" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J293" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K293" s="8">
+        <v>1</v>
+      </c>
+      <c r="L293" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M293" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K293" s="8">
-        <v>1</v>
-      </c>
-      <c r="L293" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="M293" s="8" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="294" spans="9:13">
-      <c r="I294" s="27" t="s">
-        <v>165</v>
+      <c r="I294" s="28" t="s">
+        <v>173</v>
       </c>
       <c r="J294" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K294" s="28">
+        <v>2</v>
+      </c>
+      <c r="L294" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M294" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="K294" s="27">
-        <v>2</v>
-      </c>
-      <c r="L294" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="M294" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="295" spans="9:13">
       <c r="I295" s="8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J295" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K295" s="8">
         <v>2</v>
       </c>
       <c r="L295" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M295" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="296" spans="9:13">
       <c r="I296" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J296" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K296" s="8">
         <v>1</v>
       </c>
       <c r="L296" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M296" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="297" spans="9:13">
       <c r="I297" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J297" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K297" s="8">
         <v>2</v>
       </c>
       <c r="L297" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M297" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="298" spans="9:13">
       <c r="I298" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J298" s="8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K298" s="8">
         <v>1</v>
       </c>
       <c r="L298" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M298" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="299" spans="9:13">
       <c r="I299" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J299" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K299" s="8">
+        <v>1</v>
+      </c>
+      <c r="L299" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M299" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="300" spans="9:13">
+      <c r="I300" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="J300" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K300" s="28">
+        <v>2</v>
+      </c>
+      <c r="L300" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M300" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="301" spans="13:13">
+      <c r="M301" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="304" spans="3:15">
+      <c r="C304" t="s">
+        <v>90</v>
+      </c>
+      <c r="D304" t="s">
+        <v>181</v>
+      </c>
+      <c r="H304" t="s">
+        <v>19</v>
+      </c>
+      <c r="I304" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="J304" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="J299" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K299" s="8">
-        <v>1</v>
-      </c>
-      <c r="L299" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M299" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="300" spans="9:13">
-      <c r="I300" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="J300" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K300" s="27">
-        <v>2</v>
-      </c>
-      <c r="L300" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M300" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="304" spans="3:13">
-      <c r="C304" t="s">
-        <v>85</v>
-      </c>
-      <c r="D304" t="s">
-        <v>176</v>
-      </c>
-      <c r="H304" t="s">
-        <v>18</v>
-      </c>
-      <c r="I304" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="J304" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="K304" s="23" t="s">
-        <v>148</v>
+      <c r="K304" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="L304" s="14" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="M304" s="14" t="s">
-        <v>163</v>
+        <v>171</v>
+      </c>
+      <c r="O304" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="305" spans="9:13">
@@ -5668,15 +5747,15 @@
         <v>1</v>
       </c>
       <c r="J305" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K305" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L305" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="M305" s="28">
+        <v>159</v>
+      </c>
+      <c r="M305" s="29">
         <v>45627</v>
       </c>
     </row>
@@ -5685,15 +5764,15 @@
         <v>2</v>
       </c>
       <c r="J306" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K306" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L306" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="M306" s="28">
+        <v>169</v>
+      </c>
+      <c r="M306" s="29">
         <v>45047</v>
       </c>
     </row>
@@ -5702,15 +5781,15 @@
         <v>1</v>
       </c>
       <c r="J307" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K307" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L307" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="M307" s="28">
+        <v>169</v>
+      </c>
+      <c r="M307" s="29">
         <v>45047</v>
       </c>
     </row>
@@ -5719,15 +5798,15 @@
         <v>2</v>
       </c>
       <c r="J308" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K308" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L308" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="M308" s="28">
+        <v>159</v>
+      </c>
+      <c r="M308" s="29">
         <v>45627</v>
       </c>
     </row>
@@ -5736,15 +5815,15 @@
         <v>3</v>
       </c>
       <c r="J309" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K309" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L309" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="M309" s="28">
+        <v>169</v>
+      </c>
+      <c r="M309" s="29">
         <v>45047</v>
       </c>
     </row>
@@ -5753,15 +5832,15 @@
         <v>4</v>
       </c>
       <c r="J310" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K310" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L310" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="M310" s="28">
+        <v>159</v>
+      </c>
+      <c r="M310" s="29">
         <v>45627</v>
       </c>
     </row>
@@ -5770,15 +5849,15 @@
         <v>1</v>
       </c>
       <c r="J311" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K311" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L311" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="M311" s="28">
+        <v>183</v>
+      </c>
+      <c r="M311" s="29">
         <v>45047</v>
       </c>
     </row>
@@ -5787,15 +5866,15 @@
         <v>2</v>
       </c>
       <c r="J312" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K312" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L312" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="M312" s="28">
+        <v>159</v>
+      </c>
+      <c r="M312" s="29">
         <v>45993</v>
       </c>
     </row>
@@ -5804,48 +5883,48 @@
         <v>13</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="319" spans="2:2">
       <c r="B319" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="321" spans="5:10">
       <c r="E321" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F321" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I321" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J321" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="322" spans="10:14">
       <c r="J322" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K322" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L322" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M322" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="N322" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="323" spans="10:14">
@@ -5918,33 +5997,33 @@
     </row>
     <row r="332" spans="5:10">
       <c r="E332" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F332" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I332" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J332" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="333" spans="11:15">
       <c r="K333" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L333" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M333" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="N333" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O333" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="334" spans="11:15">
@@ -6020,213 +6099,213 @@
         <v>14</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="345" spans="2:2">
       <c r="B345" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="346" spans="2:2">
       <c r="B346" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="347" spans="2:25">
       <c r="B347" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K347" s="14" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="L347" s="14" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="M347" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="R347" s="25"/>
-      <c r="S347" s="25"/>
-      <c r="T347" s="25"/>
-      <c r="U347" s="29"/>
-      <c r="V347" s="29"/>
-      <c r="W347" s="25"/>
-      <c r="X347" s="25"/>
-      <c r="Y347" s="25"/>
+        <v>153</v>
+      </c>
+      <c r="R347" s="26"/>
+      <c r="S347" s="26"/>
+      <c r="T347" s="26"/>
+      <c r="U347" s="27"/>
+      <c r="V347" s="27"/>
+      <c r="W347" s="26"/>
+      <c r="X347" s="26"/>
+      <c r="Y347" s="26"/>
     </row>
     <row r="348" spans="11:25">
       <c r="K348" s="8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L348" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M348" s="8">
         <v>2</v>
       </c>
-      <c r="R348" s="26"/>
-      <c r="S348" s="26"/>
-      <c r="T348" s="26"/>
-      <c r="U348" s="29"/>
-      <c r="V348" s="29"/>
-      <c r="W348" s="26"/>
-      <c r="X348" s="26"/>
-      <c r="Y348" s="26"/>
+      <c r="R348" s="27"/>
+      <c r="S348" s="27"/>
+      <c r="T348" s="27"/>
+      <c r="U348" s="27"/>
+      <c r="V348" s="27"/>
+      <c r="W348" s="27"/>
+      <c r="X348" s="27"/>
+      <c r="Y348" s="27"/>
     </row>
     <row r="349" spans="11:25">
       <c r="K349" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="L349" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M349" s="8">
         <v>1</v>
       </c>
-      <c r="R349" s="26"/>
-      <c r="S349" s="26"/>
-      <c r="T349" s="26"/>
-      <c r="U349" s="29"/>
-      <c r="V349" s="29"/>
-      <c r="W349" s="26"/>
-      <c r="X349" s="26"/>
-      <c r="Y349" s="26"/>
+      <c r="R349" s="27"/>
+      <c r="S349" s="27"/>
+      <c r="T349" s="27"/>
+      <c r="U349" s="27"/>
+      <c r="V349" s="27"/>
+      <c r="W349" s="27"/>
+      <c r="X349" s="27"/>
+      <c r="Y349" s="27"/>
     </row>
     <row r="350" spans="11:25">
       <c r="K350" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="L350" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M350" s="8">
         <v>2</v>
       </c>
-      <c r="R350" s="26"/>
-      <c r="S350" s="26"/>
-      <c r="T350" s="26"/>
-      <c r="U350" s="29"/>
-      <c r="V350" s="29"/>
-      <c r="W350" s="26"/>
-      <c r="X350" s="26"/>
-      <c r="Y350" s="26"/>
+      <c r="R350" s="27"/>
+      <c r="S350" s="27"/>
+      <c r="T350" s="27"/>
+      <c r="U350" s="27"/>
+      <c r="V350" s="27"/>
+      <c r="W350" s="27"/>
+      <c r="X350" s="27"/>
+      <c r="Y350" s="27"/>
     </row>
     <row r="351" spans="11:25">
       <c r="K351" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L351" s="8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M351" s="8">
         <v>1</v>
       </c>
-      <c r="R351" s="26"/>
-      <c r="S351" s="26"/>
-      <c r="T351" s="26"/>
-      <c r="U351" s="29"/>
-      <c r="V351" s="29"/>
-      <c r="W351" s="26"/>
-      <c r="X351" s="26"/>
-      <c r="Y351" s="26"/>
+      <c r="R351" s="27"/>
+      <c r="S351" s="27"/>
+      <c r="T351" s="27"/>
+      <c r="U351" s="27"/>
+      <c r="V351" s="27"/>
+      <c r="W351" s="27"/>
+      <c r="X351" s="27"/>
+      <c r="Y351" s="27"/>
     </row>
     <row r="352" spans="11:25">
       <c r="K352" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="L352" s="8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M352" s="8">
         <v>1</v>
       </c>
-      <c r="R352" s="26"/>
-      <c r="S352" s="26"/>
-      <c r="T352" s="26"/>
-      <c r="U352" s="29"/>
-      <c r="V352" s="29"/>
-      <c r="W352" s="26"/>
-      <c r="X352" s="26"/>
-      <c r="Y352" s="26"/>
+      <c r="R352" s="27"/>
+      <c r="S352" s="27"/>
+      <c r="T352" s="27"/>
+      <c r="U352" s="27"/>
+      <c r="V352" s="27"/>
+      <c r="W352" s="27"/>
+      <c r="X352" s="27"/>
+      <c r="Y352" s="27"/>
     </row>
     <row r="353" spans="11:25">
-      <c r="K353" s="27" t="s">
-        <v>165</v>
+      <c r="K353" s="28" t="s">
+        <v>173</v>
       </c>
       <c r="L353" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="M353" s="27">
-        <v>2</v>
-      </c>
-      <c r="R353" s="26"/>
-      <c r="S353" s="26"/>
-      <c r="T353" s="26"/>
-      <c r="U353" s="29"/>
-      <c r="V353" s="29"/>
+        <v>169</v>
+      </c>
+      <c r="M353" s="28">
+        <v>2</v>
+      </c>
+      <c r="R353" s="27"/>
+      <c r="S353" s="27"/>
+      <c r="T353" s="27"/>
+      <c r="U353" s="27"/>
+      <c r="V353" s="27"/>
       <c r="W353" s="12"/>
-      <c r="X353" s="26"/>
+      <c r="X353" s="27"/>
       <c r="Y353" s="12"/>
     </row>
     <row r="354" spans="18:25">
-      <c r="R354" s="26"/>
-      <c r="S354" s="26"/>
-      <c r="T354" s="26"/>
-      <c r="U354" s="29"/>
-      <c r="V354" s="29"/>
-      <c r="W354" s="29"/>
-      <c r="X354" s="29"/>
-      <c r="Y354" s="29"/>
+      <c r="R354" s="27"/>
+      <c r="S354" s="27"/>
+      <c r="T354" s="27"/>
+      <c r="U354" s="27"/>
+      <c r="V354" s="27"/>
+      <c r="W354" s="27"/>
+      <c r="X354" s="27"/>
+      <c r="Y354" s="27"/>
     </row>
     <row r="355" spans="18:25">
-      <c r="R355" s="26"/>
-      <c r="S355" s="26"/>
-      <c r="T355" s="26"/>
-      <c r="U355" s="29"/>
-      <c r="V355" s="29"/>
-      <c r="W355" s="29"/>
-      <c r="X355" s="29"/>
-      <c r="Y355" s="29"/>
+      <c r="R355" s="27"/>
+      <c r="S355" s="27"/>
+      <c r="T355" s="27"/>
+      <c r="U355" s="27"/>
+      <c r="V355" s="27"/>
+      <c r="W355" s="27"/>
+      <c r="X355" s="27"/>
+      <c r="Y355" s="27"/>
     </row>
     <row r="356" spans="2:25">
       <c r="B356" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="R356" s="26"/>
-      <c r="S356" s="26"/>
-      <c r="T356" s="26"/>
-      <c r="U356" s="29"/>
-      <c r="V356" s="29"/>
-      <c r="W356" s="29"/>
-      <c r="X356" s="29"/>
-      <c r="Y356" s="29"/>
+        <v>198</v>
+      </c>
+      <c r="R356" s="27"/>
+      <c r="S356" s="27"/>
+      <c r="T356" s="27"/>
+      <c r="U356" s="27"/>
+      <c r="V356" s="27"/>
+      <c r="W356" s="27"/>
+      <c r="X356" s="27"/>
+      <c r="Y356" s="27"/>
     </row>
     <row r="357" spans="18:25">
-      <c r="R357" s="26"/>
-      <c r="S357" s="26"/>
-      <c r="T357" s="26"/>
-      <c r="U357" s="29"/>
-      <c r="V357" s="29"/>
-      <c r="W357" s="29"/>
-      <c r="X357" s="29"/>
-      <c r="Y357" s="29"/>
+      <c r="R357" s="27"/>
+      <c r="S357" s="27"/>
+      <c r="T357" s="27"/>
+      <c r="U357" s="27"/>
+      <c r="V357" s="27"/>
+      <c r="W357" s="27"/>
+      <c r="X357" s="27"/>
+      <c r="Y357" s="27"/>
     </row>
     <row r="358" spans="2:8">
       <c r="B358" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H358" s="1"/>
     </row>
     <row r="359" spans="2:8">
       <c r="B359" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H359" s="1"/>
     </row>
     <row r="360" spans="2:8">
       <c r="B360" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H360" s="1"/>
     </row>
@@ -6238,12 +6317,15 @@
         <v>15</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="366" spans="6:6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="366" spans="6:14">
       <c r="F366" t="s">
-        <v>196</v>
+        <v>202</v>
+      </c>
+      <c r="N366" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6251,22 +6333,22 @@
         <v>16</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="375" spans="8:8">
       <c r="H375" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="376" spans="8:8">
       <c r="H376" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="377" spans="8:8">
       <c r="H377" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6274,20 +6356,23 @@
         <v>17</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11">
       <c r="A399">
         <v>18</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
+      </c>
+      <c r="K399" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="402" spans="6:6">
       <c r="F402" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -6295,35 +6380,35 @@
         <v>19</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="410" spans="8:14">
       <c r="H410" s="14" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I410" s="14" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="J410" s="14" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="K410" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="L410" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="M410" s="23" t="s">
-        <v>148</v>
+        <v>154</v>
+      </c>
+      <c r="L410" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="M410" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="N410" s="14" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="411" spans="8:14">
       <c r="H411" s="8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="I411" s="8">
         <v>15000</v>
@@ -6332,21 +6417,21 @@
         <v>1</v>
       </c>
       <c r="K411" s="8" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L411" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M411" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="N411" s="30" t="s">
-        <v>129</v>
+        <v>161</v>
+      </c>
+      <c r="N411" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="412" spans="8:14">
       <c r="H412" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I412" s="8">
         <v>30000</v>
@@ -6355,21 +6440,21 @@
         <v>1</v>
       </c>
       <c r="K412" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L412" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M412" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="L412" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="M412" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="N412" s="28">
+      <c r="N412" s="29">
         <v>45047</v>
       </c>
     </row>
     <row r="413" spans="8:14">
       <c r="H413" s="8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="I413" s="8">
         <v>60000</v>
@@ -6377,22 +6462,22 @@
       <c r="J413" s="8">
         <v>1</v>
       </c>
-      <c r="K413" s="30" t="s">
-        <v>129</v>
+      <c r="K413" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="L413" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M413" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="N413" s="30" t="s">
-        <v>129</v>
+        <v>161</v>
+      </c>
+      <c r="N413" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="414" spans="8:14">
       <c r="H414" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I414" s="8">
         <v>17000</v>
@@ -6401,21 +6486,21 @@
         <v>1</v>
       </c>
       <c r="K414" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="L414" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M414" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="N414" s="28">
+        <v>161</v>
+      </c>
+      <c r="N414" s="29">
         <v>45627</v>
       </c>
     </row>
     <row r="415" spans="8:14">
       <c r="H415" s="8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I415" s="8">
         <v>23000</v>
@@ -6423,22 +6508,22 @@
       <c r="J415" s="8">
         <v>1</v>
       </c>
-      <c r="K415" s="30" t="s">
-        <v>129</v>
+      <c r="K415" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="L415" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M415" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="N415" s="30" t="s">
-        <v>129</v>
+        <v>161</v>
+      </c>
+      <c r="N415" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="416" spans="8:14">
       <c r="H416" s="8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="I416" s="8">
         <v>25000</v>
@@ -6446,22 +6531,22 @@
       <c r="J416" s="8">
         <v>2</v>
       </c>
-      <c r="K416" s="30" t="s">
-        <v>129</v>
+      <c r="K416" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="L416" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M416" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="N416" s="30" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="N416" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="417" spans="8:14">
       <c r="H417" s="8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="I417" s="8">
         <v>32000</v>
@@ -6469,22 +6554,22 @@
       <c r="J417" s="8">
         <v>2</v>
       </c>
-      <c r="K417" s="30" t="s">
-        <v>129</v>
+      <c r="K417" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="L417" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M417" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="N417" s="30" t="s">
-        <v>129</v>
+        <v>166</v>
+      </c>
+      <c r="N417" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="418" spans="8:14">
       <c r="H418" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="I418" s="8">
         <v>16000</v>
@@ -6493,21 +6578,21 @@
         <v>2</v>
       </c>
       <c r="K418" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="L418" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M418" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="N418" s="28">
+        <v>166</v>
+      </c>
+      <c r="N418" s="29">
         <v>45627</v>
       </c>
     </row>
     <row r="419" spans="8:14">
       <c r="H419" s="8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I419" s="8">
         <v>20000</v>
@@ -6516,21 +6601,21 @@
         <v>2</v>
       </c>
       <c r="K419" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="L419" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M419" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="N419" s="28">
+        <v>166</v>
+      </c>
+      <c r="N419" s="29">
         <v>45627</v>
       </c>
     </row>
     <row r="420" spans="8:14">
       <c r="H420" s="8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I420" s="8">
         <v>40000</v>
@@ -6539,21 +6624,21 @@
         <v>2</v>
       </c>
       <c r="K420" s="8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L420" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M420" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="N420" s="28">
+        <v>166</v>
+      </c>
+      <c r="N420" s="29">
         <v>45047</v>
       </c>
     </row>
     <row r="421" spans="8:14">
       <c r="H421" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I421" s="8">
         <v>17000</v>
@@ -6562,15 +6647,15 @@
         <v>1</v>
       </c>
       <c r="K421" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L421" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M421" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="L421" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="M421" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="N421" s="28">
+      <c r="N421" s="29">
         <v>45047</v>
       </c>
     </row>

--- a/Problems 1.xlsx
+++ b/Problems 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="215">
   <si>
     <t>Пусть T1 - множество чисел в римских цифрах, а T2 - множество чисел в арабских цифрах. A - отношение  над множествами T1 и T2.</t>
   </si>
@@ -91,6 +91,9 @@
     <t>&gt;}</t>
   </si>
   <si>
+    <t>{&lt;A2</t>
+  </si>
+  <si>
     <t xml:space="preserve">могут </t>
   </si>
   <si>
@@ -106,6 +109,12 @@
     <t xml:space="preserve">не могут </t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>I</t>
   </si>
   <si>
@@ -193,18 +202,12 @@
     <t>Постройте проекцию полученной таблицы по первому и третьему атрибутам.</t>
   </si>
   <si>
-    <t>В реляционной БД:</t>
+    <t>В реляционной БД по каждому столбцу:</t>
   </si>
   <si>
     <t>Постройте (ϴ-JOIN) объедиенение отношений R1 и R2 по условию, что значение атрибута A1 отношения R2 равно 9.</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>Петя</t>
   </si>
   <si>
@@ -229,7 +232,7 @@
     <t>Выполните реляционное деление отношения R1 на отношение R2.</t>
   </si>
   <si>
-    <t>пустой ответ?</t>
+    <t>пустой ответ</t>
   </si>
   <si>
     <t xml:space="preserve">Марина руководит отделом, в котором работает ее мать Варя, айтишник Дима и секретарша Вера. Отец Марины руководит всей фирмой. </t>
@@ -418,7 +421,7 @@
     <t>Егорова</t>
   </si>
   <si>
-    <t>потеря данных о ЕГЭ</t>
+    <t>потеря данных о ЕГЭ?</t>
   </si>
   <si>
     <t>Отдел</t>
@@ -430,9 +433,6 @@
     <t>д)</t>
   </si>
   <si>
-    <t>?????</t>
-  </si>
-  <si>
     <t>Пусть в базе данных хранится таблица с днями недели, соответствующими, например, дням национальной кухни в сети ресторанов.</t>
   </si>
   <si>
@@ -556,16 +556,13 @@
     <t>R2&lt;OR&gt;R3</t>
   </si>
   <si>
-    <t>и так далее?</t>
-  </si>
-  <si>
     <t>R3&lt;OR&gt;R4</t>
   </si>
   <si>
-    <t>??????????????</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>бесконечная таблица?</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
   <si>
     <t xml:space="preserve">Стрелка Пирса pi(A,B) = NOT A AND NOT B </t>
@@ -616,25 +613,63 @@
     <t>RANGE SALARY is R1</t>
   </si>
   <si>
-    <t>SALARY.ANIMATE, SALARY.PAYMENT WHERE EXISTS (SALARY.ANIMATE=ANIMATOR.ANIMATE AND ANIMATOR.SEASON=W)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SALARY.ANIMATE, SALARY.PAYMENT WHERE EXISTS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANIMATOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (SALARY.ANIMATE=ANIMATOR.ANIMATE AND ANIMATOR.SEASON=W)</t>
+    </r>
   </si>
   <si>
     <t>Выпишите минимальное множество функциональных зависимостей FD отношений R1 и R2 из задачи 12.</t>
   </si>
   <si>
-    <t>ANIMATE-&gt;{PAYMENT, HOTEL, SEASON}</t>
+    <t>R1:</t>
+  </si>
+  <si>
+    <t>{ANIMATE-&gt;PAYMENT, ANIMATE-&gt;HOTEL}</t>
+  </si>
+  <si>
+    <t>R2:</t>
+  </si>
+  <si>
+    <t>{ANIMATE-&gt;HOTEL}</t>
+  </si>
+  <si>
+    <t>не вторая нормальная форма?</t>
+  </si>
+  <si>
+    <t>(SEASON не определяется ничем однозначно из-за Гали, и от него нет зависимостей)</t>
   </si>
   <si>
     <t>Какие, например, функциональные зависимости можно вывести из минимальных по условию предыдущей задачи?</t>
   </si>
   <si>
-    <t>ANIMATE-&gt;HOTEL</t>
-  </si>
-  <si>
-    <t>ANIMATE-&gt;SEASON</t>
-  </si>
-  <si>
-    <t>{ANIMATE, HOTEL}-&gt;SEASON</t>
+    <t>{ANIMATE, HOTEL}-&gt;PAYMENT</t>
   </si>
   <si>
     <t>Постройте диаграмму минимальных функциональных зависимостей для задачи 12.</t>
@@ -647,6 +682,9 @@
   </si>
   <si>
     <t>ANIMATE, HOTEL, SEASON</t>
+  </si>
+  <si>
+    <t>(можно и другие привести)</t>
   </si>
   <si>
     <t>Представьте базу данных 12й задачи одной таблицей.</t>
@@ -657,13 +695,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,7 +752,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -731,6 +768,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -738,21 +797,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,14 +820,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -783,7 +828,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,6 +865,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -821,20 +888,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -843,29 +896,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,13 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +949,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,25 +991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,19 +1003,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +1039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,49 +1057,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,25 +1105,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,13 +1158,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,39 +1197,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1189,6 +1208,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,164 +1255,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1381,24 +1420,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1864,7 +1904,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent6">
             <a:lumMod val="40000"/>
             <a:lumOff val="60000"/>
           </a:schemeClr>
@@ -2108,20 +2148,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>117475</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>383</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>413385</xdr:colOff>
-      <xdr:row>396</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>234315</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="task17"/>
+        <xdr:cNvPr id="14" name="Picture 13" descr="R2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2134,8 +2174,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1260475" y="70264655"/>
-          <a:ext cx="3412490" cy="2326640"/>
+          <a:off x="1560830" y="70144005"/>
+          <a:ext cx="2315845" cy="1022350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>372110</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="R1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1746885" y="71789925"/>
+          <a:ext cx="2267585" cy="410845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2407,8 +2485,8 @@
   <sheetPr/>
   <dimension ref="A2:Y421"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="Q283" sqref="Q283"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="N366" sqref="N366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2770,7 +2848,7 @@
     </row>
     <row r="21" spans="15:20">
       <c r="O21" s="3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>3</v>
@@ -2785,12 +2863,12 @@
         <v>10</v>
       </c>
       <c r="T21" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="15:20">
       <c r="O22" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>3</v>
@@ -2805,12 +2883,12 @@
         <v>4</v>
       </c>
       <c r="T22" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="15:20">
       <c r="O23" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>3</v>
@@ -2825,12 +2903,12 @@
         <v>15</v>
       </c>
       <c r="T23" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="15:20">
       <c r="O24" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>3</v>
@@ -2845,43 +2923,46 @@
         <v>67</v>
       </c>
       <c r="T24" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:13">
       <c r="J26" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="10:13">
       <c r="J27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="29" ht="20.4" spans="3:3">
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="15:15">
+    <row r="30" spans="14:15">
+      <c r="N30" t="s">
+        <v>31</v>
+      </c>
       <c r="O30" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="8:21">
@@ -2892,16 +2973,16 @@
         <v>14</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L31" s="11">
         <v>2</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="12">
         <v>6</v>
       </c>
-      <c r="O31" s="11" t="s">
-        <v>31</v>
+      <c r="O31" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="Q31" s="11" t="s">
         <v>15</v>
@@ -2909,10 +2990,10 @@
       <c r="R31" s="11">
         <v>89</v>
       </c>
-      <c r="T31" s="13">
+      <c r="T31" s="12">
         <v>5</v>
       </c>
-      <c r="U31" s="13" t="s">
+      <c r="U31" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2929,22 +3010,22 @@
       <c r="L32" s="11">
         <v>7</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="12">
         <v>7</v>
       </c>
-      <c r="O32" s="11" t="s">
+      <c r="O32" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R32" s="11">
         <v>78</v>
       </c>
-      <c r="T32" s="13" t="s">
+      <c r="T32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U32" s="13">
+      <c r="U32" s="12">
         <v>6</v>
       </c>
     </row>
@@ -2961,31 +3042,31 @@
       <c r="L33" s="11">
         <v>89</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="12">
         <v>45</v>
       </c>
-      <c r="O33" s="11" t="s">
-        <v>32</v>
+      <c r="O33" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R33" s="11">
         <v>5</v>
       </c>
-      <c r="T33" s="13">
+      <c r="T33" s="12">
         <v>4</v>
       </c>
-      <c r="U33" s="13" t="s">
+      <c r="U33" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="14:18">
-      <c r="N34" s="11">
+      <c r="N34" s="12">
         <v>32</v>
       </c>
-      <c r="O34" s="11" t="s">
-        <v>34</v>
+      <c r="O34" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q34" s="11" t="s">
         <v>8</v>
@@ -2995,16 +3076,16 @@
       </c>
     </row>
     <row r="35" spans="14:15">
-      <c r="N35" s="11">
+      <c r="N35" s="12">
         <v>109</v>
       </c>
-      <c r="O35" s="11" t="s">
-        <v>35</v>
+      <c r="O35" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="3:3">
@@ -3013,7 +3094,7 @@
     <row r="39" spans="3:9">
       <c r="C39" s="1"/>
       <c r="I39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="3:3">
@@ -3033,18 +3114,18 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="8:12">
       <c r="H46" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I46" s="8">
         <v>15</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L46" s="8">
         <v>7</v>
@@ -3052,22 +3133,22 @@
     </row>
     <row r="47" spans="6:12">
       <c r="F47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I47" s="8">
         <v>3</v>
       </c>
-      <c r="J47" s="12" t="s">
-        <v>43</v>
+      <c r="J47" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L47" s="8">
         <v>15</v>
@@ -3075,13 +3156,13 @@
     </row>
     <row r="48" spans="8:12">
       <c r="H48" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I48" s="8">
         <v>34</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L48" s="8">
         <v>14</v>
@@ -3089,13 +3170,13 @@
     </row>
     <row r="49" spans="8:12">
       <c r="H49" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I49" s="8">
         <v>8</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L49" s="8">
         <v>3</v>
@@ -3103,7 +3184,7 @@
     </row>
     <row r="50" spans="8:9">
       <c r="H50" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I50" s="8">
         <v>2</v>
@@ -3111,18 +3192,18 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="9:16">
       <c r="I54" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J54" s="8">
         <v>15</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P54" s="8">
         <v>3</v>
@@ -3130,25 +3211,25 @@
     </row>
     <row r="55" spans="9:22">
       <c r="I55" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J55" s="8">
         <v>3</v>
       </c>
       <c r="M55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N55" t="s">
         <v>19</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P55" s="8">
         <v>15</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V55" s="8">
         <v>34</v>
@@ -3156,13 +3237,13 @@
     </row>
     <row r="56" spans="9:22">
       <c r="I56" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J56" s="8">
         <v>34</v>
       </c>
       <c r="U56" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V56" s="8">
         <v>8</v>
@@ -3170,25 +3251,25 @@
     </row>
     <row r="57" spans="7:22">
       <c r="G57" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H57" t="s">
         <v>19</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J57" s="8">
         <v>8</v>
       </c>
       <c r="S57" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T57" t="s">
         <v>19</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V57" s="8">
         <v>2</v>
@@ -3196,7 +3277,7 @@
     </row>
     <row r="58" spans="9:10">
       <c r="I58" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J58" s="8">
         <v>2</v>
@@ -3204,13 +3285,13 @@
     </row>
     <row r="59" spans="9:16">
       <c r="I59" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J59" s="8">
         <v>7</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P59" s="8">
         <v>7</v>
@@ -3218,19 +3299,19 @@
     </row>
     <row r="60" spans="9:16">
       <c r="I60" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J60" s="8">
         <v>14</v>
       </c>
       <c r="M60" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N60" t="s">
         <v>19</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P60" s="8">
         <v>14</v>
@@ -3241,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="8:11">
@@ -3249,7 +3330,7 @@
         <v>10</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K64" s="8">
         <v>1</v>
@@ -3257,19 +3338,19 @@
     </row>
     <row r="65" spans="6:11">
       <c r="F65" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
         <v>19</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="K65" s="8">
         <v>2</v>
@@ -3280,7 +3361,7 @@
         <v>11</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K66" s="8">
         <v>3</v>
@@ -3288,7 +3369,7 @@
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="10:12">
@@ -3296,7 +3377,7 @@
         <v>10</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L71" s="8">
         <v>1</v>
@@ -3304,10 +3385,10 @@
     </row>
     <row r="72" spans="10:12">
       <c r="J72" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L72" s="8">
         <v>1</v>
@@ -3318,7 +3399,7 @@
         <v>11</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L73" s="8">
         <v>1</v>
@@ -3329,7 +3410,7 @@
         <v>10</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L74" s="8">
         <v>2</v>
@@ -3337,16 +3418,16 @@
     </row>
     <row r="75" spans="8:12">
       <c r="H75" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I75" t="s">
         <v>19</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L75" s="8">
         <v>2</v>
@@ -3357,7 +3438,7 @@
         <v>11</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L76" s="8">
         <v>2</v>
@@ -3368,7 +3449,7 @@
         <v>10</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L77" s="8">
         <v>3</v>
@@ -3376,10 +3457,10 @@
     </row>
     <row r="78" spans="10:12">
       <c r="J78" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L78" s="8">
         <v>3</v>
@@ -3390,7 +3471,7 @@
         <v>11</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L79" s="8">
         <v>3</v>
@@ -3398,15 +3479,15 @@
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="13:13">
       <c r="M87" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="10:15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="10:16">
       <c r="J88" s="8" t="s">
         <v>10</v>
       </c>
@@ -3416,27 +3497,29 @@
       <c r="N88" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O88" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="10:15">
+      <c r="O88" s="16"/>
+      <c r="P88" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="10:16">
       <c r="J89" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K89" s="8">
         <v>1</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O89" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="8:15">
+        <v>56</v>
+      </c>
+      <c r="O89" s="16"/>
+      <c r="P89" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="8:16">
       <c r="H90" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I90" t="s">
         <v>19</v>
@@ -3450,7 +3533,8 @@
       <c r="N90" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O90" s="8">
+      <c r="O90" s="16"/>
+      <c r="P90" s="8">
         <v>3</v>
       </c>
     </row>
@@ -3464,7 +3548,7 @@
     </row>
     <row r="92" spans="10:11">
       <c r="J92" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K92" s="8">
         <v>2</v>
@@ -3488,7 +3572,7 @@
     </row>
     <row r="95" spans="10:11">
       <c r="J95" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K95" s="8">
         <v>3</v>
@@ -3507,26 +3591,26 @@
         <v>5</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="8:12">
       <c r="H100" s="14" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="K100" s="14" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L100" s="14" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="6:12">
       <c r="F101" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s">
         <v>19</v>
@@ -3535,16 +3619,16 @@
         <v>45544</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J101" s="12" t="s">
-        <v>43</v>
+        <v>64</v>
+      </c>
+      <c r="J101" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="K101" s="8">
         <v>9</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="8:12">
@@ -3552,13 +3636,13 @@
         <v>45534</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K102" s="8">
         <v>5</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="11:12">
@@ -3566,26 +3650,26 @@
         <v>1</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="10:13">
       <c r="J105" s="14" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="K105" s="14" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="L105" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="8:13">
       <c r="H106" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I106" t="s">
         <v>19</v>
@@ -3594,13 +3678,13 @@
         <v>45544</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L106" s="8">
         <v>9</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="10:13">
@@ -3608,13 +3692,13 @@
         <v>45534</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L107" s="8">
         <v>9</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3622,7 +3706,7 @@
         <v>6</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="8:11">
@@ -3647,12 +3731,12 @@
         <v>3</v>
       </c>
       <c r="M117" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="6:13">
       <c r="F118" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
         <v>19</v>
@@ -3663,13 +3747,13 @@
       <c r="I118" s="8">
         <v>8</v>
       </c>
-      <c r="J118" s="12" t="s">
-        <v>43</v>
+      <c r="J118" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="K118" s="8">
         <v>87</v>
       </c>
-      <c r="M118" s="16"/>
+      <c r="M118" s="17"/>
     </row>
     <row r="119" spans="8:11">
       <c r="H119" s="8">
@@ -3705,38 +3789,26 @@
       </c>
     </row>
     <row r="124" spans="8:8">
-      <c r="H124" s="8">
-        <v>12</v>
-      </c>
+      <c r="H124" s="16"/>
     </row>
     <row r="125" spans="8:8">
-      <c r="H125" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="6:10">
-      <c r="F126" t="s">
-        <v>49</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
-      <c r="H126" s="8">
-        <v>56</v>
-      </c>
-      <c r="J126" s="17"/>
+      <c r="H125" s="16"/>
+    </row>
+    <row r="126" spans="8:10">
+      <c r="H126" s="16"/>
+      <c r="J126" s="18"/>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
         <v>7</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3744,12 +3816,12 @@
         <v>8</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158" spans="7:13">
       <c r="G158" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I158" s="7">
         <v>1</v>
@@ -3758,7 +3830,7 @@
         <v>7</v>
       </c>
       <c r="L158" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M158" s="7">
         <v>2</v>
@@ -3772,7 +3844,7 @@
         <v>8</v>
       </c>
       <c r="L159" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M159" s="7">
         <v>2</v>
@@ -3786,7 +3858,7 @@
         <v>9</v>
       </c>
       <c r="L160" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M160" s="7">
         <v>2</v>
@@ -3797,10 +3869,10 @@
         <v>4</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L161" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M161" s="7">
         <v>4</v>
@@ -3808,185 +3880,185 @@
     </row>
     <row r="163" spans="7:13">
       <c r="G163" t="s">
-        <v>80</v>
-      </c>
-      <c r="I163" s="18">
+        <v>81</v>
+      </c>
+      <c r="I163" s="19">
         <v>67</v>
       </c>
-      <c r="J163" s="18">
+      <c r="J163" s="19">
         <v>67</v>
       </c>
-      <c r="L163" s="18">
-        <v>1</v>
-      </c>
-      <c r="M163" s="18" t="s">
-        <v>81</v>
+      <c r="L163" s="19">
+        <v>1</v>
+      </c>
+      <c r="M163" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="164" spans="9:13">
-      <c r="I164" s="18">
-        <v>2</v>
-      </c>
-      <c r="J164" s="18">
+      <c r="I164" s="19">
+        <v>2</v>
+      </c>
+      <c r="J164" s="19">
         <v>7</v>
       </c>
-      <c r="L164" s="18">
-        <v>2</v>
-      </c>
-      <c r="M164" s="18" t="s">
-        <v>54</v>
+      <c r="L164" s="19">
+        <v>2</v>
+      </c>
+      <c r="M164" s="19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="9:13">
-      <c r="I165" s="18">
+      <c r="I165" s="19">
         <v>87</v>
       </c>
-      <c r="J165" s="18">
+      <c r="J165" s="19">
         <v>65</v>
       </c>
-      <c r="L165" s="18">
+      <c r="L165" s="19">
         <v>3</v>
       </c>
-      <c r="M165" s="18" t="s">
-        <v>82</v>
+      <c r="M165" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="166" spans="9:17">
-      <c r="I166" s="18">
-        <v>2</v>
-      </c>
-      <c r="J166" s="18">
+      <c r="I166" s="19">
+        <v>2</v>
+      </c>
+      <c r="J166" s="19">
         <v>7</v>
       </c>
-      <c r="L166" s="18">
+      <c r="L166" s="19">
         <v>4</v>
       </c>
-      <c r="M166" s="18" t="s">
-        <v>78</v>
+      <c r="M166" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="Q166" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="168" spans="7:13">
       <c r="G168" t="s">
-        <v>84</v>
-      </c>
-      <c r="I168" s="13">
+        <v>85</v>
+      </c>
+      <c r="I168" s="12">
         <v>9</v>
       </c>
-      <c r="J168" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K168" s="19"/>
-      <c r="L168" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M168" s="13" t="s">
+      <c r="J168" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K168" s="20"/>
+      <c r="L168" s="12" t="s">
         <v>86</v>
       </c>
+      <c r="M168" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="169" spans="9:13">
-      <c r="I169" s="13">
+      <c r="I169" s="12">
         <v>8</v>
       </c>
-      <c r="J169" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K169" s="19"/>
-      <c r="L169" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="M169" s="13">
+      <c r="J169" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K169" s="20"/>
+      <c r="L169" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M169" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="170" spans="9:13">
-      <c r="I170" s="13">
+      <c r="I170" s="12">
         <v>45</v>
       </c>
-      <c r="J170" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K170" s="19"/>
-      <c r="L170" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M170" s="13">
+      <c r="J170" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K170" s="20"/>
+      <c r="L170" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M170" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="171" spans="9:13">
-      <c r="I171" s="13">
+      <c r="I171" s="12">
         <v>4</v>
       </c>
-      <c r="J171" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K171" s="19"/>
-      <c r="L171" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="M171" s="13">
+      <c r="J171" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K171" s="20"/>
+      <c r="L171" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M171" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="173" spans="7:13">
       <c r="G173" t="s">
-        <v>90</v>
-      </c>
-      <c r="I173" s="20">
-        <v>1</v>
-      </c>
-      <c r="J173" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="L173" s="20">
-        <v>1</v>
-      </c>
-      <c r="M173" s="20">
+        <v>91</v>
+      </c>
+      <c r="I173" s="21">
+        <v>1</v>
+      </c>
+      <c r="J173" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="L173" s="21">
+        <v>1</v>
+      </c>
+      <c r="M173" s="21">
         <v>9876</v>
       </c>
     </row>
     <row r="174" spans="9:13">
-      <c r="I174" s="20">
-        <v>2</v>
-      </c>
-      <c r="J174" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L174" s="20">
-        <v>2</v>
-      </c>
-      <c r="M174" s="20">
+      <c r="I174" s="21">
+        <v>2</v>
+      </c>
+      <c r="J174" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L174" s="21">
+        <v>2</v>
+      </c>
+      <c r="M174" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="9:13">
-      <c r="I175" s="20">
+      <c r="I175" s="21">
         <v>78</v>
       </c>
-      <c r="J175" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="L175" s="20">
+      <c r="J175" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="L175" s="21">
         <v>3</v>
       </c>
-      <c r="M175" s="20">
+      <c r="M175" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="176" spans="9:13">
-      <c r="I176" s="20">
+      <c r="I176" s="21">
         <v>4</v>
       </c>
-      <c r="J176" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="L176" s="20">
+      <c r="J176" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L176" s="21">
         <v>4</v>
       </c>
-      <c r="M176" s="20">
+      <c r="M176" s="21">
         <v>4</v>
       </c>
     </row>
@@ -3995,154 +4067,154 @@
         <v>9</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="180" spans="9:14">
       <c r="I180" s="14" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="J180" s="14" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="K180" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L180" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M180" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N180" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="181" spans="9:16">
       <c r="I181" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J181" s="21" t="s">
         <v>96</v>
       </c>
+      <c r="J181" s="22" t="s">
+        <v>97</v>
+      </c>
       <c r="K181" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L181" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M181" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N181" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P181" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="182" spans="9:14">
       <c r="I182" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J182" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K182" s="8">
         <v>1</v>
       </c>
       <c r="L182" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="M182" s="22">
+        <v>105</v>
+      </c>
+      <c r="M182" s="23">
         <v>36892</v>
       </c>
-      <c r="N182" s="23">
+      <c r="N182" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="9:14">
       <c r="I183" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J183" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K183" s="8">
         <v>2</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M183" s="22">
+        <v>108</v>
+      </c>
+      <c r="M183" s="23">
         <v>39815</v>
       </c>
-      <c r="N183" s="23">
+      <c r="N183" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="9:14">
       <c r="I184" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J184" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K184" s="8">
         <v>3</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="M184" s="22">
+        <v>105</v>
+      </c>
+      <c r="M184" s="23">
         <v>43833</v>
       </c>
-      <c r="N184" s="23">
+      <c r="N184" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="185" spans="9:14">
       <c r="I185" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J185" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K185" s="8">
         <v>1</v>
       </c>
       <c r="L185" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="M185" s="22">
+        <v>113</v>
+      </c>
+      <c r="M185" s="23">
         <v>36892</v>
       </c>
-      <c r="N185" s="23">
+      <c r="N185" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="186" spans="9:14">
       <c r="I186" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J186" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K186" s="8">
         <v>3</v>
       </c>
       <c r="L186" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M186" s="22">
+        <v>108</v>
+      </c>
+      <c r="M186" s="23">
         <v>42374</v>
       </c>
-      <c r="N186" s="23">
+      <c r="N186" s="24">
         <v>5</v>
       </c>
     </row>
@@ -4151,689 +4223,686 @@
         <v>10</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="192" spans="6:15">
       <c r="F192" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H192" s="14" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I192" s="14" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="J192" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K192" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="M192" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="N192" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="O192" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="M192" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N192" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O192" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="193" spans="8:15">
       <c r="H193" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I193" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J193" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K193" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M193" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="N193" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="O193" s="24" t="s">
         <v>120</v>
+      </c>
+      <c r="N193" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="O193" s="25" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="194" spans="8:15">
       <c r="H194" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I194" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J194" s="8">
         <v>290</v>
       </c>
       <c r="K194" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M194" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N194" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O194" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="M194" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="N194" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="O194" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="195" spans="8:15">
       <c r="H195" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I195" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J195" s="8">
         <v>302</v>
       </c>
       <c r="K195" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M195" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N195" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O195" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="196" spans="8:11">
       <c r="H196" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I196" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J196" s="8">
         <v>300</v>
       </c>
       <c r="K196" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="197" spans="8:11">
       <c r="H197" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I197" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J197" s="8">
         <v>296</v>
       </c>
       <c r="K197" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="198" spans="8:11">
       <c r="H198" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I198" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J198" s="8">
         <v>298</v>
       </c>
       <c r="K198" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="200" spans="6:17">
-      <c r="F200" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H200" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I200" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="J200" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="K200" s="26"/>
-      <c r="M200" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="N200" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O200" s="25" t="s">
-        <v>68</v>
+      <c r="F200" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H200" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I200" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J200" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K200" s="27"/>
+      <c r="M200" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N200" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O200" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="Q200" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="201" spans="8:15">
-      <c r="H201" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I201" s="25" t="s">
+      <c r="H201" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="J201" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="K201" s="26"/>
-      <c r="M201" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N201" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="O201" s="25" t="s">
+      <c r="I201" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J201" s="26" t="s">
         <v>120</v>
+      </c>
+      <c r="K201" s="27"/>
+      <c r="M201" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="N201" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="O201" s="26" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="202" spans="8:15">
       <c r="H202" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I202" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J202" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K202" s="16"/>
+      <c r="M202" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N202" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O202" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K202" s="27"/>
-      <c r="M202" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N202" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="O202" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="203" spans="8:15">
       <c r="H203" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I203" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J203" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K203" s="27"/>
+        <v>127</v>
+      </c>
+      <c r="K203" s="16"/>
       <c r="M203" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N203" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O203" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="204" spans="8:11">
       <c r="H204" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I204" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J204" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K204" s="27"/>
+        <v>124</v>
+      </c>
+      <c r="K204" s="16"/>
     </row>
     <row r="205" spans="8:11">
       <c r="H205" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I205" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J205" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K205" s="27"/>
+        <v>127</v>
+      </c>
+      <c r="K205" s="16"/>
     </row>
     <row r="206" spans="8:11">
       <c r="H206" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I206" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J206" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K206" s="27"/>
+        <v>124</v>
+      </c>
+      <c r="K206" s="16"/>
     </row>
     <row r="208" spans="6:15">
-      <c r="F208" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H208" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I208" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="J208" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="K208" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="M208" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="N208" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O208" s="25" t="s">
-        <v>68</v>
+      <c r="F208" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H208" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I208" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J208" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K208" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M208" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N208" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O208" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="8:15">
-      <c r="H209" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I209" s="25" t="s">
+      <c r="H209" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="J209" s="25" t="s">
+      <c r="I209" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="K209" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="M209" s="25" t="s">
+      <c r="J209" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="N209" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="O209" s="25" t="s">
+      <c r="K209" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="M209" s="26" t="s">
         <v>120</v>
+      </c>
+      <c r="N209" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="O209" s="26" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="210" spans="8:15">
       <c r="H210" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I210" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J210" s="7">
         <v>290</v>
       </c>
       <c r="K210" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M210" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N210" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O210" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="M210" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N210" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="O210" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="211" spans="8:15">
       <c r="H211" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I211" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J211" s="7">
         <v>302</v>
       </c>
       <c r="K211" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M211" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N211" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O211" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="212" spans="8:11">
       <c r="H212" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I212" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J212" s="7">
         <v>300</v>
       </c>
       <c r="K212" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="213" spans="8:11">
       <c r="H213" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I213" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J213" s="7">
         <v>296</v>
       </c>
       <c r="K213" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="214" spans="8:11">
       <c r="H214" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I214" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J214" s="7">
         <v>298</v>
       </c>
       <c r="K214" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="216" spans="6:15">
       <c r="F216" t="s">
-        <v>90</v>
-      </c>
-      <c r="H216" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I216" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="J216" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="K216" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="M216" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="N216" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O216" s="25" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+      <c r="H216" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I216" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J216" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K216" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M216" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N216" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O216" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="217" spans="8:15">
-      <c r="H217" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I217" s="25" t="s">
+      <c r="H217" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="J217" s="25" t="s">
+      <c r="I217" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="K217" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="M217" s="25" t="s">
+      <c r="J217" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="N217" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="O217" s="25" t="s">
+      <c r="K217" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="M217" s="26" t="s">
         <v>120</v>
+      </c>
+      <c r="N217" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="O217" s="26" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="218" spans="8:15">
       <c r="H218" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I218" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J218" s="7">
         <v>290</v>
       </c>
       <c r="K218" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M218" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N218" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O218" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="M218" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N218" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="O218" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="219" spans="8:15">
       <c r="H219" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I219" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J219" s="7">
         <v>302</v>
       </c>
       <c r="K219" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M219" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N219" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O219" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="220" spans="8:11">
       <c r="H220" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I220" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J220" s="7">
         <v>300</v>
       </c>
       <c r="K220" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="221" spans="8:11">
       <c r="H221" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I221" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J221" s="7">
         <v>296</v>
       </c>
       <c r="K221" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="222" spans="8:11">
       <c r="H222" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I222" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J222" s="7">
         <v>298</v>
       </c>
       <c r="K222" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="224" spans="6:17">
-      <c r="F224" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H224" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I224" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="J224" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="K224" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="M224" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="N224" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O224" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q224" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="224" spans="6:15">
+      <c r="F224" s="20" t="s">
         <v>138</v>
       </c>
+      <c r="H224" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I224" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J224" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K224" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M224" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N224" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O224" s="26" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="225" spans="8:15">
-      <c r="H225" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I225" s="25" t="s">
+      <c r="H225" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="J225" s="25" t="s">
+      <c r="I225" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="K225" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="M225" s="25" t="s">
+      <c r="J225" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="N225" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="O225" s="25" t="s">
+      <c r="K225" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="M225" s="26" t="s">
         <v>120</v>
+      </c>
+      <c r="N225" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="O225" s="26" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="226" spans="8:15">
       <c r="H226" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I226" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J226" s="7">
         <v>290</v>
       </c>
       <c r="K226" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M226" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M226" s="7" t="s">
+      <c r="N226" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O226" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="N226" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="O226" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="227" spans="8:15">
       <c r="H227" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I227" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J227" s="7">
         <v>302</v>
       </c>
       <c r="K227" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M227" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M227" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="N227" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O227" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="228" spans="8:11">
       <c r="H228" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I228" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J228" s="7">
         <v>300</v>
       </c>
       <c r="K228" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="229" spans="8:11">
       <c r="H229" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I229" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J229" s="7">
         <v>296</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="230" spans="8:11">
       <c r="H230" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I230" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J230" s="7">
         <v>298</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4927,13 +4996,13 @@
       <c r="O251" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="R251" s="24" t="s">
+      <c r="R251" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="S251" s="24" t="s">
+      <c r="S251" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="T251" s="24" t="s">
+      <c r="T251" s="25" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4968,13 +5037,13 @@
     </row>
     <row r="253" spans="6:20">
       <c r="F253" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G253" t="s">
         <v>19</v>
       </c>
       <c r="H253" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I253" s="8">
         <v>30000</v>
@@ -5038,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="M255" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N255" s="8" t="s">
         <v>169</v>
@@ -5159,7 +5228,7 @@
     </row>
     <row r="265" spans="3:13">
       <c r="C265" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D265" t="s">
         <v>177</v>
@@ -5176,10 +5245,10 @@
       <c r="K265" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="L265" s="24" t="s">
+      <c r="L265" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="M265" s="24" t="s">
+      <c r="M265" s="25" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5202,7 +5271,7 @@
     </row>
     <row r="267" spans="9:13">
       <c r="I267" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J267" s="8">
         <v>30000</v>
@@ -5355,7 +5424,7 @@
     </row>
     <row r="277" spans="3:13">
       <c r="C277" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D277" t="s">
         <v>178</v>
@@ -5372,10 +5441,10 @@
       <c r="K277" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="L277" s="24" t="s">
+      <c r="L277" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="M277" s="24" t="s">
+      <c r="M277" s="25" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5432,7 +5501,7 @@
     </row>
     <row r="281" spans="9:13">
       <c r="I281" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J281" s="8" t="s">
         <v>169</v>
@@ -5483,7 +5552,7 @@
     </row>
     <row r="288" spans="3:13">
       <c r="C288" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D288" t="s">
         <v>179</v>
@@ -5497,14 +5566,14 @@
       <c r="K288" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="L288" s="24" t="s">
+      <c r="L288" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="M288" s="24" t="s">
+      <c r="M288" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="289" spans="9:13">
+    <row r="289" spans="9:19">
       <c r="I289" s="8" t="s">
         <v>158</v>
       </c>
@@ -5520,8 +5589,23 @@
       <c r="M289" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="290" spans="9:13">
+      <c r="O289" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="P289" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q289" s="8">
+        <v>1</v>
+      </c>
+      <c r="R289" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="S289" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="290" spans="9:19">
       <c r="I290" s="8" t="s">
         <v>163</v>
       </c>
@@ -5537,8 +5621,23 @@
       <c r="M290" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="291" spans="9:13">
+      <c r="O290" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="P290" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q290" s="8">
+        <v>2</v>
+      </c>
+      <c r="R290" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="S290" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="291" spans="9:21">
       <c r="I291" s="8" t="s">
         <v>168</v>
       </c>
@@ -5554,10 +5653,27 @@
       <c r="M291" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="292" spans="9:13">
+      <c r="O291" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="P291" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q291" s="8">
+        <v>1</v>
+      </c>
+      <c r="R291" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="S291" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="T291" s="16"/>
+      <c r="U291" s="16"/>
+    </row>
+    <row r="292" spans="9:21">
       <c r="I292" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J292" s="8" t="s">
         <v>169</v>
@@ -5571,8 +5687,25 @@
       <c r="M292" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="293" spans="9:13">
+      <c r="O292" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P292" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q292" s="8">
+        <v>2</v>
+      </c>
+      <c r="R292" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="S292" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="T292" s="16"/>
+      <c r="U292" s="16"/>
+    </row>
+    <row r="293" spans="9:19">
       <c r="I293" s="8" t="s">
         <v>163</v>
       </c>
@@ -5588,8 +5721,23 @@
       <c r="M293" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="294" spans="9:13">
+      <c r="O293" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="P293" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q293" s="8">
+        <v>2</v>
+      </c>
+      <c r="R293" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="S293" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="294" spans="9:19">
       <c r="I294" s="28" t="s">
         <v>173</v>
       </c>
@@ -5603,6 +5751,21 @@
         <v>160</v>
       </c>
       <c r="M294" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O294" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="P294" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q294" s="8">
+        <v>1</v>
+      </c>
+      <c r="R294" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="S294" s="8" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5623,7 +5786,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="296" spans="9:13">
+    <row r="296" spans="9:19">
       <c r="I296" s="8" t="s">
         <v>163</v>
       </c>
@@ -5639,8 +5802,11 @@
       <c r="M296" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="297" spans="9:13">
+      <c r="Q296" s="16"/>
+      <c r="R296" s="16"/>
+      <c r="S296" s="16"/>
+    </row>
+    <row r="297" spans="9:19">
       <c r="I297" s="8" t="s">
         <v>168</v>
       </c>
@@ -5656,10 +5822,13 @@
       <c r="M297" s="8" t="s">
         <v>166</v>
       </c>
+      <c r="Q297" s="16"/>
+      <c r="R297" s="16"/>
+      <c r="S297" s="16"/>
     </row>
     <row r="298" spans="9:13">
       <c r="I298" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J298" s="8" t="s">
         <v>169</v>
@@ -5708,28 +5877,23 @@
         <v>166</v>
       </c>
     </row>
-    <row r="301" spans="13:13">
-      <c r="M301" t="s">
-        <v>180</v>
-      </c>
-    </row>
     <row r="304" spans="3:15">
       <c r="C304" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D304" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H304" t="s">
         <v>19</v>
       </c>
-      <c r="I304" s="24" t="s">
+      <c r="I304" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="J304" s="24" t="s">
+      <c r="J304" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="K304" s="24" t="s">
+      <c r="K304" s="25" t="s">
         <v>156</v>
       </c>
       <c r="L304" s="14" t="s">
@@ -5739,7 +5903,7 @@
         <v>171</v>
       </c>
       <c r="O304" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="305" spans="9:13">
@@ -5855,7 +6019,7 @@
         <v>161</v>
       </c>
       <c r="L311" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M311" s="29">
         <v>45047</v>
@@ -5883,31 +6047,31 @@
         <v>13</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="319" spans="2:2">
       <c r="B319" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="321" spans="5:10">
       <c r="E321" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F321" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I321" t="s">
         <v>19</v>
       </c>
       <c r="J321" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="322" spans="10:14">
@@ -5915,16 +6079,16 @@
         <v>18</v>
       </c>
       <c r="K322" t="s">
+        <v>188</v>
+      </c>
+      <c r="L322" t="s">
         <v>189</v>
       </c>
-      <c r="L322" t="s">
+      <c r="M322" t="s">
         <v>190</v>
       </c>
-      <c r="M322" t="s">
-        <v>191</v>
-      </c>
       <c r="N322" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="323" spans="10:14">
@@ -5997,16 +6161,16 @@
     </row>
     <row r="332" spans="5:10">
       <c r="E332" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F332" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I332" t="s">
         <v>19</v>
       </c>
       <c r="J332" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="333" spans="11:15">
@@ -6014,16 +6178,16 @@
         <v>18</v>
       </c>
       <c r="L333" t="s">
+        <v>188</v>
+      </c>
+      <c r="M333" t="s">
+        <v>192</v>
+      </c>
+      <c r="N333" t="s">
         <v>189</v>
       </c>
-      <c r="M333" t="s">
-        <v>193</v>
-      </c>
-      <c r="N333" t="s">
-        <v>190</v>
-      </c>
       <c r="O333" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="334" spans="11:15">
@@ -6099,22 +6263,22 @@
         <v>14</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="345" spans="2:2">
       <c r="B345" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="346" spans="2:2">
       <c r="B346" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="347" spans="2:25">
       <c r="B347" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K347" s="14" t="s">
         <v>151</v>
@@ -6125,14 +6289,14 @@
       <c r="M347" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="R347" s="26"/>
-      <c r="S347" s="26"/>
-      <c r="T347" s="26"/>
-      <c r="U347" s="27"/>
-      <c r="V347" s="27"/>
-      <c r="W347" s="26"/>
-      <c r="X347" s="26"/>
-      <c r="Y347" s="26"/>
+      <c r="R347" s="27"/>
+      <c r="S347" s="27"/>
+      <c r="T347" s="27"/>
+      <c r="U347" s="16"/>
+      <c r="V347" s="16"/>
+      <c r="W347" s="27"/>
+      <c r="X347" s="27"/>
+      <c r="Y347" s="27"/>
     </row>
     <row r="348" spans="11:25">
       <c r="K348" s="8" t="s">
@@ -6144,14 +6308,14 @@
       <c r="M348" s="8">
         <v>2</v>
       </c>
-      <c r="R348" s="27"/>
-      <c r="S348" s="27"/>
-      <c r="T348" s="27"/>
-      <c r="U348" s="27"/>
-      <c r="V348" s="27"/>
-      <c r="W348" s="27"/>
-      <c r="X348" s="27"/>
-      <c r="Y348" s="27"/>
+      <c r="R348" s="16"/>
+      <c r="S348" s="16"/>
+      <c r="T348" s="16"/>
+      <c r="U348" s="16"/>
+      <c r="V348" s="16"/>
+      <c r="W348" s="16"/>
+      <c r="X348" s="16"/>
+      <c r="Y348" s="16"/>
     </row>
     <row r="349" spans="11:25">
       <c r="K349" s="8" t="s">
@@ -6163,14 +6327,14 @@
       <c r="M349" s="8">
         <v>1</v>
       </c>
-      <c r="R349" s="27"/>
-      <c r="S349" s="27"/>
-      <c r="T349" s="27"/>
-      <c r="U349" s="27"/>
-      <c r="V349" s="27"/>
-      <c r="W349" s="27"/>
-      <c r="X349" s="27"/>
-      <c r="Y349" s="27"/>
+      <c r="R349" s="16"/>
+      <c r="S349" s="16"/>
+      <c r="T349" s="16"/>
+      <c r="U349" s="16"/>
+      <c r="V349" s="16"/>
+      <c r="W349" s="16"/>
+      <c r="X349" s="16"/>
+      <c r="Y349" s="16"/>
     </row>
     <row r="350" spans="11:25">
       <c r="K350" s="8" t="s">
@@ -6182,18 +6346,18 @@
       <c r="M350" s="8">
         <v>2</v>
       </c>
-      <c r="R350" s="27"/>
-      <c r="S350" s="27"/>
-      <c r="T350" s="27"/>
-      <c r="U350" s="27"/>
-      <c r="V350" s="27"/>
-      <c r="W350" s="27"/>
-      <c r="X350" s="27"/>
-      <c r="Y350" s="27"/>
+      <c r="R350" s="16"/>
+      <c r="S350" s="16"/>
+      <c r="T350" s="16"/>
+      <c r="U350" s="16"/>
+      <c r="V350" s="16"/>
+      <c r="W350" s="16"/>
+      <c r="X350" s="16"/>
+      <c r="Y350" s="16"/>
     </row>
     <row r="351" spans="11:25">
       <c r="K351" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L351" s="8" t="s">
         <v>169</v>
@@ -6201,14 +6365,14 @@
       <c r="M351" s="8">
         <v>1</v>
       </c>
-      <c r="R351" s="27"/>
-      <c r="S351" s="27"/>
-      <c r="T351" s="27"/>
-      <c r="U351" s="27"/>
-      <c r="V351" s="27"/>
-      <c r="W351" s="27"/>
-      <c r="X351" s="27"/>
-      <c r="Y351" s="27"/>
+      <c r="R351" s="16"/>
+      <c r="S351" s="16"/>
+      <c r="T351" s="16"/>
+      <c r="U351" s="16"/>
+      <c r="V351" s="16"/>
+      <c r="W351" s="16"/>
+      <c r="X351" s="16"/>
+      <c r="Y351" s="16"/>
     </row>
     <row r="352" spans="11:25">
       <c r="K352" s="8" t="s">
@@ -6220,14 +6384,14 @@
       <c r="M352" s="8">
         <v>1</v>
       </c>
-      <c r="R352" s="27"/>
-      <c r="S352" s="27"/>
-      <c r="T352" s="27"/>
-      <c r="U352" s="27"/>
-      <c r="V352" s="27"/>
-      <c r="W352" s="27"/>
-      <c r="X352" s="27"/>
-      <c r="Y352" s="27"/>
+      <c r="R352" s="16"/>
+      <c r="S352" s="16"/>
+      <c r="T352" s="16"/>
+      <c r="U352" s="16"/>
+      <c r="V352" s="16"/>
+      <c r="W352" s="16"/>
+      <c r="X352" s="16"/>
+      <c r="Y352" s="16"/>
     </row>
     <row r="353" spans="11:25">
       <c r="K353" s="28" t="s">
@@ -6239,73 +6403,73 @@
       <c r="M353" s="28">
         <v>2</v>
       </c>
-      <c r="R353" s="27"/>
-      <c r="S353" s="27"/>
-      <c r="T353" s="27"/>
-      <c r="U353" s="27"/>
-      <c r="V353" s="27"/>
-      <c r="W353" s="12"/>
-      <c r="X353" s="27"/>
-      <c r="Y353" s="12"/>
+      <c r="R353" s="16"/>
+      <c r="S353" s="16"/>
+      <c r="T353" s="16"/>
+      <c r="U353" s="16"/>
+      <c r="V353" s="16"/>
+      <c r="W353" s="13"/>
+      <c r="X353" s="16"/>
+      <c r="Y353" s="13"/>
     </row>
     <row r="354" spans="18:25">
-      <c r="R354" s="27"/>
-      <c r="S354" s="27"/>
-      <c r="T354" s="27"/>
-      <c r="U354" s="27"/>
-      <c r="V354" s="27"/>
-      <c r="W354" s="27"/>
-      <c r="X354" s="27"/>
-      <c r="Y354" s="27"/>
+      <c r="R354" s="16"/>
+      <c r="S354" s="16"/>
+      <c r="T354" s="16"/>
+      <c r="U354" s="16"/>
+      <c r="V354" s="16"/>
+      <c r="W354" s="16"/>
+      <c r="X354" s="16"/>
+      <c r="Y354" s="16"/>
     </row>
     <row r="355" spans="18:25">
-      <c r="R355" s="27"/>
-      <c r="S355" s="27"/>
-      <c r="T355" s="27"/>
-      <c r="U355" s="27"/>
-      <c r="V355" s="27"/>
-      <c r="W355" s="27"/>
-      <c r="X355" s="27"/>
-      <c r="Y355" s="27"/>
+      <c r="R355" s="16"/>
+      <c r="S355" s="16"/>
+      <c r="T355" s="16"/>
+      <c r="U355" s="16"/>
+      <c r="V355" s="16"/>
+      <c r="W355" s="16"/>
+      <c r="X355" s="16"/>
+      <c r="Y355" s="16"/>
     </row>
     <row r="356" spans="2:25">
       <c r="B356" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R356" s="27"/>
-      <c r="S356" s="27"/>
-      <c r="T356" s="27"/>
-      <c r="U356" s="27"/>
-      <c r="V356" s="27"/>
-      <c r="W356" s="27"/>
-      <c r="X356" s="27"/>
-      <c r="Y356" s="27"/>
+        <v>197</v>
+      </c>
+      <c r="R356" s="16"/>
+      <c r="S356" s="16"/>
+      <c r="T356" s="16"/>
+      <c r="U356" s="16"/>
+      <c r="V356" s="16"/>
+      <c r="W356" s="16"/>
+      <c r="X356" s="16"/>
+      <c r="Y356" s="16"/>
     </row>
     <row r="357" spans="18:25">
-      <c r="R357" s="27"/>
-      <c r="S357" s="27"/>
-      <c r="T357" s="27"/>
-      <c r="U357" s="27"/>
-      <c r="V357" s="27"/>
-      <c r="W357" s="27"/>
-      <c r="X357" s="27"/>
-      <c r="Y357" s="27"/>
+      <c r="R357" s="16"/>
+      <c r="S357" s="16"/>
+      <c r="T357" s="16"/>
+      <c r="U357" s="16"/>
+      <c r="V357" s="16"/>
+      <c r="W357" s="16"/>
+      <c r="X357" s="16"/>
+      <c r="Y357" s="16"/>
     </row>
     <row r="358" spans="2:8">
       <c r="B358" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H358" s="1"/>
     </row>
     <row r="359" spans="2:8">
       <c r="B359" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H359" s="1"/>
+    </row>
+    <row r="360" spans="2:8">
+      <c r="B360" s="30" t="s">
         <v>199</v>
-      </c>
-      <c r="H359" s="1"/>
-    </row>
-    <row r="360" spans="2:8">
-      <c r="B360" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="H360" s="1"/>
     </row>
@@ -6317,15 +6481,33 @@
         <v>15</v>
       </c>
       <c r="B364" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="366" spans="4:6">
+      <c r="D366" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="366" spans="6:14">
       <c r="F366" t="s">
         <v>202</v>
       </c>
-      <c r="N366" t="s">
-        <v>17</v>
+    </row>
+    <row r="367" spans="4:6">
+      <c r="D367" t="s">
+        <v>203</v>
+      </c>
+      <c r="F367" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="369" spans="8:8">
+      <c r="H369" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="370" spans="9:9">
+      <c r="I370" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6333,22 +6515,12 @@
         <v>16</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="375" spans="8:8">
-      <c r="H375" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="376" spans="8:8">
-      <c r="H376" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="377" spans="8:8">
       <c r="H377" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6356,7 +6528,7 @@
         <v>17</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -6364,15 +6536,18 @@
         <v>18</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K399" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="402" spans="6:6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="402" spans="6:11">
       <c r="F402" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="K402" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -6380,7 +6555,7 @@
         <v>19</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="410" spans="8:14">
@@ -6396,10 +6571,10 @@
       <c r="K410" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="L410" s="24" t="s">
+      <c r="L410" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="M410" s="24" t="s">
+      <c r="M410" s="25" t="s">
         <v>156</v>
       </c>
       <c r="N410" s="14" t="s">
@@ -6417,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="K411" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L411" s="8" t="s">
         <v>160</v>
@@ -6426,12 +6601,12 @@
         <v>161</v>
       </c>
       <c r="N411" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="412" spans="8:14">
       <c r="H412" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I412" s="8">
         <v>30000</v>
@@ -6463,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="K413" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L413" s="8" t="s">
         <v>160</v>
@@ -6472,7 +6647,7 @@
         <v>161</v>
       </c>
       <c r="N413" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="414" spans="8:14">
@@ -6509,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="K415" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L415" s="8" t="s">
         <v>160</v>
@@ -6518,7 +6693,7 @@
         <v>161</v>
       </c>
       <c r="N415" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="416" spans="8:14">
@@ -6532,7 +6707,7 @@
         <v>2</v>
       </c>
       <c r="K416" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L416" s="8" t="s">
         <v>165</v>
@@ -6541,7 +6716,7 @@
         <v>166</v>
       </c>
       <c r="N416" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="417" spans="8:14">
@@ -6555,7 +6730,7 @@
         <v>2</v>
       </c>
       <c r="K417" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L417" s="8" t="s">
         <v>165</v>
@@ -6564,7 +6739,7 @@
         <v>166</v>
       </c>
       <c r="N417" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="418" spans="8:14">

--- a/Problems 1.xlsx
+++ b/Problems 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9335"/>
+    <workbookView windowWidth="10848" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Var2" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="213">
   <si>
     <t>Пусть T1 - множество чисел в римских цифрах, а T2 - множество чисел в арабских цифрах. A - отношение  над множествами T1 и T2.</t>
   </si>
@@ -557,12 +557,6 @@
   </si>
   <si>
     <t>R3&lt;OR&gt;R4</t>
-  </si>
-  <si>
-    <t>бесконечная таблица?</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
   <si>
     <t xml:space="preserve">Стрелка Пирса pi(A,B) = NOT A AND NOT B </t>
@@ -695,10 +689,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="d/m;@"/>
   </numFmts>
   <fonts count="28">
@@ -759,6 +753,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -775,7 +776,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,29 +791,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,6 +806,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -828,22 +822,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,13 +844,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -888,9 +860,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,36 +949,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -997,19 +961,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,19 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,7 +1009,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,7 +1039,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,25 +1075,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,13 +1117,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,26 +1152,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,6 +1178,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1208,35 +1222,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,127 +1240,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1384,26 +1378,26 @@
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1427,17 +1421,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2041,44 +2044,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="Сетевая м.1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7696200" y="24490680"/>
-          <a:ext cx="4857750" cy="3810000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -2150,13 +2115,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>383</xdr:row>
+      <xdr:row>413</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>234315</xdr:colOff>
-      <xdr:row>388</xdr:row>
+      <xdr:row>418</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2167,14 +2132,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1560830" y="70144005"/>
+          <a:off x="1560830" y="75630405"/>
           <a:ext cx="2315845" cy="1022350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2188,18 +2153,56 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>392</xdr:row>
+      <xdr:row>422</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>372110</xdr:colOff>
-      <xdr:row>394</xdr:row>
+      <xdr:row>424</xdr:row>
       <xdr:rowOff>54610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="Picture 14" descr="R1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1746885" y="77276325"/>
+          <a:ext cx="2267585" cy="410845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>198755</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="Сетевая модель испр"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2212,8 +2215,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746885" y="71789925"/>
-          <a:ext cx="2267585" cy="410845"/>
+          <a:off x="7541260" y="24632285"/>
+          <a:ext cx="4415155" cy="3460750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2483,10 +2486,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Y421"/>
+  <dimension ref="A2:AJ451"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="N366" sqref="N366"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="I285" sqref="I285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3882,58 +3885,58 @@
       <c r="G163" t="s">
         <v>81</v>
       </c>
-      <c r="I163" s="19">
+      <c r="I163" s="20">
         <v>67</v>
       </c>
-      <c r="J163" s="19">
+      <c r="J163" s="20">
         <v>67</v>
       </c>
-      <c r="L163" s="19">
-        <v>1</v>
-      </c>
-      <c r="M163" s="19" t="s">
+      <c r="L163" s="20">
+        <v>1</v>
+      </c>
+      <c r="M163" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="164" spans="9:13">
-      <c r="I164" s="19">
-        <v>2</v>
-      </c>
-      <c r="J164" s="19">
+      <c r="I164" s="20">
+        <v>2</v>
+      </c>
+      <c r="J164" s="20">
         <v>7</v>
       </c>
-      <c r="L164" s="19">
-        <v>2</v>
-      </c>
-      <c r="M164" s="19" t="s">
+      <c r="L164" s="20">
+        <v>2</v>
+      </c>
+      <c r="M164" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="165" spans="9:13">
-      <c r="I165" s="19">
+      <c r="I165" s="20">
         <v>87</v>
       </c>
-      <c r="J165" s="19">
+      <c r="J165" s="20">
         <v>65</v>
       </c>
-      <c r="L165" s="19">
+      <c r="L165" s="20">
         <v>3</v>
       </c>
-      <c r="M165" s="19" t="s">
+      <c r="M165" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="166" spans="9:17">
-      <c r="I166" s="19">
-        <v>2</v>
-      </c>
-      <c r="J166" s="19">
+      <c r="I166" s="20">
+        <v>2</v>
+      </c>
+      <c r="J166" s="20">
         <v>7</v>
       </c>
-      <c r="L166" s="19">
+      <c r="L166" s="20">
         <v>4</v>
       </c>
-      <c r="M166" s="19" t="s">
+      <c r="M166" s="20" t="s">
         <v>79</v>
       </c>
       <c r="Q166" t="s">
@@ -3950,7 +3953,7 @@
       <c r="J168" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="K168" s="20"/>
+      <c r="K168" s="21"/>
       <c r="L168" s="12" t="s">
         <v>86</v>
       </c>
@@ -3965,7 +3968,7 @@
       <c r="J169" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="K169" s="20"/>
+      <c r="K169" s="21"/>
       <c r="L169" s="12" t="s">
         <v>88</v>
       </c>
@@ -3980,7 +3983,7 @@
       <c r="J170" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K170" s="20"/>
+      <c r="K170" s="21"/>
       <c r="L170" s="12" t="s">
         <v>89</v>
       </c>
@@ -3995,7 +3998,7 @@
       <c r="J171" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K171" s="20"/>
+      <c r="K171" s="21"/>
       <c r="L171" s="12" t="s">
         <v>90</v>
       </c>
@@ -4007,58 +4010,58 @@
       <c r="G173" t="s">
         <v>91</v>
       </c>
-      <c r="I173" s="21">
-        <v>1</v>
-      </c>
-      <c r="J173" s="21" t="s">
+      <c r="I173" s="22">
+        <v>1</v>
+      </c>
+      <c r="J173" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="L173" s="21">
-        <v>1</v>
-      </c>
-      <c r="M173" s="21">
+      <c r="L173" s="22">
+        <v>1</v>
+      </c>
+      <c r="M173" s="22">
         <v>9876</v>
       </c>
     </row>
     <row r="174" spans="9:13">
-      <c r="I174" s="21">
-        <v>2</v>
-      </c>
-      <c r="J174" s="21" t="s">
+      <c r="I174" s="22">
+        <v>2</v>
+      </c>
+      <c r="J174" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="L174" s="21">
-        <v>2</v>
-      </c>
-      <c r="M174" s="21">
+      <c r="L174" s="22">
+        <v>2</v>
+      </c>
+      <c r="M174" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="9:13">
-      <c r="I175" s="21">
+      <c r="I175" s="22">
         <v>78</v>
       </c>
-      <c r="J175" s="21" t="s">
+      <c r="J175" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="L175" s="21">
+      <c r="L175" s="22">
         <v>3</v>
       </c>
-      <c r="M175" s="21">
+      <c r="M175" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="176" spans="9:13">
-      <c r="I176" s="21">
+      <c r="I176" s="22">
         <v>4</v>
       </c>
-      <c r="J176" s="21" t="s">
+      <c r="J176" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="L176" s="21">
+      <c r="L176" s="22">
         <v>4</v>
       </c>
-      <c r="M176" s="21">
+      <c r="M176" s="22">
         <v>4</v>
       </c>
     </row>
@@ -4099,7 +4102,7 @@
       <c r="I181" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="J181" s="22" t="s">
+      <c r="J181" s="23" t="s">
         <v>97</v>
       </c>
       <c r="K181" s="14" t="s">
@@ -4131,10 +4134,10 @@
       <c r="L182" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="M182" s="23">
+      <c r="M182" s="24">
         <v>36892</v>
       </c>
-      <c r="N182" s="24">
+      <c r="N182" s="25">
         <v>1</v>
       </c>
     </row>
@@ -4151,10 +4154,10 @@
       <c r="L183" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="M183" s="23">
+      <c r="M183" s="24">
         <v>39815</v>
       </c>
-      <c r="N183" s="24">
+      <c r="N183" s="25">
         <v>2</v>
       </c>
     </row>
@@ -4171,10 +4174,10 @@
       <c r="L184" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="M184" s="23">
+      <c r="M184" s="24">
         <v>43833</v>
       </c>
-      <c r="N184" s="24">
+      <c r="N184" s="25">
         <v>3</v>
       </c>
     </row>
@@ -4191,10 +4194,10 @@
       <c r="L185" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="M185" s="23">
+      <c r="M185" s="24">
         <v>36892</v>
       </c>
-      <c r="N185" s="24">
+      <c r="N185" s="25">
         <v>4</v>
       </c>
     </row>
@@ -4211,10 +4214,10 @@
       <c r="L186" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="M186" s="23">
+      <c r="M186" s="24">
         <v>42374</v>
       </c>
-      <c r="N186" s="24">
+      <c r="N186" s="25">
         <v>5</v>
       </c>
     </row>
@@ -4235,141 +4238,141 @@
       <c r="F192" t="s">
         <v>76</v>
       </c>
-      <c r="H192" s="14" t="s">
+      <c r="H192" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I192" s="14" t="s">
+      <c r="I192" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J192" s="14" t="s">
+      <c r="J192" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="K192" s="14" t="s">
+      <c r="K192" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="M192" s="25" t="s">
+      <c r="M192" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N192" s="25" t="s">
+      <c r="N192" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O192" s="25" t="s">
+      <c r="O192" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="193" spans="8:15">
-      <c r="H193" s="14" t="s">
+      <c r="H193" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I193" s="14" t="s">
+      <c r="I193" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J193" s="14" t="s">
+      <c r="J193" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K193" s="14" t="s">
+      <c r="K193" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="M193" s="14" t="s">
+      <c r="M193" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="N193" s="25" t="s">
+      <c r="N193" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="O193" s="25" t="s">
+      <c r="O193" s="19" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="194" spans="8:15">
-      <c r="H194" s="8" t="s">
+      <c r="H194" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I194" s="8" t="s">
+      <c r="I194" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="J194" s="8">
+      <c r="J194" s="20">
         <v>290</v>
       </c>
-      <c r="K194" s="8" t="s">
+      <c r="K194" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="M194" s="8" t="s">
+      <c r="M194" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="N194" s="8" t="s">
+      <c r="N194" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="O194" s="8" t="s">
+      <c r="O194" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="195" spans="8:15">
-      <c r="H195" s="8" t="s">
+      <c r="H195" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="I195" s="8" t="s">
+      <c r="I195" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="J195" s="8">
+      <c r="J195" s="20">
         <v>302</v>
       </c>
-      <c r="K195" s="8" t="s">
+      <c r="K195" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M195" s="8" t="s">
+      <c r="M195" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="N195" s="8" t="s">
+      <c r="N195" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="O195" s="8" t="s">
+      <c r="O195" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="196" spans="8:11">
-      <c r="H196" s="8" t="s">
+      <c r="H196" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="I196" s="8" t="s">
+      <c r="I196" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="J196" s="8">
+      <c r="J196" s="20">
         <v>300</v>
       </c>
-      <c r="K196" s="8" t="s">
+      <c r="K196" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="197" spans="8:11">
-      <c r="H197" s="8" t="s">
+      <c r="H197" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="I197" s="8" t="s">
+      <c r="I197" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="J197" s="8">
+      <c r="J197" s="20">
         <v>296</v>
       </c>
-      <c r="K197" s="8" t="s">
+      <c r="K197" s="20" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="198" spans="8:11">
-      <c r="H198" s="8" t="s">
+      <c r="H198" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I198" s="8" t="s">
+      <c r="I198" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="J198" s="8">
+      <c r="J198" s="20">
         <v>298</v>
       </c>
-      <c r="K198" s="8" t="s">
+      <c r="K198" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="200" spans="6:17">
-      <c r="F200" s="20" t="s">
+      <c r="F200" s="21" t="s">
         <v>81</v>
       </c>
       <c r="H200" s="26" t="s">
@@ -4495,7 +4498,7 @@
       <c r="K206" s="16"/>
     </row>
     <row r="208" spans="6:15">
-      <c r="F208" s="20" t="s">
+      <c r="F208" s="21" t="s">
         <v>85</v>
       </c>
       <c r="H208" s="26" t="s">
@@ -4769,139 +4772,139 @@
       </c>
     </row>
     <row r="224" spans="6:15">
-      <c r="F224" s="20" t="s">
+      <c r="F224" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="H224" s="26" t="s">
+      <c r="H224" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I224" s="26" t="s">
+      <c r="I224" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J224" s="26" t="s">
+      <c r="J224" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="K224" s="26" t="s">
+      <c r="K224" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="M224" s="26" t="s">
+      <c r="M224" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N224" s="26" t="s">
+      <c r="N224" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O224" s="26" t="s">
+      <c r="O224" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="225" spans="8:15">
-      <c r="H225" s="26" t="s">
+      <c r="H225" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I225" s="26" t="s">
+      <c r="I225" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J225" s="26" t="s">
+      <c r="J225" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K225" s="26" t="s">
+      <c r="K225" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="M225" s="26" t="s">
+      <c r="M225" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="N225" s="26" t="s">
+      <c r="N225" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="O225" s="26" t="s">
+      <c r="O225" s="19" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="226" spans="8:15">
-      <c r="H226" s="7" t="s">
+      <c r="H226" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I226" s="7" t="s">
+      <c r="I226" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="J226" s="7">
+      <c r="J226" s="20">
         <v>290</v>
       </c>
-      <c r="K226" s="7" t="s">
+      <c r="K226" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="M226" s="7" t="s">
+      <c r="M226" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="N226" s="7" t="s">
+      <c r="N226" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="O226" s="7" t="s">
+      <c r="O226" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="227" spans="8:15">
-      <c r="H227" s="7" t="s">
+      <c r="H227" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="I227" s="7" t="s">
+      <c r="I227" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="J227" s="7">
+      <c r="J227" s="20">
         <v>302</v>
       </c>
-      <c r="K227" s="7" t="s">
+      <c r="K227" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="M227" s="7" t="s">
+      <c r="M227" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="N227" s="7" t="s">
+      <c r="N227" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="O227" s="7" t="s">
+      <c r="O227" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="228" spans="8:11">
-      <c r="H228" s="7" t="s">
+      <c r="H228" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="I228" s="7" t="s">
+      <c r="I228" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="J228" s="7">
+      <c r="J228" s="20">
         <v>300</v>
       </c>
-      <c r="K228" s="7" t="s">
+      <c r="K228" s="20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="229" spans="8:11">
-      <c r="H229" s="7" t="s">
+      <c r="H229" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="I229" s="7" t="s">
+      <c r="I229" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="J229" s="7">
+      <c r="J229" s="20">
         <v>296</v>
       </c>
-      <c r="K229" s="7" t="s">
+      <c r="K229" s="20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="230" spans="8:11">
-      <c r="H230" s="7" t="s">
+      <c r="H230" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I230" s="7" t="s">
+      <c r="I230" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="J230" s="7">
+      <c r="J230" s="20">
         <v>298</v>
       </c>
-      <c r="K230" s="7" t="s">
+      <c r="K230" s="20" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4996,13 +4999,13 @@
       <c r="O251" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="R251" s="25" t="s">
+      <c r="R251" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="S251" s="25" t="s">
+      <c r="S251" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="T251" s="25" t="s">
+      <c r="T251" s="28" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5152,13 +5155,13 @@
       <c r="J257" s="8">
         <v>2</v>
       </c>
-      <c r="M257" s="28" t="s">
+      <c r="M257" s="29" t="s">
         <v>173</v>
       </c>
       <c r="N257" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="O257" s="28">
+      <c r="O257" s="29">
         <v>2</v>
       </c>
       <c r="Q257" t="s">
@@ -5167,7 +5170,7 @@
       <c r="R257" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="S257" s="29">
+      <c r="S257" s="35">
         <v>45627</v>
       </c>
     </row>
@@ -5184,7 +5187,7 @@
       <c r="R258" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="S258" s="29">
+      <c r="S258" s="35">
         <v>45047</v>
       </c>
     </row>
@@ -5245,10 +5248,10 @@
       <c r="K265" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="L265" s="25" t="s">
+      <c r="L265" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="M265" s="25" t="s">
+      <c r="M265" s="28" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5441,10 +5444,10 @@
       <c r="K277" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="L277" s="25" t="s">
+      <c r="L277" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="M277" s="25" t="s">
+      <c r="M277" s="28" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5534,13 +5537,13 @@
       </c>
     </row>
     <row r="283" spans="9:13">
-      <c r="I283" s="28" t="s">
+      <c r="I283" s="29" t="s">
         <v>173</v>
       </c>
       <c r="J283" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K283" s="28">
+      <c r="K283" s="29">
         <v>2</v>
       </c>
       <c r="L283" s="8" t="s">
@@ -5550,7 +5553,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="288" spans="3:13">
+    <row r="288" spans="3:36">
       <c r="C288" t="s">
         <v>85</v>
       </c>
@@ -5566,1271 +5569,1894 @@
       <c r="K288" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="L288" s="25" t="s">
+      <c r="L288" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="M288" s="25" t="s">
+      <c r="M288" s="28" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="289" spans="9:19">
-      <c r="I289" s="8" t="s">
+      <c r="N288" s="30"/>
+      <c r="O288" s="30"/>
+      <c r="P288" s="31"/>
+      <c r="Q288" s="31"/>
+      <c r="R288" s="31"/>
+      <c r="S288" s="30"/>
+      <c r="T288" s="30"/>
+      <c r="U288" s="31"/>
+      <c r="V288" s="31"/>
+      <c r="W288" s="31"/>
+      <c r="X288" s="30"/>
+      <c r="Y288" s="30"/>
+      <c r="Z288" s="31"/>
+      <c r="AA288" s="31"/>
+      <c r="AB288" s="31"/>
+      <c r="AC288" s="27"/>
+      <c r="AD288" s="27"/>
+      <c r="AE288" s="27"/>
+      <c r="AF288" s="34"/>
+      <c r="AG288" s="34"/>
+      <c r="AH288" s="37"/>
+      <c r="AI288" s="37"/>
+      <c r="AJ288" s="37"/>
+    </row>
+    <row r="289" spans="9:36">
+      <c r="I289" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="J289" s="8" t="s">
+      <c r="J289" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="K289" s="8">
-        <v>2</v>
-      </c>
-      <c r="L289" s="8" t="s">
+      <c r="K289" s="32">
+        <v>2</v>
+      </c>
+      <c r="L289" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M289" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N289" s="30"/>
+      <c r="O289" s="30"/>
+      <c r="P289" s="33"/>
+      <c r="Q289" s="33"/>
+      <c r="R289" s="33"/>
+      <c r="S289" s="30"/>
+      <c r="T289" s="30"/>
+      <c r="U289" s="33"/>
+      <c r="V289" s="33"/>
+      <c r="W289" s="33"/>
+      <c r="X289" s="30"/>
+      <c r="Y289" s="30"/>
+      <c r="Z289" s="33"/>
+      <c r="AA289" s="33"/>
+      <c r="AB289" s="33"/>
+      <c r="AC289" s="16"/>
+      <c r="AD289" s="16"/>
+      <c r="AE289" s="16"/>
+      <c r="AF289" s="34"/>
+      <c r="AG289" s="34"/>
+      <c r="AH289" s="16"/>
+      <c r="AI289" s="16"/>
+      <c r="AJ289" s="16"/>
+    </row>
+    <row r="290" spans="9:36">
+      <c r="I290" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J290" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K290" s="32">
+        <v>1</v>
+      </c>
+      <c r="L290" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="M289" s="8" t="s">
+      <c r="M290" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="O289" s="8" t="s">
+      <c r="N290" s="30"/>
+      <c r="O290" s="30"/>
+      <c r="P290" s="33"/>
+      <c r="Q290" s="33"/>
+      <c r="R290" s="33"/>
+      <c r="S290" s="30"/>
+      <c r="T290" s="30"/>
+      <c r="U290" s="33"/>
+      <c r="V290" s="33"/>
+      <c r="W290" s="33"/>
+      <c r="X290" s="30"/>
+      <c r="Y290" s="30"/>
+      <c r="Z290" s="33"/>
+      <c r="AA290" s="33"/>
+      <c r="AB290" s="33"/>
+      <c r="AC290" s="16"/>
+      <c r="AD290" s="16"/>
+      <c r="AE290" s="16"/>
+      <c r="AF290" s="34"/>
+      <c r="AG290" s="34"/>
+      <c r="AH290" s="16"/>
+      <c r="AI290" s="16"/>
+      <c r="AJ290" s="16"/>
+    </row>
+    <row r="291" spans="9:36">
+      <c r="I291" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J291" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K291" s="32">
+        <v>2</v>
+      </c>
+      <c r="L291" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M291" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N291" s="30"/>
+      <c r="O291" s="30"/>
+      <c r="P291" s="33"/>
+      <c r="Q291" s="33"/>
+      <c r="R291" s="33"/>
+      <c r="S291" s="30"/>
+      <c r="T291" s="30"/>
+      <c r="U291" s="33"/>
+      <c r="V291" s="33"/>
+      <c r="W291" s="33"/>
+      <c r="X291" s="30"/>
+      <c r="Y291" s="30"/>
+      <c r="Z291" s="30"/>
+      <c r="AA291" s="30"/>
+      <c r="AB291" s="30"/>
+      <c r="AC291" s="16"/>
+      <c r="AD291" s="16"/>
+      <c r="AE291" s="16"/>
+      <c r="AF291" s="34"/>
+      <c r="AG291" s="34"/>
+      <c r="AH291" s="34"/>
+      <c r="AI291" s="34"/>
+      <c r="AJ291" s="34"/>
+    </row>
+    <row r="292" spans="9:36">
+      <c r="I292" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="J292" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K292" s="32">
+        <v>1</v>
+      </c>
+      <c r="L292" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="M292" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="N292" s="30"/>
+      <c r="O292" s="30"/>
+      <c r="P292" s="33"/>
+      <c r="Q292" s="33"/>
+      <c r="R292" s="33"/>
+      <c r="S292" s="30"/>
+      <c r="T292" s="30"/>
+      <c r="U292" s="33"/>
+      <c r="V292" s="33"/>
+      <c r="W292" s="33"/>
+      <c r="X292" s="30"/>
+      <c r="Y292" s="30"/>
+      <c r="Z292" s="30"/>
+      <c r="AA292" s="30"/>
+      <c r="AB292" s="30"/>
+      <c r="AC292" s="16"/>
+      <c r="AD292" s="16"/>
+      <c r="AE292" s="16"/>
+      <c r="AF292" s="34"/>
+      <c r="AG292" s="34"/>
+      <c r="AH292" s="34"/>
+      <c r="AI292" s="34"/>
+      <c r="AJ292" s="34"/>
+    </row>
+    <row r="293" spans="9:36">
+      <c r="I293" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J293" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K293" s="32">
+        <v>1</v>
+      </c>
+      <c r="L293" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="M293" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="N293" s="30"/>
+      <c r="O293" s="30"/>
+      <c r="P293" s="33"/>
+      <c r="Q293" s="33"/>
+      <c r="R293" s="33"/>
+      <c r="S293" s="30"/>
+      <c r="T293" s="30"/>
+      <c r="U293" s="33"/>
+      <c r="V293" s="33"/>
+      <c r="W293" s="33"/>
+      <c r="X293" s="30"/>
+      <c r="Y293" s="30"/>
+      <c r="Z293" s="31"/>
+      <c r="AA293" s="31"/>
+      <c r="AB293" s="30"/>
+      <c r="AC293" s="16"/>
+      <c r="AD293" s="16"/>
+      <c r="AE293" s="16"/>
+      <c r="AF293" s="34"/>
+      <c r="AG293" s="34"/>
+      <c r="AH293" s="27"/>
+      <c r="AI293" s="27"/>
+      <c r="AJ293" s="34"/>
+    </row>
+    <row r="294" spans="9:36">
+      <c r="I294" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="J294" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K294" s="32">
+        <v>2</v>
+      </c>
+      <c r="L294" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M294" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N294" s="30"/>
+      <c r="O294" s="30"/>
+      <c r="P294" s="33"/>
+      <c r="Q294" s="33"/>
+      <c r="R294" s="33"/>
+      <c r="S294" s="30"/>
+      <c r="T294" s="30"/>
+      <c r="U294" s="33"/>
+      <c r="V294" s="33"/>
+      <c r="W294" s="33"/>
+      <c r="X294" s="30"/>
+      <c r="Y294" s="30"/>
+      <c r="Z294" s="33"/>
+      <c r="AA294" s="36"/>
+      <c r="AB294" s="30"/>
+      <c r="AC294" s="13"/>
+      <c r="AD294" s="16"/>
+      <c r="AE294" s="13"/>
+      <c r="AF294" s="34"/>
+      <c r="AG294" s="34"/>
+      <c r="AH294" s="16"/>
+      <c r="AI294" s="38"/>
+      <c r="AJ294" s="34"/>
+    </row>
+    <row r="295" spans="9:36">
+      <c r="I295" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="P289" s="8" t="s">
+      <c r="J295" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="Q289" s="8">
-        <v>1</v>
-      </c>
-      <c r="R289" s="8" t="s">
+      <c r="K295" s="32">
+        <v>2</v>
+      </c>
+      <c r="L295" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="S289" s="8" t="s">
+      <c r="M295" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N295" s="30"/>
+      <c r="O295" s="30"/>
+      <c r="P295" s="33"/>
+      <c r="Q295" s="33"/>
+      <c r="R295" s="33"/>
+      <c r="S295" s="30"/>
+      <c r="T295" s="30"/>
+      <c r="U295" s="30"/>
+      <c r="V295" s="30"/>
+      <c r="W295" s="30"/>
+      <c r="X295" s="30"/>
+      <c r="Y295" s="30"/>
+      <c r="Z295" s="33"/>
+      <c r="AA295" s="36"/>
+      <c r="AB295" s="30"/>
+      <c r="AC295" s="34"/>
+      <c r="AD295" s="34"/>
+      <c r="AE295" s="34"/>
+      <c r="AF295" s="34"/>
+      <c r="AG295" s="34"/>
+      <c r="AH295" s="16"/>
+      <c r="AI295" s="38"/>
+      <c r="AJ295" s="34"/>
+    </row>
+    <row r="296" spans="9:36">
+      <c r="I296" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J296" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K296" s="32">
+        <v>1</v>
+      </c>
+      <c r="L296" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M296" s="32" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="290" spans="9:19">
-      <c r="I290" s="8" t="s">
+      <c r="N296" s="30"/>
+      <c r="O296" s="30"/>
+      <c r="P296" s="33"/>
+      <c r="Q296" s="33"/>
+      <c r="R296" s="33"/>
+      <c r="S296" s="30"/>
+      <c r="T296" s="30"/>
+      <c r="U296" s="30"/>
+      <c r="V296" s="30"/>
+      <c r="W296" s="30"/>
+      <c r="X296" s="30"/>
+      <c r="Y296" s="30"/>
+      <c r="Z296" s="30"/>
+      <c r="AA296" s="30"/>
+      <c r="AB296" s="30"/>
+      <c r="AC296" s="34"/>
+      <c r="AD296" s="34"/>
+      <c r="AE296" s="34"/>
+      <c r="AF296" s="34"/>
+      <c r="AG296" s="34"/>
+      <c r="AH296" s="34"/>
+      <c r="AI296" s="34"/>
+      <c r="AJ296" s="34"/>
+    </row>
+    <row r="297" spans="9:36">
+      <c r="I297" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J297" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K297" s="32">
+        <v>2</v>
+      </c>
+      <c r="L297" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="M297" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N297" s="30"/>
+      <c r="O297" s="30"/>
+      <c r="P297" s="33"/>
+      <c r="Q297" s="33"/>
+      <c r="R297" s="33"/>
+      <c r="S297" s="30"/>
+      <c r="T297" s="30"/>
+      <c r="U297" s="30"/>
+      <c r="V297" s="30"/>
+      <c r="W297" s="30"/>
+      <c r="X297" s="30"/>
+      <c r="Y297" s="30"/>
+      <c r="Z297" s="30"/>
+      <c r="AA297" s="30"/>
+      <c r="AB297" s="30"/>
+      <c r="AC297" s="34"/>
+      <c r="AD297" s="34"/>
+      <c r="AE297" s="34"/>
+      <c r="AF297" s="34"/>
+      <c r="AG297" s="34"/>
+      <c r="AH297" s="34"/>
+      <c r="AI297" s="34"/>
+      <c r="AJ297" s="34"/>
+    </row>
+    <row r="298" spans="9:36">
+      <c r="I298" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="J298" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K298" s="32">
+        <v>1</v>
+      </c>
+      <c r="L298" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M298" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="N298" s="30"/>
+      <c r="O298" s="30"/>
+      <c r="P298" s="33"/>
+      <c r="Q298" s="33"/>
+      <c r="R298" s="33"/>
+      <c r="S298" s="30"/>
+      <c r="T298" s="30"/>
+      <c r="U298" s="30"/>
+      <c r="V298" s="30"/>
+      <c r="W298" s="30"/>
+      <c r="X298" s="30"/>
+      <c r="Y298" s="30"/>
+      <c r="Z298" s="30"/>
+      <c r="AA298" s="30"/>
+      <c r="AB298" s="30"/>
+      <c r="AC298" s="34"/>
+      <c r="AD298" s="34"/>
+      <c r="AE298" s="34"/>
+      <c r="AF298" s="34"/>
+      <c r="AG298" s="34"/>
+      <c r="AH298" s="34"/>
+      <c r="AI298" s="34"/>
+      <c r="AJ298" s="34"/>
+    </row>
+    <row r="299" spans="9:36">
+      <c r="I299" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="J290" s="8" t="s">
+      <c r="J299" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K299" s="32">
+        <v>1</v>
+      </c>
+      <c r="L299" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M299" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="N299" s="34"/>
+      <c r="O299" s="34"/>
+      <c r="P299" s="34"/>
+      <c r="Q299" s="34"/>
+      <c r="R299" s="34"/>
+      <c r="S299" s="34"/>
+      <c r="T299" s="34"/>
+      <c r="U299" s="34"/>
+      <c r="V299" s="34"/>
+      <c r="W299" s="34"/>
+      <c r="X299" s="34"/>
+      <c r="Y299" s="34"/>
+      <c r="Z299" s="34"/>
+      <c r="AA299" s="34"/>
+      <c r="AB299" s="34"/>
+      <c r="AC299" s="34"/>
+      <c r="AD299" s="34"/>
+      <c r="AE299" s="34"/>
+      <c r="AF299" s="34"/>
+      <c r="AG299" s="34"/>
+      <c r="AH299" s="34"/>
+      <c r="AI299" s="34"/>
+      <c r="AJ299" s="34"/>
+    </row>
+    <row r="300" spans="9:36">
+      <c r="I300" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="J300" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K300" s="32">
+        <v>2</v>
+      </c>
+      <c r="L300" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="M300" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N300" s="34"/>
+      <c r="O300" s="34"/>
+      <c r="P300" s="34"/>
+      <c r="Q300" s="34"/>
+      <c r="R300" s="34"/>
+      <c r="S300" s="34"/>
+      <c r="T300" s="34"/>
+      <c r="U300" s="34"/>
+      <c r="V300" s="34"/>
+      <c r="W300" s="34"/>
+      <c r="X300" s="34"/>
+      <c r="Y300" s="34"/>
+      <c r="Z300" s="34"/>
+      <c r="AA300" s="34"/>
+      <c r="AB300" s="34"/>
+      <c r="AC300" s="34"/>
+      <c r="AD300" s="34"/>
+      <c r="AE300" s="34"/>
+      <c r="AF300" s="34"/>
+      <c r="AG300" s="34"/>
+      <c r="AH300" s="34"/>
+      <c r="AI300" s="34"/>
+      <c r="AJ300" s="34"/>
+    </row>
+    <row r="301" spans="9:36">
+      <c r="I301" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="J301" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="K290" s="8">
-        <v>1</v>
-      </c>
-      <c r="L290" s="8" t="s">
+      <c r="K301" s="32">
+        <v>2</v>
+      </c>
+      <c r="L301" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M301" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="N301" s="34"/>
+      <c r="O301" s="34"/>
+      <c r="P301" s="34"/>
+      <c r="Q301" s="34"/>
+      <c r="R301" s="34"/>
+      <c r="S301" s="34"/>
+      <c r="T301" s="34"/>
+      <c r="U301" s="34"/>
+      <c r="V301" s="34"/>
+      <c r="W301" s="34"/>
+      <c r="X301" s="34"/>
+      <c r="Y301" s="34"/>
+      <c r="Z301" s="34"/>
+      <c r="AA301" s="34"/>
+      <c r="AB301" s="34"/>
+      <c r="AC301" s="34"/>
+      <c r="AD301" s="34"/>
+      <c r="AE301" s="34"/>
+      <c r="AF301" s="34"/>
+      <c r="AG301" s="34"/>
+      <c r="AH301" s="34"/>
+      <c r="AI301" s="34"/>
+      <c r="AJ301" s="34"/>
+    </row>
+    <row r="302" spans="9:36">
+      <c r="I302" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J302" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K302" s="32">
+        <v>1</v>
+      </c>
+      <c r="L302" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="M290" s="8" t="s">
+      <c r="M302" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N302" s="34"/>
+      <c r="O302" s="33"/>
+      <c r="P302" s="33"/>
+      <c r="Q302" s="33"/>
+      <c r="R302" s="34"/>
+      <c r="S302" s="34"/>
+      <c r="T302" s="34"/>
+      <c r="U302" s="34"/>
+      <c r="V302" s="34"/>
+      <c r="W302" s="34"/>
+      <c r="X302" s="34"/>
+      <c r="Y302" s="34"/>
+      <c r="Z302" s="34"/>
+      <c r="AA302" s="34"/>
+      <c r="AB302" s="34"/>
+      <c r="AC302" s="34"/>
+      <c r="AD302" s="34"/>
+      <c r="AE302" s="34"/>
+      <c r="AF302" s="34"/>
+      <c r="AG302" s="34"/>
+      <c r="AH302" s="34"/>
+      <c r="AI302" s="34"/>
+      <c r="AJ302" s="34"/>
+    </row>
+    <row r="303" spans="9:36">
+      <c r="I303" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J303" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K303" s="32">
+        <v>2</v>
+      </c>
+      <c r="L303" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M303" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="O290" s="8" t="s">
+      <c r="N303" s="34"/>
+      <c r="O303" s="33"/>
+      <c r="P303" s="33"/>
+      <c r="Q303" s="33"/>
+      <c r="R303" s="34"/>
+      <c r="S303" s="34"/>
+      <c r="T303" s="34"/>
+      <c r="U303" s="34"/>
+      <c r="V303" s="34"/>
+      <c r="W303" s="34"/>
+      <c r="X303" s="34"/>
+      <c r="Y303" s="34"/>
+      <c r="Z303" s="34"/>
+      <c r="AA303" s="34"/>
+      <c r="AB303" s="34"/>
+      <c r="AC303" s="34"/>
+      <c r="AD303" s="34"/>
+      <c r="AE303" s="34"/>
+      <c r="AF303" s="34"/>
+      <c r="AG303" s="34"/>
+      <c r="AH303" s="34"/>
+      <c r="AI303" s="34"/>
+      <c r="AJ303" s="34"/>
+    </row>
+    <row r="304" spans="9:36">
+      <c r="I304" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="J304" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K304" s="32">
+        <v>1</v>
+      </c>
+      <c r="L304" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="M304" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N304" s="34"/>
+      <c r="O304" s="34"/>
+      <c r="P304" s="34"/>
+      <c r="Q304" s="34"/>
+      <c r="R304" s="34"/>
+      <c r="S304" s="34"/>
+      <c r="T304" s="34"/>
+      <c r="U304" s="34"/>
+      <c r="V304" s="34"/>
+      <c r="W304" s="34"/>
+      <c r="X304" s="34"/>
+      <c r="Y304" s="34"/>
+      <c r="Z304" s="34"/>
+      <c r="AA304" s="34"/>
+      <c r="AB304" s="34"/>
+      <c r="AC304" s="34"/>
+      <c r="AD304" s="34"/>
+      <c r="AE304" s="34"/>
+      <c r="AF304" s="34"/>
+      <c r="AG304" s="34"/>
+      <c r="AH304" s="34"/>
+      <c r="AI304" s="34"/>
+      <c r="AJ304" s="34"/>
+    </row>
+    <row r="305" spans="9:36">
+      <c r="I305" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="P290" s="8" t="s">
+      <c r="J305" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K305" s="32">
+        <v>1</v>
+      </c>
+      <c r="L305" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="M305" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N305" s="34"/>
+      <c r="O305" s="34"/>
+      <c r="P305" s="34"/>
+      <c r="Q305" s="34"/>
+      <c r="R305" s="34"/>
+      <c r="S305" s="34"/>
+      <c r="T305" s="34"/>
+      <c r="U305" s="34"/>
+      <c r="V305" s="34"/>
+      <c r="W305" s="34"/>
+      <c r="X305" s="34"/>
+      <c r="Y305" s="34"/>
+      <c r="Z305" s="34"/>
+      <c r="AA305" s="34"/>
+      <c r="AB305" s="34"/>
+      <c r="AC305" s="34"/>
+      <c r="AD305" s="34"/>
+      <c r="AE305" s="34"/>
+      <c r="AF305" s="34"/>
+      <c r="AG305" s="34"/>
+      <c r="AH305" s="34"/>
+      <c r="AI305" s="34"/>
+      <c r="AJ305" s="34"/>
+    </row>
+    <row r="306" spans="9:36">
+      <c r="I306" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="J306" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K306" s="32">
+        <v>2</v>
+      </c>
+      <c r="L306" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M306" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="N306" s="34"/>
+      <c r="O306" s="34"/>
+      <c r="P306" s="34"/>
+      <c r="Q306" s="34"/>
+      <c r="R306" s="34"/>
+      <c r="S306" s="34"/>
+      <c r="T306" s="34"/>
+      <c r="U306" s="34"/>
+      <c r="V306" s="34"/>
+      <c r="W306" s="34"/>
+      <c r="X306" s="34"/>
+      <c r="Y306" s="34"/>
+      <c r="Z306" s="34"/>
+      <c r="AA306" s="34"/>
+      <c r="AB306" s="34"/>
+      <c r="AC306" s="34"/>
+      <c r="AD306" s="34"/>
+      <c r="AE306" s="34"/>
+      <c r="AF306" s="34"/>
+      <c r="AG306" s="34"/>
+      <c r="AH306" s="34"/>
+      <c r="AI306" s="34"/>
+      <c r="AJ306" s="34"/>
+    </row>
+    <row r="307" spans="9:36">
+      <c r="I307" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="J307" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="Q290" s="8">
-        <v>2</v>
-      </c>
-      <c r="R290" s="8" t="s">
+      <c r="K307" s="32">
+        <v>2</v>
+      </c>
+      <c r="L307" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="M307" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="N307" s="34"/>
+      <c r="O307" s="34"/>
+      <c r="P307" s="34"/>
+      <c r="Q307" s="34"/>
+      <c r="R307" s="34"/>
+      <c r="S307" s="34"/>
+      <c r="T307" s="34"/>
+      <c r="U307" s="34"/>
+      <c r="V307" s="34"/>
+      <c r="W307" s="34"/>
+      <c r="X307" s="34"/>
+      <c r="Y307" s="34"/>
+      <c r="Z307" s="34"/>
+      <c r="AA307" s="34"/>
+      <c r="AB307" s="34"/>
+      <c r="AC307" s="34"/>
+      <c r="AD307" s="34"/>
+      <c r="AE307" s="34"/>
+      <c r="AF307" s="34"/>
+      <c r="AG307" s="34"/>
+      <c r="AH307" s="34"/>
+      <c r="AI307" s="34"/>
+      <c r="AJ307" s="34"/>
+    </row>
+    <row r="308" spans="9:13">
+      <c r="I308" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J308" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K308" s="32">
+        <v>1</v>
+      </c>
+      <c r="L308" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="S290" s="8" t="s">
+      <c r="M308" s="32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="291" spans="9:21">
-      <c r="I291" s="8" t="s">
+    <row r="309" spans="9:13">
+      <c r="I309" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="J291" s="8" t="s">
+      <c r="J309" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="K291" s="8">
-        <v>2</v>
-      </c>
-      <c r="L291" s="8" t="s">
+      <c r="K309" s="32">
+        <v>2</v>
+      </c>
+      <c r="L309" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="M291" s="8" t="s">
+      <c r="M309" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="O291" s="8" t="s">
+    </row>
+    <row r="310" spans="9:13">
+      <c r="I310" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="J310" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K310" s="32">
+        <v>1</v>
+      </c>
+      <c r="L310" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M310" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="311" spans="9:13">
+      <c r="I311" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J311" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K311" s="32">
+        <v>1</v>
+      </c>
+      <c r="L311" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M311" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="312" spans="9:13">
+      <c r="I312" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="J312" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K312" s="32">
+        <v>2</v>
+      </c>
+      <c r="L312" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="M312" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="313" spans="9:13">
+      <c r="I313" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="J313" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K313" s="32">
+        <v>2</v>
+      </c>
+      <c r="L313" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M313" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="314" spans="9:13">
+      <c r="I314" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J314" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K314" s="32">
+        <v>1</v>
+      </c>
+      <c r="L314" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="M314" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="315" spans="9:13">
+      <c r="I315" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="P291" s="8" t="s">
+      <c r="J315" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K315" s="32">
+        <v>2</v>
+      </c>
+      <c r="L315" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M315" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="316" spans="9:13">
+      <c r="I316" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="J316" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="Q291" s="8">
-        <v>1</v>
-      </c>
-      <c r="R291" s="8" t="s">
+      <c r="K316" s="32">
+        <v>1</v>
+      </c>
+      <c r="L316" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="S291" s="8" t="s">
+      <c r="M316" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="T291" s="16"/>
-      <c r="U291" s="16"/>
-    </row>
-    <row r="292" spans="9:21">
-      <c r="I292" s="8" t="s">
+    </row>
+    <row r="317" spans="9:13">
+      <c r="I317" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J317" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K317" s="32">
+        <v>1</v>
+      </c>
+      <c r="L317" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="M317" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="318" spans="9:13">
+      <c r="I318" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="J318" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K318" s="32">
+        <v>2</v>
+      </c>
+      <c r="L318" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M318" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="334" spans="3:13">
+      <c r="C334" t="s">
+        <v>91</v>
+      </c>
+      <c r="D334" t="s">
+        <v>180</v>
+      </c>
+      <c r="H334" t="s">
+        <v>19</v>
+      </c>
+      <c r="I334" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="J334" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="K334" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="L334" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M334" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="335" spans="9:13">
+      <c r="I335" s="8">
+        <v>1</v>
+      </c>
+      <c r="J335" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K335" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L335" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M335" s="35">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="336" spans="9:13">
+      <c r="I336" s="8">
+        <v>2</v>
+      </c>
+      <c r="J336" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K336" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L336" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M336" s="35">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="337" spans="9:13">
+      <c r="I337" s="8">
+        <v>1</v>
+      </c>
+      <c r="J337" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K337" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L337" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M337" s="35">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="338" spans="9:13">
+      <c r="I338" s="8">
+        <v>2</v>
+      </c>
+      <c r="J338" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K338" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L338" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M338" s="35">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="339" spans="9:13">
+      <c r="I339" s="16"/>
+      <c r="J339" s="16"/>
+      <c r="K339" s="16"/>
+      <c r="L339" s="16"/>
+      <c r="M339" s="38"/>
+    </row>
+    <row r="340" spans="9:13">
+      <c r="I340" s="16"/>
+      <c r="J340" s="16"/>
+      <c r="K340" s="16"/>
+      <c r="L340" s="16"/>
+      <c r="M340" s="38"/>
+    </row>
+    <row r="341" spans="9:13">
+      <c r="I341" s="16"/>
+      <c r="J341" s="16"/>
+      <c r="K341" s="16"/>
+      <c r="L341" s="16"/>
+      <c r="M341" s="38"/>
+    </row>
+    <row r="342" spans="9:13">
+      <c r="I342" s="16"/>
+      <c r="J342" s="16"/>
+      <c r="K342" s="16"/>
+      <c r="L342" s="16"/>
+      <c r="M342" s="38"/>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346">
+        <v>13</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="351" spans="5:10">
+      <c r="E351" t="s">
+        <v>76</v>
+      </c>
+      <c r="F351" t="s">
+        <v>184</v>
+      </c>
+      <c r="I351" t="s">
+        <v>19</v>
+      </c>
+      <c r="J351" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="352" spans="10:14">
+      <c r="J352" t="s">
+        <v>18</v>
+      </c>
+      <c r="K352" t="s">
+        <v>186</v>
+      </c>
+      <c r="L352" t="s">
+        <v>187</v>
+      </c>
+      <c r="M352" t="s">
+        <v>188</v>
+      </c>
+      <c r="N352" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="353" spans="10:14">
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+      <c r="L353">
+        <v>1</v>
+      </c>
+      <c r="M353">
+        <v>0</v>
+      </c>
+      <c r="N353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="10:14">
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>1</v>
+      </c>
+      <c r="L354">
+        <v>1</v>
+      </c>
+      <c r="M354">
+        <v>0</v>
+      </c>
+      <c r="N354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="10:14">
+      <c r="J355">
+        <v>1</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>1</v>
+      </c>
+      <c r="M355">
+        <v>0</v>
+      </c>
+      <c r="N355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="10:14">
+      <c r="J356">
+        <v>1</v>
+      </c>
+      <c r="K356">
+        <v>1</v>
+      </c>
+      <c r="L356">
+        <v>0</v>
+      </c>
+      <c r="M356">
+        <v>1</v>
+      </c>
+      <c r="N356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="5:10">
+      <c r="E362" t="s">
+        <v>81</v>
+      </c>
+      <c r="F362" t="s">
+        <v>189</v>
+      </c>
+      <c r="I362" t="s">
+        <v>19</v>
+      </c>
+      <c r="J362" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="363" spans="11:15">
+      <c r="K363" t="s">
+        <v>18</v>
+      </c>
+      <c r="L363" t="s">
+        <v>186</v>
+      </c>
+      <c r="M363" t="s">
+        <v>190</v>
+      </c>
+      <c r="N363" t="s">
+        <v>187</v>
+      </c>
+      <c r="O363" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="364" spans="11:15">
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>0</v>
+      </c>
+      <c r="M364">
+        <v>1</v>
+      </c>
+      <c r="N364">
+        <v>1</v>
+      </c>
+      <c r="O364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="11:15">
+      <c r="K365">
+        <v>0</v>
+      </c>
+      <c r="L365">
+        <v>1</v>
+      </c>
+      <c r="M365">
+        <v>0</v>
+      </c>
+      <c r="N365">
+        <v>1</v>
+      </c>
+      <c r="O365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="11:15">
+      <c r="K366">
+        <v>1</v>
+      </c>
+      <c r="L366">
+        <v>0</v>
+      </c>
+      <c r="M366">
+        <v>0</v>
+      </c>
+      <c r="N366">
+        <v>1</v>
+      </c>
+      <c r="O366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="11:15">
+      <c r="K367">
+        <v>1</v>
+      </c>
+      <c r="L367">
+        <v>1</v>
+      </c>
+      <c r="M367">
+        <v>0</v>
+      </c>
+      <c r="N367">
+        <v>0</v>
+      </c>
+      <c r="O367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374">
+        <v>14</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="377" spans="2:25">
+      <c r="B377" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K377" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L377" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M377" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="R377" s="27"/>
+      <c r="S377" s="27"/>
+      <c r="T377" s="27"/>
+      <c r="U377" s="16"/>
+      <c r="V377" s="16"/>
+      <c r="W377" s="27"/>
+      <c r="X377" s="27"/>
+      <c r="Y377" s="27"/>
+    </row>
+    <row r="378" spans="11:25">
+      <c r="K378" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L378" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M378" s="8">
+        <v>2</v>
+      </c>
+      <c r="R378" s="16"/>
+      <c r="S378" s="16"/>
+      <c r="T378" s="16"/>
+      <c r="U378" s="16"/>
+      <c r="V378" s="16"/>
+      <c r="W378" s="16"/>
+      <c r="X378" s="16"/>
+      <c r="Y378" s="16"/>
+    </row>
+    <row r="379" spans="11:25">
+      <c r="K379" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L379" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M379" s="8">
+        <v>1</v>
+      </c>
+      <c r="R379" s="16"/>
+      <c r="S379" s="16"/>
+      <c r="T379" s="16"/>
+      <c r="U379" s="16"/>
+      <c r="V379" s="16"/>
+      <c r="W379" s="16"/>
+      <c r="X379" s="16"/>
+      <c r="Y379" s="16"/>
+    </row>
+    <row r="380" spans="11:25">
+      <c r="K380" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L380" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M380" s="8">
+        <v>2</v>
+      </c>
+      <c r="R380" s="16"/>
+      <c r="S380" s="16"/>
+      <c r="T380" s="16"/>
+      <c r="U380" s="16"/>
+      <c r="V380" s="16"/>
+      <c r="W380" s="16"/>
+      <c r="X380" s="16"/>
+      <c r="Y380" s="16"/>
+    </row>
+    <row r="381" spans="11:25">
+      <c r="K381" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J292" s="8" t="s">
+      <c r="L381" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K292" s="8">
-        <v>1</v>
-      </c>
-      <c r="L292" s="8" t="s">
+      <c r="M381" s="8">
+        <v>1</v>
+      </c>
+      <c r="R381" s="16"/>
+      <c r="S381" s="16"/>
+      <c r="T381" s="16"/>
+      <c r="U381" s="16"/>
+      <c r="V381" s="16"/>
+      <c r="W381" s="16"/>
+      <c r="X381" s="16"/>
+      <c r="Y381" s="16"/>
+    </row>
+    <row r="382" spans="11:25">
+      <c r="K382" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L382" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M382" s="8">
+        <v>1</v>
+      </c>
+      <c r="R382" s="16"/>
+      <c r="S382" s="16"/>
+      <c r="T382" s="16"/>
+      <c r="U382" s="16"/>
+      <c r="V382" s="16"/>
+      <c r="W382" s="16"/>
+      <c r="X382" s="16"/>
+      <c r="Y382" s="16"/>
+    </row>
+    <row r="383" spans="11:25">
+      <c r="K383" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="L383" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M383" s="29">
+        <v>2</v>
+      </c>
+      <c r="R383" s="16"/>
+      <c r="S383" s="16"/>
+      <c r="T383" s="16"/>
+      <c r="U383" s="16"/>
+      <c r="V383" s="16"/>
+      <c r="W383" s="13"/>
+      <c r="X383" s="16"/>
+      <c r="Y383" s="13"/>
+    </row>
+    <row r="384" spans="18:25">
+      <c r="R384" s="16"/>
+      <c r="S384" s="16"/>
+      <c r="T384" s="16"/>
+      <c r="U384" s="16"/>
+      <c r="V384" s="16"/>
+      <c r="W384" s="16"/>
+      <c r="X384" s="16"/>
+      <c r="Y384" s="16"/>
+    </row>
+    <row r="385" spans="18:25">
+      <c r="R385" s="16"/>
+      <c r="S385" s="16"/>
+      <c r="T385" s="16"/>
+      <c r="U385" s="16"/>
+      <c r="V385" s="16"/>
+      <c r="W385" s="16"/>
+      <c r="X385" s="16"/>
+      <c r="Y385" s="16"/>
+    </row>
+    <row r="386" spans="2:25">
+      <c r="B386" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R386" s="16"/>
+      <c r="S386" s="16"/>
+      <c r="T386" s="16"/>
+      <c r="U386" s="16"/>
+      <c r="V386" s="16"/>
+      <c r="W386" s="16"/>
+      <c r="X386" s="16"/>
+      <c r="Y386" s="16"/>
+    </row>
+    <row r="387" spans="18:25">
+      <c r="R387" s="16"/>
+      <c r="S387" s="16"/>
+      <c r="T387" s="16"/>
+      <c r="U387" s="16"/>
+      <c r="V387" s="16"/>
+      <c r="W387" s="16"/>
+      <c r="X387" s="16"/>
+      <c r="Y387" s="16"/>
+    </row>
+    <row r="388" spans="2:8">
+      <c r="B388" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H388" s="1"/>
+    </row>
+    <row r="389" spans="2:8">
+      <c r="B389" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H389" s="1"/>
+    </row>
+    <row r="390" spans="2:8">
+      <c r="B390" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="H390" s="1"/>
+    </row>
+    <row r="391" spans="8:8">
+      <c r="H391" s="1"/>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394">
+        <v>15</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="396" spans="4:6">
+      <c r="D396" t="s">
+        <v>199</v>
+      </c>
+      <c r="F396" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="397" spans="4:6">
+      <c r="D397" t="s">
+        <v>201</v>
+      </c>
+      <c r="F397" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="399" spans="8:8">
+      <c r="H399" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="400" spans="9:9">
+      <c r="I400" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403">
+        <v>16</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="407" spans="8:8">
+      <c r="H407" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412">
+        <v>17</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11">
+      <c r="A429">
+        <v>18</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K429" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="432" spans="6:11">
+      <c r="F432" t="s">
+        <v>210</v>
+      </c>
+      <c r="K432" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436">
+        <v>19</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="440" spans="8:14">
+      <c r="H440" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I440" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J440" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K440" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L440" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="M440" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="N440" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="441" spans="8:14">
+      <c r="H441" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I441" s="8">
+        <v>15000</v>
+      </c>
+      <c r="J441" s="8">
+        <v>1</v>
+      </c>
+      <c r="K441" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L441" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="M292" s="8" t="s">
+      <c r="M441" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="O292" s="8" t="s">
+      <c r="N441" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="442" spans="8:14">
+      <c r="H442" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P292" s="8" t="s">
+      <c r="I442" s="8">
+        <v>30000</v>
+      </c>
+      <c r="J442" s="8">
+        <v>1</v>
+      </c>
+      <c r="K442" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="Q292" s="8">
-        <v>2</v>
-      </c>
-      <c r="R292" s="8" t="s">
+      <c r="L442" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M442" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N442" s="35">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="443" spans="8:14">
+      <c r="H443" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I443" s="8">
+        <v>60000</v>
+      </c>
+      <c r="J443" s="8">
+        <v>1</v>
+      </c>
+      <c r="K443" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L443" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M443" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N443" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="444" spans="8:14">
+      <c r="H444" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I444" s="8">
+        <v>17000</v>
+      </c>
+      <c r="J444" s="8">
+        <v>1</v>
+      </c>
+      <c r="K444" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="L444" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M444" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N444" s="35">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="445" spans="8:14">
+      <c r="H445" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I445" s="8">
+        <v>23000</v>
+      </c>
+      <c r="J445" s="8">
+        <v>1</v>
+      </c>
+      <c r="K445" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L445" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M445" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N445" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="446" spans="8:14">
+      <c r="H446" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I446" s="8">
+        <v>25000</v>
+      </c>
+      <c r="J446" s="8">
+        <v>2</v>
+      </c>
+      <c r="K446" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L446" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="S292" s="8" t="s">
+      <c r="M446" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="T292" s="16"/>
-      <c r="U292" s="16"/>
-    </row>
-    <row r="293" spans="9:19">
-      <c r="I293" s="8" t="s">
+      <c r="N446" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="447" spans="8:14">
+      <c r="H447" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I447" s="8">
+        <v>32000</v>
+      </c>
+      <c r="J447" s="8">
+        <v>2</v>
+      </c>
+      <c r="K447" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L447" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M447" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N447" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="448" spans="8:14">
+      <c r="H448" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I448" s="8">
+        <v>16000</v>
+      </c>
+      <c r="J448" s="8">
+        <v>2</v>
+      </c>
+      <c r="K448" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="L448" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M448" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N448" s="35">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="449" spans="8:14">
+      <c r="H449" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I449" s="8">
+        <v>20000</v>
+      </c>
+      <c r="J449" s="8">
+        <v>2</v>
+      </c>
+      <c r="K449" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="L449" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M449" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N449" s="35">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="450" spans="8:14">
+      <c r="H450" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I450" s="8">
+        <v>40000</v>
+      </c>
+      <c r="J450" s="8">
+        <v>2</v>
+      </c>
+      <c r="K450" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L450" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M450" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N450" s="35">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="451" spans="8:14">
+      <c r="H451" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="J293" s="8" t="s">
+      <c r="I451" s="8">
+        <v>17000</v>
+      </c>
+      <c r="J451" s="8">
+        <v>1</v>
+      </c>
+      <c r="K451" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K293" s="8">
-        <v>1</v>
-      </c>
-      <c r="L293" s="8" t="s">
+      <c r="L451" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="M293" s="8" t="s">
+      <c r="M451" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="O293" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="P293" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q293" s="8">
-        <v>2</v>
-      </c>
-      <c r="R293" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="S293" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="294" spans="9:19">
-      <c r="I294" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="J294" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K294" s="28">
-        <v>2</v>
-      </c>
-      <c r="L294" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M294" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="O294" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="P294" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q294" s="8">
-        <v>1</v>
-      </c>
-      <c r="R294" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="S294" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="295" spans="9:13">
-      <c r="I295" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J295" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="K295" s="8">
-        <v>2</v>
-      </c>
-      <c r="L295" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M295" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="296" spans="9:19">
-      <c r="I296" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J296" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="K296" s="8">
-        <v>1</v>
-      </c>
-      <c r="L296" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M296" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q296" s="16"/>
-      <c r="R296" s="16"/>
-      <c r="S296" s="16"/>
-    </row>
-    <row r="297" spans="9:19">
-      <c r="I297" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="J297" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="K297" s="8">
-        <v>2</v>
-      </c>
-      <c r="L297" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M297" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q297" s="16"/>
-      <c r="R297" s="16"/>
-      <c r="S297" s="16"/>
-    </row>
-    <row r="298" spans="9:13">
-      <c r="I298" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J298" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K298" s="8">
-        <v>1</v>
-      </c>
-      <c r="L298" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M298" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="299" spans="9:13">
-      <c r="I299" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J299" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K299" s="8">
-        <v>1</v>
-      </c>
-      <c r="L299" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M299" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="300" spans="9:13">
-      <c r="I300" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="J300" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K300" s="28">
-        <v>2</v>
-      </c>
-      <c r="L300" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M300" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="304" spans="3:15">
-      <c r="C304" t="s">
-        <v>91</v>
-      </c>
-      <c r="D304" t="s">
-        <v>180</v>
-      </c>
-      <c r="H304" t="s">
-        <v>19</v>
-      </c>
-      <c r="I304" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="J304" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="K304" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="L304" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="M304" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="O304" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="305" spans="9:13">
-      <c r="I305" s="8">
-        <v>1</v>
-      </c>
-      <c r="J305" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K305" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L305" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M305" s="29">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="306" spans="9:13">
-      <c r="I306" s="8">
-        <v>2</v>
-      </c>
-      <c r="J306" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K306" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L306" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M306" s="29">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="307" spans="9:13">
-      <c r="I307" s="8">
-        <v>1</v>
-      </c>
-      <c r="J307" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K307" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L307" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M307" s="29">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="308" spans="9:13">
-      <c r="I308" s="8">
-        <v>2</v>
-      </c>
-      <c r="J308" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K308" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L308" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M308" s="29">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="309" spans="9:13">
-      <c r="I309" s="8">
-        <v>3</v>
-      </c>
-      <c r="J309" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K309" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L309" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M309" s="29">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="310" spans="9:13">
-      <c r="I310" s="8">
-        <v>4</v>
-      </c>
-      <c r="J310" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K310" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L310" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M310" s="29">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="311" spans="9:13">
-      <c r="I311" s="8">
-        <v>1</v>
-      </c>
-      <c r="J311" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K311" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L311" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="M311" s="29">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="312" spans="9:13">
-      <c r="I312" s="8">
-        <v>2</v>
-      </c>
-      <c r="J312" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K312" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L312" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M312" s="29">
-        <v>45993</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316">
-        <v>13</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="317" spans="2:2">
-      <c r="B317" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="319" spans="2:2">
-      <c r="B319" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="321" spans="5:10">
-      <c r="E321" t="s">
-        <v>76</v>
-      </c>
-      <c r="F321" t="s">
-        <v>186</v>
-      </c>
-      <c r="I321" t="s">
-        <v>19</v>
-      </c>
-      <c r="J321" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="322" spans="10:14">
-      <c r="J322" t="s">
-        <v>18</v>
-      </c>
-      <c r="K322" t="s">
-        <v>188</v>
-      </c>
-      <c r="L322" t="s">
-        <v>189</v>
-      </c>
-      <c r="M322" t="s">
-        <v>190</v>
-      </c>
-      <c r="N322" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="323" spans="10:14">
-      <c r="J323">
-        <v>0</v>
-      </c>
-      <c r="K323">
-        <v>0</v>
-      </c>
-      <c r="L323">
-        <v>1</v>
-      </c>
-      <c r="M323">
-        <v>0</v>
-      </c>
-      <c r="N323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="10:14">
-      <c r="J324">
-        <v>0</v>
-      </c>
-      <c r="K324">
-        <v>1</v>
-      </c>
-      <c r="L324">
-        <v>1</v>
-      </c>
-      <c r="M324">
-        <v>0</v>
-      </c>
-      <c r="N324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="10:14">
-      <c r="J325">
-        <v>1</v>
-      </c>
-      <c r="K325">
-        <v>0</v>
-      </c>
-      <c r="L325">
-        <v>1</v>
-      </c>
-      <c r="M325">
-        <v>0</v>
-      </c>
-      <c r="N325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="10:14">
-      <c r="J326">
-        <v>1</v>
-      </c>
-      <c r="K326">
-        <v>1</v>
-      </c>
-      <c r="L326">
-        <v>0</v>
-      </c>
-      <c r="M326">
-        <v>1</v>
-      </c>
-      <c r="N326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="5:10">
-      <c r="E332" t="s">
-        <v>81</v>
-      </c>
-      <c r="F332" t="s">
-        <v>191</v>
-      </c>
-      <c r="I332" t="s">
-        <v>19</v>
-      </c>
-      <c r="J332" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="333" spans="11:15">
-      <c r="K333" t="s">
-        <v>18</v>
-      </c>
-      <c r="L333" t="s">
-        <v>188</v>
-      </c>
-      <c r="M333" t="s">
-        <v>192</v>
-      </c>
-      <c r="N333" t="s">
-        <v>189</v>
-      </c>
-      <c r="O333" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="334" spans="11:15">
-      <c r="K334">
-        <v>0</v>
-      </c>
-      <c r="L334">
-        <v>0</v>
-      </c>
-      <c r="M334">
-        <v>1</v>
-      </c>
-      <c r="N334">
-        <v>1</v>
-      </c>
-      <c r="O334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="11:15">
-      <c r="K335">
-        <v>0</v>
-      </c>
-      <c r="L335">
-        <v>1</v>
-      </c>
-      <c r="M335">
-        <v>0</v>
-      </c>
-      <c r="N335">
-        <v>1</v>
-      </c>
-      <c r="O335">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="11:15">
-      <c r="K336">
-        <v>1</v>
-      </c>
-      <c r="L336">
-        <v>0</v>
-      </c>
-      <c r="M336">
-        <v>0</v>
-      </c>
-      <c r="N336">
-        <v>1</v>
-      </c>
-      <c r="O336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="11:15">
-      <c r="K337">
-        <v>1</v>
-      </c>
-      <c r="L337">
-        <v>1</v>
-      </c>
-      <c r="M337">
-        <v>0</v>
-      </c>
-      <c r="N337">
-        <v>0</v>
-      </c>
-      <c r="O337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344">
-        <v>14</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="345" spans="2:2">
-      <c r="B345" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="346" spans="2:2">
-      <c r="B346" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="347" spans="2:25">
-      <c r="B347" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K347" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="L347" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="M347" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="R347" s="27"/>
-      <c r="S347" s="27"/>
-      <c r="T347" s="27"/>
-      <c r="U347" s="16"/>
-      <c r="V347" s="16"/>
-      <c r="W347" s="27"/>
-      <c r="X347" s="27"/>
-      <c r="Y347" s="27"/>
-    </row>
-    <row r="348" spans="11:25">
-      <c r="K348" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="L348" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M348" s="8">
-        <v>2</v>
-      </c>
-      <c r="R348" s="16"/>
-      <c r="S348" s="16"/>
-      <c r="T348" s="16"/>
-      <c r="U348" s="16"/>
-      <c r="V348" s="16"/>
-      <c r="W348" s="16"/>
-      <c r="X348" s="16"/>
-      <c r="Y348" s="16"/>
-    </row>
-    <row r="349" spans="11:25">
-      <c r="K349" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L349" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M349" s="8">
-        <v>1</v>
-      </c>
-      <c r="R349" s="16"/>
-      <c r="S349" s="16"/>
-      <c r="T349" s="16"/>
-      <c r="U349" s="16"/>
-      <c r="V349" s="16"/>
-      <c r="W349" s="16"/>
-      <c r="X349" s="16"/>
-      <c r="Y349" s="16"/>
-    </row>
-    <row r="350" spans="11:25">
-      <c r="K350" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L350" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M350" s="8">
-        <v>2</v>
-      </c>
-      <c r="R350" s="16"/>
-      <c r="S350" s="16"/>
-      <c r="T350" s="16"/>
-      <c r="U350" s="16"/>
-      <c r="V350" s="16"/>
-      <c r="W350" s="16"/>
-      <c r="X350" s="16"/>
-      <c r="Y350" s="16"/>
-    </row>
-    <row r="351" spans="11:25">
-      <c r="K351" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L351" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M351" s="8">
-        <v>1</v>
-      </c>
-      <c r="R351" s="16"/>
-      <c r="S351" s="16"/>
-      <c r="T351" s="16"/>
-      <c r="U351" s="16"/>
-      <c r="V351" s="16"/>
-      <c r="W351" s="16"/>
-      <c r="X351" s="16"/>
-      <c r="Y351" s="16"/>
-    </row>
-    <row r="352" spans="11:25">
-      <c r="K352" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L352" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M352" s="8">
-        <v>1</v>
-      </c>
-      <c r="R352" s="16"/>
-      <c r="S352" s="16"/>
-      <c r="T352" s="16"/>
-      <c r="U352" s="16"/>
-      <c r="V352" s="16"/>
-      <c r="W352" s="16"/>
-      <c r="X352" s="16"/>
-      <c r="Y352" s="16"/>
-    </row>
-    <row r="353" spans="11:25">
-      <c r="K353" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="L353" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M353" s="28">
-        <v>2</v>
-      </c>
-      <c r="R353" s="16"/>
-      <c r="S353" s="16"/>
-      <c r="T353" s="16"/>
-      <c r="U353" s="16"/>
-      <c r="V353" s="16"/>
-      <c r="W353" s="13"/>
-      <c r="X353" s="16"/>
-      <c r="Y353" s="13"/>
-    </row>
-    <row r="354" spans="18:25">
-      <c r="R354" s="16"/>
-      <c r="S354" s="16"/>
-      <c r="T354" s="16"/>
-      <c r="U354" s="16"/>
-      <c r="V354" s="16"/>
-      <c r="W354" s="16"/>
-      <c r="X354" s="16"/>
-      <c r="Y354" s="16"/>
-    </row>
-    <row r="355" spans="18:25">
-      <c r="R355" s="16"/>
-      <c r="S355" s="16"/>
-      <c r="T355" s="16"/>
-      <c r="U355" s="16"/>
-      <c r="V355" s="16"/>
-      <c r="W355" s="16"/>
-      <c r="X355" s="16"/>
-      <c r="Y355" s="16"/>
-    </row>
-    <row r="356" spans="2:25">
-      <c r="B356" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="R356" s="16"/>
-      <c r="S356" s="16"/>
-      <c r="T356" s="16"/>
-      <c r="U356" s="16"/>
-      <c r="V356" s="16"/>
-      <c r="W356" s="16"/>
-      <c r="X356" s="16"/>
-      <c r="Y356" s="16"/>
-    </row>
-    <row r="357" spans="18:25">
-      <c r="R357" s="16"/>
-      <c r="S357" s="16"/>
-      <c r="T357" s="16"/>
-      <c r="U357" s="16"/>
-      <c r="V357" s="16"/>
-      <c r="W357" s="16"/>
-      <c r="X357" s="16"/>
-      <c r="Y357" s="16"/>
-    </row>
-    <row r="358" spans="2:8">
-      <c r="B358" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H358" s="1"/>
-    </row>
-    <row r="359" spans="2:8">
-      <c r="B359" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H359" s="1"/>
-    </row>
-    <row r="360" spans="2:8">
-      <c r="B360" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="H360" s="1"/>
-    </row>
-    <row r="361" spans="8:8">
-      <c r="H361" s="1"/>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364">
-        <v>15</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="366" spans="4:6">
-      <c r="D366" t="s">
-        <v>201</v>
-      </c>
-      <c r="F366" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="367" spans="4:6">
-      <c r="D367" t="s">
-        <v>203</v>
-      </c>
-      <c r="F367" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="369" spans="8:8">
-      <c r="H369" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="370" spans="9:9">
-      <c r="I370" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373">
-        <v>16</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="377" spans="8:8">
-      <c r="H377" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382">
-        <v>17</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11">
-      <c r="A399">
-        <v>18</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K399" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="402" spans="6:11">
-      <c r="F402" t="s">
-        <v>212</v>
-      </c>
-      <c r="K402" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406">
-        <v>19</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="410" spans="8:14">
-      <c r="H410" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="I410" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J410" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="K410" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="L410" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="M410" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="N410" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="411" spans="8:14">
-      <c r="H411" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I411" s="8">
-        <v>15000</v>
-      </c>
-      <c r="J411" s="8">
-        <v>1</v>
-      </c>
-      <c r="K411" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L411" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M411" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N411" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="412" spans="8:14">
-      <c r="H412" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I412" s="8">
-        <v>30000</v>
-      </c>
-      <c r="J412" s="8">
-        <v>1</v>
-      </c>
-      <c r="K412" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L412" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M412" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N412" s="29">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="413" spans="8:14">
-      <c r="H413" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="I413" s="8">
-        <v>60000</v>
-      </c>
-      <c r="J413" s="8">
-        <v>1</v>
-      </c>
-      <c r="K413" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L413" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M413" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N413" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="414" spans="8:14">
-      <c r="H414" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I414" s="8">
-        <v>17000</v>
-      </c>
-      <c r="J414" s="8">
-        <v>1</v>
-      </c>
-      <c r="K414" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L414" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M414" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N414" s="29">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="415" spans="8:14">
-      <c r="H415" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I415" s="8">
-        <v>23000</v>
-      </c>
-      <c r="J415" s="8">
-        <v>1</v>
-      </c>
-      <c r="K415" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L415" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M415" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N415" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="416" spans="8:14">
-      <c r="H416" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="I416" s="8">
-        <v>25000</v>
-      </c>
-      <c r="J416" s="8">
-        <v>2</v>
-      </c>
-      <c r="K416" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L416" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M416" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N416" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="417" spans="8:14">
-      <c r="H417" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I417" s="8">
-        <v>32000</v>
-      </c>
-      <c r="J417" s="8">
-        <v>2</v>
-      </c>
-      <c r="K417" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L417" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M417" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N417" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="418" spans="8:14">
-      <c r="H418" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I418" s="8">
-        <v>16000</v>
-      </c>
-      <c r="J418" s="8">
-        <v>2</v>
-      </c>
-      <c r="K418" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L418" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M418" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N418" s="29">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="419" spans="8:14">
-      <c r="H419" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I419" s="8">
-        <v>20000</v>
-      </c>
-      <c r="J419" s="8">
-        <v>2</v>
-      </c>
-      <c r="K419" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L419" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M419" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N419" s="29">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="420" spans="8:14">
-      <c r="H420" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I420" s="8">
-        <v>40000</v>
-      </c>
-      <c r="J420" s="8">
-        <v>2</v>
-      </c>
-      <c r="K420" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L420" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M420" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N420" s="29">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="421" spans="8:14">
-      <c r="H421" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I421" s="8">
-        <v>17000</v>
-      </c>
-      <c r="J421" s="8">
-        <v>1</v>
-      </c>
-      <c r="K421" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L421" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M421" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N421" s="29">
+      <c r="N451" s="35">
         <v>45047</v>
       </c>
     </row>

--- a/Problems 1.xlsx
+++ b/Problems 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="213">
   <si>
     <t>Пусть T1 - множество чисел в римских цифрах, а T2 - множество чисел в арабских цифрах. A - отношение  над множествами T1 и T2.</t>
   </si>
@@ -1397,7 +1397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1433,14 +1433,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2115,13 +2113,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>413</xdr:row>
+      <xdr:row>385</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>234315</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2139,7 +2137,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1560830" y="75630405"/>
+          <a:off x="1560830" y="70509765"/>
           <a:ext cx="2315845" cy="1022350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2153,13 +2151,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>422</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>372110</xdr:colOff>
-      <xdr:row>424</xdr:row>
+      <xdr:row>396</xdr:row>
       <xdr:rowOff>54610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2177,7 +2175,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746885" y="77276325"/>
+          <a:off x="1746885" y="72155685"/>
           <a:ext cx="2267585" cy="410845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2486,10 +2484,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AJ451"/>
+  <dimension ref="A2:AJ423"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="I285" sqref="I285"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H287" workbookViewId="0">
+      <selection activeCell="N295" sqref="N295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5170,7 +5168,7 @@
       <c r="R257" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="S257" s="35">
+      <c r="S257" s="32">
         <v>45627</v>
       </c>
     </row>
@@ -5187,7 +5185,7 @@
       <c r="R258" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="S258" s="35">
+      <c r="S258" s="32">
         <v>45047</v>
       </c>
     </row>
@@ -5560,6 +5558,9 @@
       <c r="D288" t="s">
         <v>179</v>
       </c>
+      <c r="H288" t="s">
+        <v>19</v>
+      </c>
       <c r="I288" s="14" t="s">
         <v>151</v>
       </c>
@@ -5576,1887 +5577,1190 @@
         <v>156</v>
       </c>
       <c r="N288" s="30"/>
-      <c r="O288" s="30"/>
+      <c r="O288" s="31"/>
       <c r="P288" s="31"/>
       <c r="Q288" s="31"/>
-      <c r="R288" s="31"/>
+      <c r="R288" s="34"/>
       <c r="S288" s="30"/>
       <c r="T288" s="30"/>
-      <c r="U288" s="31"/>
-      <c r="V288" s="31"/>
-      <c r="W288" s="31"/>
+      <c r="U288" s="34"/>
+      <c r="V288" s="34"/>
+      <c r="W288" s="34"/>
       <c r="X288" s="30"/>
       <c r="Y288" s="30"/>
-      <c r="Z288" s="31"/>
-      <c r="AA288" s="31"/>
-      <c r="AB288" s="31"/>
+      <c r="Z288" s="34"/>
+      <c r="AA288" s="34"/>
+      <c r="AB288" s="34"/>
       <c r="AC288" s="27"/>
       <c r="AD288" s="27"/>
       <c r="AE288" s="27"/>
-      <c r="AF288" s="34"/>
-      <c r="AG288" s="34"/>
-      <c r="AH288" s="37"/>
-      <c r="AI288" s="37"/>
-      <c r="AJ288" s="37"/>
+      <c r="AF288" s="36"/>
+      <c r="AG288" s="36"/>
+      <c r="AH288" s="31"/>
+      <c r="AI288" s="31"/>
+      <c r="AJ288" s="31"/>
     </row>
     <row r="289" spans="9:36">
-      <c r="I289" s="32" t="s">
+      <c r="I289" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J289" s="32" t="s">
+      <c r="J289" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="K289" s="32">
+      <c r="K289" s="8">
         <v>2</v>
       </c>
-      <c r="L289" s="32" t="s">
+      <c r="L289" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="M289" s="32" t="s">
+      <c r="M289" s="8" t="s">
         <v>166</v>
       </c>
       <c r="N289" s="30"/>
-      <c r="O289" s="30"/>
-      <c r="P289" s="33"/>
-      <c r="Q289" s="33"/>
-      <c r="R289" s="33"/>
+      <c r="O289" s="16"/>
+      <c r="P289" s="16"/>
+      <c r="Q289" s="16"/>
+      <c r="R289" s="35"/>
       <c r="S289" s="30"/>
       <c r="T289" s="30"/>
-      <c r="U289" s="33"/>
-      <c r="V289" s="33"/>
-      <c r="W289" s="33"/>
+      <c r="U289" s="35"/>
+      <c r="V289" s="35"/>
+      <c r="W289" s="35"/>
       <c r="X289" s="30"/>
       <c r="Y289" s="30"/>
-      <c r="Z289" s="33"/>
-      <c r="AA289" s="33"/>
-      <c r="AB289" s="33"/>
+      <c r="Z289" s="35"/>
+      <c r="AA289" s="35"/>
+      <c r="AB289" s="35"/>
       <c r="AC289" s="16"/>
       <c r="AD289" s="16"/>
       <c r="AE289" s="16"/>
-      <c r="AF289" s="34"/>
-      <c r="AG289" s="34"/>
+      <c r="AF289" s="36"/>
+      <c r="AG289" s="36"/>
       <c r="AH289" s="16"/>
       <c r="AI289" s="16"/>
       <c r="AJ289" s="16"/>
     </row>
     <row r="290" spans="9:36">
-      <c r="I290" s="32" t="s">
+      <c r="I290" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="J290" s="32" t="s">
+      <c r="J290" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="K290" s="32">
-        <v>1</v>
-      </c>
-      <c r="L290" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="M290" s="32" t="s">
-        <v>161</v>
+      <c r="K290" s="8">
+        <v>1</v>
+      </c>
+      <c r="L290" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M290" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="N290" s="30"/>
-      <c r="O290" s="30"/>
-      <c r="P290" s="33"/>
-      <c r="Q290" s="33"/>
-      <c r="R290" s="33"/>
+      <c r="O290" s="16"/>
+      <c r="P290" s="16"/>
+      <c r="Q290" s="16"/>
+      <c r="R290" s="35"/>
       <c r="S290" s="30"/>
       <c r="T290" s="30"/>
-      <c r="U290" s="33"/>
-      <c r="V290" s="33"/>
-      <c r="W290" s="33"/>
+      <c r="U290" s="35"/>
+      <c r="V290" s="35"/>
+      <c r="W290" s="35"/>
       <c r="X290" s="30"/>
       <c r="Y290" s="30"/>
-      <c r="Z290" s="33"/>
-      <c r="AA290" s="33"/>
-      <c r="AB290" s="33"/>
+      <c r="Z290" s="35"/>
+      <c r="AA290" s="35"/>
+      <c r="AB290" s="35"/>
       <c r="AC290" s="16"/>
       <c r="AD290" s="16"/>
       <c r="AE290" s="16"/>
-      <c r="AF290" s="34"/>
-      <c r="AG290" s="34"/>
+      <c r="AF290" s="36"/>
+      <c r="AG290" s="36"/>
       <c r="AH290" s="16"/>
       <c r="AI290" s="16"/>
       <c r="AJ290" s="16"/>
     </row>
-    <row r="291" spans="9:36">
-      <c r="I291" s="32" t="s">
+    <row r="291" spans="9:13">
+      <c r="I291" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="J291" s="32" t="s">
+      <c r="J291" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="K291" s="32">
+      <c r="K291" s="8">
         <v>2</v>
       </c>
-      <c r="L291" s="32" t="s">
+      <c r="L291" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="M291" s="32" t="s">
+      <c r="M291" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="N291" s="30"/>
-      <c r="O291" s="30"/>
-      <c r="P291" s="33"/>
-      <c r="Q291" s="33"/>
-      <c r="R291" s="33"/>
-      <c r="S291" s="30"/>
-      <c r="T291" s="30"/>
-      <c r="U291" s="33"/>
-      <c r="V291" s="33"/>
-      <c r="W291" s="33"/>
-      <c r="X291" s="30"/>
-      <c r="Y291" s="30"/>
-      <c r="Z291" s="30"/>
-      <c r="AA291" s="30"/>
-      <c r="AB291" s="30"/>
-      <c r="AC291" s="16"/>
-      <c r="AD291" s="16"/>
-      <c r="AE291" s="16"/>
-      <c r="AF291" s="34"/>
-      <c r="AG291" s="34"/>
-      <c r="AH291" s="34"/>
-      <c r="AI291" s="34"/>
-      <c r="AJ291" s="34"/>
-    </row>
-    <row r="292" spans="9:36">
-      <c r="I292" s="32" t="s">
+    </row>
+    <row r="292" spans="9:13">
+      <c r="I292" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J292" s="32" t="s">
+      <c r="J292" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K292" s="32">
-        <v>1</v>
-      </c>
-      <c r="L292" s="32" t="s">
+      <c r="K292" s="8">
+        <v>1</v>
+      </c>
+      <c r="L292" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M292" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="293" spans="9:13">
+      <c r="I293" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J293" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K293" s="8">
+        <v>1</v>
+      </c>
+      <c r="L293" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M293" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="294" spans="9:13">
+      <c r="I294" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="J294" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K294" s="29">
+        <v>2</v>
+      </c>
+      <c r="L294" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M294" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="295" spans="9:13">
+      <c r="I295" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J295" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K295" s="8">
+        <v>2</v>
+      </c>
+      <c r="L295" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="M292" s="32" t="s">
+      <c r="M295" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="N292" s="30"/>
-      <c r="O292" s="30"/>
-      <c r="P292" s="33"/>
-      <c r="Q292" s="33"/>
-      <c r="R292" s="33"/>
-      <c r="S292" s="30"/>
-      <c r="T292" s="30"/>
-      <c r="U292" s="33"/>
-      <c r="V292" s="33"/>
-      <c r="W292" s="33"/>
-      <c r="X292" s="30"/>
-      <c r="Y292" s="30"/>
-      <c r="Z292" s="30"/>
-      <c r="AA292" s="30"/>
-      <c r="AB292" s="30"/>
-      <c r="AC292" s="16"/>
-      <c r="AD292" s="16"/>
-      <c r="AE292" s="16"/>
-      <c r="AF292" s="34"/>
-      <c r="AG292" s="34"/>
-      <c r="AH292" s="34"/>
-      <c r="AI292" s="34"/>
-      <c r="AJ292" s="34"/>
-    </row>
-    <row r="293" spans="9:36">
-      <c r="I293" s="32" t="s">
+    </row>
+    <row r="296" spans="9:13">
+      <c r="I296" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="J293" s="32" t="s">
+      <c r="J296" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K296" s="8">
+        <v>1</v>
+      </c>
+      <c r="L296" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M296" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="297" spans="9:13">
+      <c r="I297" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J297" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K297" s="8">
+        <v>2</v>
+      </c>
+      <c r="L297" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M297" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="298" spans="9:13">
+      <c r="I298" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J298" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K293" s="32">
-        <v>1</v>
-      </c>
-      <c r="L293" s="32" t="s">
+      <c r="K298" s="8">
+        <v>1</v>
+      </c>
+      <c r="L298" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="M293" s="32" t="s">
+      <c r="M298" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="N293" s="30"/>
-      <c r="O293" s="30"/>
-      <c r="P293" s="33"/>
-      <c r="Q293" s="33"/>
-      <c r="R293" s="33"/>
-      <c r="S293" s="30"/>
-      <c r="T293" s="30"/>
-      <c r="U293" s="33"/>
-      <c r="V293" s="33"/>
-      <c r="W293" s="33"/>
-      <c r="X293" s="30"/>
-      <c r="Y293" s="30"/>
-      <c r="Z293" s="31"/>
-      <c r="AA293" s="31"/>
-      <c r="AB293" s="30"/>
-      <c r="AC293" s="16"/>
-      <c r="AD293" s="16"/>
-      <c r="AE293" s="16"/>
-      <c r="AF293" s="34"/>
-      <c r="AG293" s="34"/>
-      <c r="AH293" s="27"/>
-      <c r="AI293" s="27"/>
-      <c r="AJ293" s="34"/>
-    </row>
-    <row r="294" spans="9:36">
-      <c r="I294" s="32" t="s">
+    </row>
+    <row r="299" spans="9:13">
+      <c r="I299" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J299" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K299" s="8">
+        <v>1</v>
+      </c>
+      <c r="L299" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M299" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="300" spans="9:13">
+      <c r="I300" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="J294" s="32" t="s">
+      <c r="J300" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K294" s="32">
+      <c r="K300" s="29">
         <v>2</v>
       </c>
-      <c r="L294" s="32" t="s">
+      <c r="L300" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M300" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="306" spans="3:13">
+      <c r="C306" t="s">
+        <v>91</v>
+      </c>
+      <c r="D306" t="s">
+        <v>180</v>
+      </c>
+      <c r="H306" t="s">
+        <v>19</v>
+      </c>
+      <c r="I306" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="J306" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="K306" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="L306" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M306" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="307" spans="9:13">
+      <c r="I307" s="8">
+        <v>1</v>
+      </c>
+      <c r="J307" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K307" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L307" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M307" s="32">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="308" spans="9:13">
+      <c r="I308" s="8">
+        <v>2</v>
+      </c>
+      <c r="J308" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="M294" s="32" t="s">
+      <c r="K308" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="N294" s="30"/>
-      <c r="O294" s="30"/>
-      <c r="P294" s="33"/>
-      <c r="Q294" s="33"/>
-      <c r="R294" s="33"/>
-      <c r="S294" s="30"/>
-      <c r="T294" s="30"/>
-      <c r="U294" s="33"/>
-      <c r="V294" s="33"/>
-      <c r="W294" s="33"/>
-      <c r="X294" s="30"/>
-      <c r="Y294" s="30"/>
-      <c r="Z294" s="33"/>
-      <c r="AA294" s="36"/>
-      <c r="AB294" s="30"/>
-      <c r="AC294" s="13"/>
-      <c r="AD294" s="16"/>
-      <c r="AE294" s="13"/>
-      <c r="AF294" s="34"/>
-      <c r="AG294" s="34"/>
-      <c r="AH294" s="16"/>
-      <c r="AI294" s="38"/>
-      <c r="AJ294" s="34"/>
-    </row>
-    <row r="295" spans="9:36">
-      <c r="I295" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="J295" s="32" t="s">
+      <c r="L308" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M308" s="32">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="309" spans="9:13">
+      <c r="I309" s="8">
+        <v>1</v>
+      </c>
+      <c r="J309" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K309" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L309" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M309" s="32">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="310" spans="9:13">
+      <c r="I310" s="8">
+        <v>2</v>
+      </c>
+      <c r="J310" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K310" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L310" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="K295" s="32">
-        <v>2</v>
-      </c>
-      <c r="L295" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="M295" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="N295" s="30"/>
-      <c r="O295" s="30"/>
-      <c r="P295" s="33"/>
-      <c r="Q295" s="33"/>
-      <c r="R295" s="33"/>
-      <c r="S295" s="30"/>
-      <c r="T295" s="30"/>
-      <c r="U295" s="30"/>
-      <c r="V295" s="30"/>
-      <c r="W295" s="30"/>
-      <c r="X295" s="30"/>
-      <c r="Y295" s="30"/>
-      <c r="Z295" s="33"/>
-      <c r="AA295" s="36"/>
-      <c r="AB295" s="30"/>
-      <c r="AC295" s="34"/>
-      <c r="AD295" s="34"/>
-      <c r="AE295" s="34"/>
-      <c r="AF295" s="34"/>
-      <c r="AG295" s="34"/>
-      <c r="AH295" s="16"/>
-      <c r="AI295" s="38"/>
-      <c r="AJ295" s="34"/>
-    </row>
-    <row r="296" spans="9:36">
-      <c r="I296" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="J296" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="K296" s="32">
-        <v>1</v>
-      </c>
-      <c r="L296" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M296" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="N296" s="30"/>
-      <c r="O296" s="30"/>
-      <c r="P296" s="33"/>
-      <c r="Q296" s="33"/>
-      <c r="R296" s="33"/>
-      <c r="S296" s="30"/>
-      <c r="T296" s="30"/>
-      <c r="U296" s="30"/>
-      <c r="V296" s="30"/>
-      <c r="W296" s="30"/>
-      <c r="X296" s="30"/>
-      <c r="Y296" s="30"/>
-      <c r="Z296" s="30"/>
-      <c r="AA296" s="30"/>
-      <c r="AB296" s="30"/>
-      <c r="AC296" s="34"/>
-      <c r="AD296" s="34"/>
-      <c r="AE296" s="34"/>
-      <c r="AF296" s="34"/>
-      <c r="AG296" s="34"/>
-      <c r="AH296" s="34"/>
-      <c r="AI296" s="34"/>
-      <c r="AJ296" s="34"/>
-    </row>
-    <row r="297" spans="9:36">
-      <c r="I297" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="J297" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="K297" s="32">
-        <v>2</v>
-      </c>
-      <c r="L297" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="M297" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="N297" s="30"/>
-      <c r="O297" s="30"/>
-      <c r="P297" s="33"/>
-      <c r="Q297" s="33"/>
-      <c r="R297" s="33"/>
-      <c r="S297" s="30"/>
-      <c r="T297" s="30"/>
-      <c r="U297" s="30"/>
-      <c r="V297" s="30"/>
-      <c r="W297" s="30"/>
-      <c r="X297" s="30"/>
-      <c r="Y297" s="30"/>
-      <c r="Z297" s="30"/>
-      <c r="AA297" s="30"/>
-      <c r="AB297" s="30"/>
-      <c r="AC297" s="34"/>
-      <c r="AD297" s="34"/>
-      <c r="AE297" s="34"/>
-      <c r="AF297" s="34"/>
-      <c r="AG297" s="34"/>
-      <c r="AH297" s="34"/>
-      <c r="AI297" s="34"/>
-      <c r="AJ297" s="34"/>
-    </row>
-    <row r="298" spans="9:36">
-      <c r="I298" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="J298" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="K298" s="32">
-        <v>1</v>
-      </c>
-      <c r="L298" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M298" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="N298" s="30"/>
-      <c r="O298" s="30"/>
-      <c r="P298" s="33"/>
-      <c r="Q298" s="33"/>
-      <c r="R298" s="33"/>
-      <c r="S298" s="30"/>
-      <c r="T298" s="30"/>
-      <c r="U298" s="30"/>
-      <c r="V298" s="30"/>
-      <c r="W298" s="30"/>
-      <c r="X298" s="30"/>
-      <c r="Y298" s="30"/>
-      <c r="Z298" s="30"/>
-      <c r="AA298" s="30"/>
-      <c r="AB298" s="30"/>
-      <c r="AC298" s="34"/>
-      <c r="AD298" s="34"/>
-      <c r="AE298" s="34"/>
-      <c r="AF298" s="34"/>
-      <c r="AG298" s="34"/>
-      <c r="AH298" s="34"/>
-      <c r="AI298" s="34"/>
-      <c r="AJ298" s="34"/>
-    </row>
-    <row r="299" spans="9:36">
-      <c r="I299" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="J299" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="K299" s="32">
-        <v>1</v>
-      </c>
-      <c r="L299" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M299" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="N299" s="34"/>
-      <c r="O299" s="34"/>
-      <c r="P299" s="34"/>
-      <c r="Q299" s="34"/>
-      <c r="R299" s="34"/>
-      <c r="S299" s="34"/>
-      <c r="T299" s="34"/>
-      <c r="U299" s="34"/>
-      <c r="V299" s="34"/>
-      <c r="W299" s="34"/>
-      <c r="X299" s="34"/>
-      <c r="Y299" s="34"/>
-      <c r="Z299" s="34"/>
-      <c r="AA299" s="34"/>
-      <c r="AB299" s="34"/>
-      <c r="AC299" s="34"/>
-      <c r="AD299" s="34"/>
-      <c r="AE299" s="34"/>
-      <c r="AF299" s="34"/>
-      <c r="AG299" s="34"/>
-      <c r="AH299" s="34"/>
-      <c r="AI299" s="34"/>
-      <c r="AJ299" s="34"/>
-    </row>
-    <row r="300" spans="9:36">
-      <c r="I300" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="J300" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="K300" s="32">
-        <v>2</v>
-      </c>
-      <c r="L300" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="M300" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="N300" s="34"/>
-      <c r="O300" s="34"/>
-      <c r="P300" s="34"/>
-      <c r="Q300" s="34"/>
-      <c r="R300" s="34"/>
-      <c r="S300" s="34"/>
-      <c r="T300" s="34"/>
-      <c r="U300" s="34"/>
-      <c r="V300" s="34"/>
-      <c r="W300" s="34"/>
-      <c r="X300" s="34"/>
-      <c r="Y300" s="34"/>
-      <c r="Z300" s="34"/>
-      <c r="AA300" s="34"/>
-      <c r="AB300" s="34"/>
-      <c r="AC300" s="34"/>
-      <c r="AD300" s="34"/>
-      <c r="AE300" s="34"/>
-      <c r="AF300" s="34"/>
-      <c r="AG300" s="34"/>
-      <c r="AH300" s="34"/>
-      <c r="AI300" s="34"/>
-      <c r="AJ300" s="34"/>
-    </row>
-    <row r="301" spans="9:36">
-      <c r="I301" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="J301" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="K301" s="32">
-        <v>2</v>
-      </c>
-      <c r="L301" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M301" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="N301" s="34"/>
-      <c r="O301" s="34"/>
-      <c r="P301" s="34"/>
-      <c r="Q301" s="34"/>
-      <c r="R301" s="34"/>
-      <c r="S301" s="34"/>
-      <c r="T301" s="34"/>
-      <c r="U301" s="34"/>
-      <c r="V301" s="34"/>
-      <c r="W301" s="34"/>
-      <c r="X301" s="34"/>
-      <c r="Y301" s="34"/>
-      <c r="Z301" s="34"/>
-      <c r="AA301" s="34"/>
-      <c r="AB301" s="34"/>
-      <c r="AC301" s="34"/>
-      <c r="AD301" s="34"/>
-      <c r="AE301" s="34"/>
-      <c r="AF301" s="34"/>
-      <c r="AG301" s="34"/>
-      <c r="AH301" s="34"/>
-      <c r="AI301" s="34"/>
-      <c r="AJ301" s="34"/>
-    </row>
-    <row r="302" spans="9:36">
-      <c r="I302" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="J302" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="K302" s="32">
-        <v>1</v>
-      </c>
-      <c r="L302" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="M302" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="N302" s="34"/>
-      <c r="O302" s="33"/>
-      <c r="P302" s="33"/>
-      <c r="Q302" s="33"/>
-      <c r="R302" s="34"/>
-      <c r="S302" s="34"/>
-      <c r="T302" s="34"/>
-      <c r="U302" s="34"/>
-      <c r="V302" s="34"/>
-      <c r="W302" s="34"/>
-      <c r="X302" s="34"/>
-      <c r="Y302" s="34"/>
-      <c r="Z302" s="34"/>
-      <c r="AA302" s="34"/>
-      <c r="AB302" s="34"/>
-      <c r="AC302" s="34"/>
-      <c r="AD302" s="34"/>
-      <c r="AE302" s="34"/>
-      <c r="AF302" s="34"/>
-      <c r="AG302" s="34"/>
-      <c r="AH302" s="34"/>
-      <c r="AI302" s="34"/>
-      <c r="AJ302" s="34"/>
-    </row>
-    <row r="303" spans="9:36">
-      <c r="I303" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="J303" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="K303" s="32">
-        <v>2</v>
-      </c>
-      <c r="L303" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M303" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="N303" s="34"/>
-      <c r="O303" s="33"/>
-      <c r="P303" s="33"/>
-      <c r="Q303" s="33"/>
-      <c r="R303" s="34"/>
-      <c r="S303" s="34"/>
-      <c r="T303" s="34"/>
-      <c r="U303" s="34"/>
-      <c r="V303" s="34"/>
-      <c r="W303" s="34"/>
-      <c r="X303" s="34"/>
-      <c r="Y303" s="34"/>
-      <c r="Z303" s="34"/>
-      <c r="AA303" s="34"/>
-      <c r="AB303" s="34"/>
-      <c r="AC303" s="34"/>
-      <c r="AD303" s="34"/>
-      <c r="AE303" s="34"/>
-      <c r="AF303" s="34"/>
-      <c r="AG303" s="34"/>
-      <c r="AH303" s="34"/>
-      <c r="AI303" s="34"/>
-      <c r="AJ303" s="34"/>
-    </row>
-    <row r="304" spans="9:36">
-      <c r="I304" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="J304" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="K304" s="32">
-        <v>1</v>
-      </c>
-      <c r="L304" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="M304" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="N304" s="34"/>
-      <c r="O304" s="34"/>
-      <c r="P304" s="34"/>
-      <c r="Q304" s="34"/>
-      <c r="R304" s="34"/>
-      <c r="S304" s="34"/>
-      <c r="T304" s="34"/>
-      <c r="U304" s="34"/>
-      <c r="V304" s="34"/>
-      <c r="W304" s="34"/>
-      <c r="X304" s="34"/>
-      <c r="Y304" s="34"/>
-      <c r="Z304" s="34"/>
-      <c r="AA304" s="34"/>
-      <c r="AB304" s="34"/>
-      <c r="AC304" s="34"/>
-      <c r="AD304" s="34"/>
-      <c r="AE304" s="34"/>
-      <c r="AF304" s="34"/>
-      <c r="AG304" s="34"/>
-      <c r="AH304" s="34"/>
-      <c r="AI304" s="34"/>
-      <c r="AJ304" s="34"/>
-    </row>
-    <row r="305" spans="9:36">
-      <c r="I305" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="J305" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="K305" s="32">
-        <v>1</v>
-      </c>
-      <c r="L305" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="M305" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="N305" s="34"/>
-      <c r="O305" s="34"/>
-      <c r="P305" s="34"/>
-      <c r="Q305" s="34"/>
-      <c r="R305" s="34"/>
-      <c r="S305" s="34"/>
-      <c r="T305" s="34"/>
-      <c r="U305" s="34"/>
-      <c r="V305" s="34"/>
-      <c r="W305" s="34"/>
-      <c r="X305" s="34"/>
-      <c r="Y305" s="34"/>
-      <c r="Z305" s="34"/>
-      <c r="AA305" s="34"/>
-      <c r="AB305" s="34"/>
-      <c r="AC305" s="34"/>
-      <c r="AD305" s="34"/>
-      <c r="AE305" s="34"/>
-      <c r="AF305" s="34"/>
-      <c r="AG305" s="34"/>
-      <c r="AH305" s="34"/>
-      <c r="AI305" s="34"/>
-      <c r="AJ305" s="34"/>
-    </row>
-    <row r="306" spans="9:36">
-      <c r="I306" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="J306" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="K306" s="32">
-        <v>2</v>
-      </c>
-      <c r="L306" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M306" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="N306" s="34"/>
-      <c r="O306" s="34"/>
-      <c r="P306" s="34"/>
-      <c r="Q306" s="34"/>
-      <c r="R306" s="34"/>
-      <c r="S306" s="34"/>
-      <c r="T306" s="34"/>
-      <c r="U306" s="34"/>
-      <c r="V306" s="34"/>
-      <c r="W306" s="34"/>
-      <c r="X306" s="34"/>
-      <c r="Y306" s="34"/>
-      <c r="Z306" s="34"/>
-      <c r="AA306" s="34"/>
-      <c r="AB306" s="34"/>
-      <c r="AC306" s="34"/>
-      <c r="AD306" s="34"/>
-      <c r="AE306" s="34"/>
-      <c r="AF306" s="34"/>
-      <c r="AG306" s="34"/>
-      <c r="AH306" s="34"/>
-      <c r="AI306" s="34"/>
-      <c r="AJ306" s="34"/>
-    </row>
-    <row r="307" spans="9:36">
-      <c r="I307" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="J307" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="K307" s="32">
-        <v>2</v>
-      </c>
-      <c r="L307" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="M307" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="N307" s="34"/>
-      <c r="O307" s="34"/>
-      <c r="P307" s="34"/>
-      <c r="Q307" s="34"/>
-      <c r="R307" s="34"/>
-      <c r="S307" s="34"/>
-      <c r="T307" s="34"/>
-      <c r="U307" s="34"/>
-      <c r="V307" s="34"/>
-      <c r="W307" s="34"/>
-      <c r="X307" s="34"/>
-      <c r="Y307" s="34"/>
-      <c r="Z307" s="34"/>
-      <c r="AA307" s="34"/>
-      <c r="AB307" s="34"/>
-      <c r="AC307" s="34"/>
-      <c r="AD307" s="34"/>
-      <c r="AE307" s="34"/>
-      <c r="AF307" s="34"/>
-      <c r="AG307" s="34"/>
-      <c r="AH307" s="34"/>
-      <c r="AI307" s="34"/>
-      <c r="AJ307" s="34"/>
-    </row>
-    <row r="308" spans="9:13">
-      <c r="I308" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="J308" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="K308" s="32">
-        <v>1</v>
-      </c>
-      <c r="L308" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M308" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="309" spans="9:13">
-      <c r="I309" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="J309" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="K309" s="32">
-        <v>2</v>
-      </c>
-      <c r="L309" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="M309" s="32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="310" spans="9:13">
-      <c r="I310" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="J310" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="K310" s="32">
-        <v>1</v>
-      </c>
-      <c r="L310" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M310" s="32" t="s">
-        <v>166</v>
+      <c r="M310" s="32">
+        <v>45627</v>
       </c>
     </row>
     <row r="311" spans="9:13">
-      <c r="I311" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="J311" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="K311" s="32">
-        <v>1</v>
-      </c>
-      <c r="L311" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M311" s="32" t="s">
-        <v>166</v>
-      </c>
+      <c r="I311" s="16"/>
+      <c r="J311" s="16"/>
+      <c r="K311" s="16"/>
+      <c r="L311" s="16"/>
+      <c r="M311" s="33"/>
     </row>
     <row r="312" spans="9:13">
-      <c r="I312" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="J312" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="K312" s="32">
-        <v>2</v>
-      </c>
-      <c r="L312" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="M312" s="32" t="s">
-        <v>161</v>
-      </c>
+      <c r="I312" s="16"/>
+      <c r="J312" s="16"/>
+      <c r="K312" s="16"/>
+      <c r="L312" s="16"/>
+      <c r="M312" s="33"/>
     </row>
     <row r="313" spans="9:13">
-      <c r="I313" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="J313" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="K313" s="32">
-        <v>2</v>
-      </c>
-      <c r="L313" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M313" s="32" t="s">
-        <v>166</v>
-      </c>
+      <c r="I313" s="16"/>
+      <c r="J313" s="16"/>
+      <c r="K313" s="16"/>
+      <c r="L313" s="16"/>
+      <c r="M313" s="33"/>
     </row>
     <row r="314" spans="9:13">
-      <c r="I314" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="J314" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="K314" s="32">
-        <v>1</v>
-      </c>
-      <c r="L314" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="M314" s="32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="315" spans="9:13">
-      <c r="I315" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="J315" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="K315" s="32">
-        <v>2</v>
-      </c>
-      <c r="L315" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M315" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="316" spans="9:13">
-      <c r="I316" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="J316" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="K316" s="32">
-        <v>1</v>
-      </c>
-      <c r="L316" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="M316" s="32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="317" spans="9:13">
-      <c r="I317" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="J317" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="K317" s="32">
-        <v>1</v>
-      </c>
-      <c r="L317" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="M317" s="32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="318" spans="9:13">
-      <c r="I318" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="J318" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="K318" s="32">
-        <v>2</v>
-      </c>
-      <c r="L318" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M318" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="334" spans="3:13">
-      <c r="C334" t="s">
-        <v>91</v>
-      </c>
-      <c r="D334" t="s">
-        <v>180</v>
-      </c>
-      <c r="H334" t="s">
+      <c r="I314" s="16"/>
+      <c r="J314" s="16"/>
+      <c r="K314" s="16"/>
+      <c r="L314" s="16"/>
+      <c r="M314" s="33"/>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318">
+        <v>13</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="323" spans="5:10">
+      <c r="E323" t="s">
+        <v>76</v>
+      </c>
+      <c r="F323" t="s">
+        <v>184</v>
+      </c>
+      <c r="I323" t="s">
         <v>19</v>
       </c>
-      <c r="I334" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="J334" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="K334" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="L334" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="M334" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="335" spans="9:13">
-      <c r="I335" s="8">
-        <v>1</v>
-      </c>
-      <c r="J335" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K335" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L335" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M335" s="35">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="336" spans="9:13">
-      <c r="I336" s="8">
-        <v>2</v>
-      </c>
-      <c r="J336" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K336" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L336" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M336" s="35">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="337" spans="9:13">
-      <c r="I337" s="8">
-        <v>1</v>
-      </c>
-      <c r="J337" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K337" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L337" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M337" s="35">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="338" spans="9:13">
-      <c r="I338" s="8">
-        <v>2</v>
-      </c>
-      <c r="J338" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K338" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L338" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M338" s="35">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="339" spans="9:13">
-      <c r="I339" s="16"/>
-      <c r="J339" s="16"/>
-      <c r="K339" s="16"/>
-      <c r="L339" s="16"/>
-      <c r="M339" s="38"/>
-    </row>
-    <row r="340" spans="9:13">
-      <c r="I340" s="16"/>
-      <c r="J340" s="16"/>
-      <c r="K340" s="16"/>
-      <c r="L340" s="16"/>
-      <c r="M340" s="38"/>
-    </row>
-    <row r="341" spans="9:13">
-      <c r="I341" s="16"/>
-      <c r="J341" s="16"/>
-      <c r="K341" s="16"/>
-      <c r="L341" s="16"/>
-      <c r="M341" s="38"/>
-    </row>
-    <row r="342" spans="9:13">
-      <c r="I342" s="16"/>
-      <c r="J342" s="16"/>
-      <c r="K342" s="16"/>
-      <c r="L342" s="16"/>
-      <c r="M342" s="38"/>
+      <c r="J323" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="324" spans="10:14">
+      <c r="J324" t="s">
+        <v>18</v>
+      </c>
+      <c r="K324" t="s">
+        <v>186</v>
+      </c>
+      <c r="L324" t="s">
+        <v>187</v>
+      </c>
+      <c r="M324" t="s">
+        <v>188</v>
+      </c>
+      <c r="N324" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="325" spans="10:14">
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325">
+        <v>1</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="10:14">
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>1</v>
+      </c>
+      <c r="L326">
+        <v>1</v>
+      </c>
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="10:14">
+      <c r="J327">
+        <v>1</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <v>1</v>
+      </c>
+      <c r="M327">
+        <v>0</v>
+      </c>
+      <c r="N327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="10:14">
+      <c r="J328">
+        <v>1</v>
+      </c>
+      <c r="K328">
+        <v>1</v>
+      </c>
+      <c r="L328">
+        <v>0</v>
+      </c>
+      <c r="M328">
+        <v>1</v>
+      </c>
+      <c r="N328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="5:10">
+      <c r="E334" t="s">
+        <v>81</v>
+      </c>
+      <c r="F334" t="s">
+        <v>189</v>
+      </c>
+      <c r="I334" t="s">
+        <v>19</v>
+      </c>
+      <c r="J334" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="335" spans="11:15">
+      <c r="K335" t="s">
+        <v>18</v>
+      </c>
+      <c r="L335" t="s">
+        <v>186</v>
+      </c>
+      <c r="M335" t="s">
+        <v>190</v>
+      </c>
+      <c r="N335" t="s">
+        <v>187</v>
+      </c>
+      <c r="O335" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="336" spans="11:15">
+      <c r="K336">
+        <v>0</v>
+      </c>
+      <c r="L336">
+        <v>0</v>
+      </c>
+      <c r="M336">
+        <v>1</v>
+      </c>
+      <c r="N336">
+        <v>1</v>
+      </c>
+      <c r="O336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="11:15">
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337">
+        <v>1</v>
+      </c>
+      <c r="M337">
+        <v>0</v>
+      </c>
+      <c r="N337">
+        <v>1</v>
+      </c>
+      <c r="O337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="11:15">
+      <c r="K338">
+        <v>1</v>
+      </c>
+      <c r="L338">
+        <v>0</v>
+      </c>
+      <c r="M338">
+        <v>0</v>
+      </c>
+      <c r="N338">
+        <v>1</v>
+      </c>
+      <c r="O338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="11:15">
+      <c r="K339">
+        <v>1</v>
+      </c>
+      <c r="L339">
+        <v>1</v>
+      </c>
+      <c r="M339">
+        <v>0</v>
+      </c>
+      <c r="N339">
+        <v>0</v>
+      </c>
+      <c r="O339">
+        <v>0</v>
+      </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="347" spans="2:2">
       <c r="B347" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="349" spans="2:2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="349" spans="2:25">
       <c r="B349" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="351" spans="5:10">
-      <c r="E351" t="s">
-        <v>76</v>
-      </c>
-      <c r="F351" t="s">
-        <v>184</v>
-      </c>
-      <c r="I351" t="s">
+        <v>194</v>
+      </c>
+      <c r="K349" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L349" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M349" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="R349" s="27"/>
+      <c r="S349" s="27"/>
+      <c r="T349" s="27"/>
+      <c r="U349" s="16"/>
+      <c r="V349" s="16"/>
+      <c r="W349" s="27"/>
+      <c r="X349" s="27"/>
+      <c r="Y349" s="27"/>
+    </row>
+    <row r="350" spans="11:25">
+      <c r="K350" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L350" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M350" s="8">
+        <v>2</v>
+      </c>
+      <c r="R350" s="16"/>
+      <c r="S350" s="16"/>
+      <c r="T350" s="16"/>
+      <c r="U350" s="16"/>
+      <c r="V350" s="16"/>
+      <c r="W350" s="16"/>
+      <c r="X350" s="16"/>
+      <c r="Y350" s="16"/>
+    </row>
+    <row r="351" spans="11:25">
+      <c r="K351" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L351" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M351" s="8">
+        <v>1</v>
+      </c>
+      <c r="R351" s="16"/>
+      <c r="S351" s="16"/>
+      <c r="T351" s="16"/>
+      <c r="U351" s="16"/>
+      <c r="V351" s="16"/>
+      <c r="W351" s="16"/>
+      <c r="X351" s="16"/>
+      <c r="Y351" s="16"/>
+    </row>
+    <row r="352" spans="11:25">
+      <c r="K352" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L352" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M352" s="8">
+        <v>2</v>
+      </c>
+      <c r="R352" s="16"/>
+      <c r="S352" s="16"/>
+      <c r="T352" s="16"/>
+      <c r="U352" s="16"/>
+      <c r="V352" s="16"/>
+      <c r="W352" s="16"/>
+      <c r="X352" s="16"/>
+      <c r="Y352" s="16"/>
+    </row>
+    <row r="353" spans="11:25">
+      <c r="K353" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L353" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M353" s="8">
+        <v>1</v>
+      </c>
+      <c r="R353" s="16"/>
+      <c r="S353" s="16"/>
+      <c r="T353" s="16"/>
+      <c r="U353" s="16"/>
+      <c r="V353" s="16"/>
+      <c r="W353" s="16"/>
+      <c r="X353" s="16"/>
+      <c r="Y353" s="16"/>
+    </row>
+    <row r="354" spans="11:25">
+      <c r="K354" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L354" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M354" s="8">
+        <v>1</v>
+      </c>
+      <c r="R354" s="16"/>
+      <c r="S354" s="16"/>
+      <c r="T354" s="16"/>
+      <c r="U354" s="16"/>
+      <c r="V354" s="16"/>
+      <c r="W354" s="16"/>
+      <c r="X354" s="16"/>
+      <c r="Y354" s="16"/>
+    </row>
+    <row r="355" spans="11:25">
+      <c r="K355" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="L355" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M355" s="29">
+        <v>2</v>
+      </c>
+      <c r="R355" s="16"/>
+      <c r="S355" s="16"/>
+      <c r="T355" s="16"/>
+      <c r="U355" s="16"/>
+      <c r="V355" s="16"/>
+      <c r="W355" s="13"/>
+      <c r="X355" s="16"/>
+      <c r="Y355" s="13"/>
+    </row>
+    <row r="356" spans="18:25">
+      <c r="R356" s="16"/>
+      <c r="S356" s="16"/>
+      <c r="T356" s="16"/>
+      <c r="U356" s="16"/>
+      <c r="V356" s="16"/>
+      <c r="W356" s="16"/>
+      <c r="X356" s="16"/>
+      <c r="Y356" s="16"/>
+    </row>
+    <row r="357" spans="18:25">
+      <c r="R357" s="16"/>
+      <c r="S357" s="16"/>
+      <c r="T357" s="16"/>
+      <c r="U357" s="16"/>
+      <c r="V357" s="16"/>
+      <c r="W357" s="16"/>
+      <c r="X357" s="16"/>
+      <c r="Y357" s="16"/>
+    </row>
+    <row r="358" spans="2:25">
+      <c r="B358" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R358" s="16"/>
+      <c r="S358" s="16"/>
+      <c r="T358" s="16"/>
+      <c r="U358" s="16"/>
+      <c r="V358" s="16"/>
+      <c r="W358" s="16"/>
+      <c r="X358" s="16"/>
+      <c r="Y358" s="16"/>
+    </row>
+    <row r="359" spans="18:25">
+      <c r="R359" s="16"/>
+      <c r="S359" s="16"/>
+      <c r="T359" s="16"/>
+      <c r="U359" s="16"/>
+      <c r="V359" s="16"/>
+      <c r="W359" s="16"/>
+      <c r="X359" s="16"/>
+      <c r="Y359" s="16"/>
+    </row>
+    <row r="360" spans="2:8">
+      <c r="B360" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H360" s="1"/>
+    </row>
+    <row r="361" spans="2:8">
+      <c r="B361" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H361" s="1"/>
+    </row>
+    <row r="362" spans="2:8">
+      <c r="B362" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="H362" s="1"/>
+    </row>
+    <row r="363" spans="8:8">
+      <c r="H363" s="1"/>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366">
+        <v>15</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="368" spans="4:6">
+      <c r="D368" t="s">
+        <v>199</v>
+      </c>
+      <c r="F368" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="369" spans="4:6">
+      <c r="D369" t="s">
+        <v>201</v>
+      </c>
+      <c r="F369" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="371" spans="8:8">
+      <c r="H371" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="372" spans="9:9">
+      <c r="I372" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375">
+        <v>16</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="379" spans="8:8">
+      <c r="H379" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384">
+        <v>17</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11">
+      <c r="A401">
+        <v>18</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K401" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="404" spans="6:11">
+      <c r="F404" t="s">
+        <v>210</v>
+      </c>
+      <c r="K404" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408">
         <v>19</v>
       </c>
-      <c r="J351" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="352" spans="10:14">
-      <c r="J352" t="s">
-        <v>18</v>
-      </c>
-      <c r="K352" t="s">
-        <v>186</v>
-      </c>
-      <c r="L352" t="s">
-        <v>187</v>
-      </c>
-      <c r="M352" t="s">
-        <v>188</v>
-      </c>
-      <c r="N352" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="353" spans="10:14">
-      <c r="J353">
-        <v>0</v>
-      </c>
-      <c r="K353">
-        <v>0</v>
-      </c>
-      <c r="L353">
-        <v>1</v>
-      </c>
-      <c r="M353">
-        <v>0</v>
-      </c>
-      <c r="N353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="10:14">
-      <c r="J354">
-        <v>0</v>
-      </c>
-      <c r="K354">
-        <v>1</v>
-      </c>
-      <c r="L354">
-        <v>1</v>
-      </c>
-      <c r="M354">
-        <v>0</v>
-      </c>
-      <c r="N354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="10:14">
-      <c r="J355">
-        <v>1</v>
-      </c>
-      <c r="K355">
-        <v>0</v>
-      </c>
-      <c r="L355">
-        <v>1</v>
-      </c>
-      <c r="M355">
-        <v>0</v>
-      </c>
-      <c r="N355">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="10:14">
-      <c r="J356">
-        <v>1</v>
-      </c>
-      <c r="K356">
-        <v>1</v>
-      </c>
-      <c r="L356">
-        <v>0</v>
-      </c>
-      <c r="M356">
-        <v>1</v>
-      </c>
-      <c r="N356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="5:10">
-      <c r="E362" t="s">
-        <v>81</v>
-      </c>
-      <c r="F362" t="s">
-        <v>189</v>
-      </c>
-      <c r="I362" t="s">
-        <v>19</v>
-      </c>
-      <c r="J362" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="363" spans="11:15">
-      <c r="K363" t="s">
-        <v>18</v>
-      </c>
-      <c r="L363" t="s">
-        <v>186</v>
-      </c>
-      <c r="M363" t="s">
-        <v>190</v>
-      </c>
-      <c r="N363" t="s">
-        <v>187</v>
-      </c>
-      <c r="O363" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="364" spans="11:15">
-      <c r="K364">
-        <v>0</v>
-      </c>
-      <c r="L364">
-        <v>0</v>
-      </c>
-      <c r="M364">
-        <v>1</v>
-      </c>
-      <c r="N364">
-        <v>1</v>
-      </c>
-      <c r="O364">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="11:15">
-      <c r="K365">
-        <v>0</v>
-      </c>
-      <c r="L365">
-        <v>1</v>
-      </c>
-      <c r="M365">
-        <v>0</v>
-      </c>
-      <c r="N365">
-        <v>1</v>
-      </c>
-      <c r="O365">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="11:15">
-      <c r="K366">
-        <v>1</v>
-      </c>
-      <c r="L366">
-        <v>0</v>
-      </c>
-      <c r="M366">
-        <v>0</v>
-      </c>
-      <c r="N366">
-        <v>1</v>
-      </c>
-      <c r="O366">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="11:15">
-      <c r="K367">
-        <v>1</v>
-      </c>
-      <c r="L367">
-        <v>1</v>
-      </c>
-      <c r="M367">
-        <v>0</v>
-      </c>
-      <c r="N367">
-        <v>0</v>
-      </c>
-      <c r="O367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
-      <c r="A374">
-        <v>14</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="375" spans="2:2">
-      <c r="B375" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="376" spans="2:2">
-      <c r="B376" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="377" spans="2:25">
-      <c r="B377" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K377" s="14" t="s">
+      <c r="B408" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="412" spans="8:14">
+      <c r="H412" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="L377" s="14" t="s">
+      <c r="I412" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J412" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K412" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="M377" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="R377" s="27"/>
-      <c r="S377" s="27"/>
-      <c r="T377" s="27"/>
-      <c r="U377" s="16"/>
-      <c r="V377" s="16"/>
-      <c r="W377" s="27"/>
-      <c r="X377" s="27"/>
-      <c r="Y377" s="27"/>
-    </row>
-    <row r="378" spans="11:25">
-      <c r="K378" s="8" t="s">
+      <c r="L412" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="M412" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="N412" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="413" spans="8:14">
+      <c r="H413" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I413" s="8">
+        <v>15000</v>
+      </c>
+      <c r="J413" s="8">
+        <v>1</v>
+      </c>
+      <c r="K413" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L413" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M413" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N413" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="414" spans="8:14">
+      <c r="H414" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I414" s="8">
+        <v>30000</v>
+      </c>
+      <c r="J414" s="8">
+        <v>1</v>
+      </c>
+      <c r="K414" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L414" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M414" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N414" s="32">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="415" spans="8:14">
+      <c r="H415" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I415" s="8">
+        <v>60000</v>
+      </c>
+      <c r="J415" s="8">
+        <v>1</v>
+      </c>
+      <c r="K415" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L415" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M415" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N415" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="416" spans="8:14">
+      <c r="H416" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I416" s="8">
+        <v>17000</v>
+      </c>
+      <c r="J416" s="8">
+        <v>1</v>
+      </c>
+      <c r="K416" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="L416" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M416" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N416" s="32">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="417" spans="8:14">
+      <c r="H417" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I417" s="8">
+        <v>23000</v>
+      </c>
+      <c r="J417" s="8">
+        <v>1</v>
+      </c>
+      <c r="K417" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L417" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M417" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N417" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="418" spans="8:14">
+      <c r="H418" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I418" s="8">
+        <v>25000</v>
+      </c>
+      <c r="J418" s="8">
+        <v>2</v>
+      </c>
+      <c r="K418" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L418" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M418" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N418" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="419" spans="8:14">
+      <c r="H419" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I419" s="8">
+        <v>32000</v>
+      </c>
+      <c r="J419" s="8">
+        <v>2</v>
+      </c>
+      <c r="K419" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L419" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M419" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N419" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="420" spans="8:14">
+      <c r="H420" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I420" s="8">
+        <v>16000</v>
+      </c>
+      <c r="J420" s="8">
+        <v>2</v>
+      </c>
+      <c r="K420" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="L420" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M420" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N420" s="32">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="421" spans="8:14">
+      <c r="H421" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="L378" s="8" t="s">
+      <c r="I421" s="8">
+        <v>20000</v>
+      </c>
+      <c r="J421" s="8">
+        <v>2</v>
+      </c>
+      <c r="K421" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M378" s="8">
+      <c r="L421" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M421" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N421" s="32">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="422" spans="8:14">
+      <c r="H422" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I422" s="8">
+        <v>40000</v>
+      </c>
+      <c r="J422" s="8">
         <v>2</v>
       </c>
-      <c r="R378" s="16"/>
-      <c r="S378" s="16"/>
-      <c r="T378" s="16"/>
-      <c r="U378" s="16"/>
-      <c r="V378" s="16"/>
-      <c r="W378" s="16"/>
-      <c r="X378" s="16"/>
-      <c r="Y378" s="16"/>
-    </row>
-    <row r="379" spans="11:25">
-      <c r="K379" s="8" t="s">
+      <c r="K422" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L422" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M422" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N422" s="32">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="423" spans="8:14">
+      <c r="H423" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="L379" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M379" s="8">
-        <v>1</v>
-      </c>
-      <c r="R379" s="16"/>
-      <c r="S379" s="16"/>
-      <c r="T379" s="16"/>
-      <c r="U379" s="16"/>
-      <c r="V379" s="16"/>
-      <c r="W379" s="16"/>
-      <c r="X379" s="16"/>
-      <c r="Y379" s="16"/>
-    </row>
-    <row r="380" spans="11:25">
-      <c r="K380" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L380" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M380" s="8">
-        <v>2</v>
-      </c>
-      <c r="R380" s="16"/>
-      <c r="S380" s="16"/>
-      <c r="T380" s="16"/>
-      <c r="U380" s="16"/>
-      <c r="V380" s="16"/>
-      <c r="W380" s="16"/>
-      <c r="X380" s="16"/>
-      <c r="Y380" s="16"/>
-    </row>
-    <row r="381" spans="11:25">
-      <c r="K381" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L381" s="8" t="s">
+      <c r="I423" s="8">
+        <v>17000</v>
+      </c>
+      <c r="J423" s="8">
+        <v>1</v>
+      </c>
+      <c r="K423" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="M381" s="8">
-        <v>1</v>
-      </c>
-      <c r="R381" s="16"/>
-      <c r="S381" s="16"/>
-      <c r="T381" s="16"/>
-      <c r="U381" s="16"/>
-      <c r="V381" s="16"/>
-      <c r="W381" s="16"/>
-      <c r="X381" s="16"/>
-      <c r="Y381" s="16"/>
-    </row>
-    <row r="382" spans="11:25">
-      <c r="K382" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L382" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M382" s="8">
-        <v>1</v>
-      </c>
-      <c r="R382" s="16"/>
-      <c r="S382" s="16"/>
-      <c r="T382" s="16"/>
-      <c r="U382" s="16"/>
-      <c r="V382" s="16"/>
-      <c r="W382" s="16"/>
-      <c r="X382" s="16"/>
-      <c r="Y382" s="16"/>
-    </row>
-    <row r="383" spans="11:25">
-      <c r="K383" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="L383" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M383" s="29">
-        <v>2</v>
-      </c>
-      <c r="R383" s="16"/>
-      <c r="S383" s="16"/>
-      <c r="T383" s="16"/>
-      <c r="U383" s="16"/>
-      <c r="V383" s="16"/>
-      <c r="W383" s="13"/>
-      <c r="X383" s="16"/>
-      <c r="Y383" s="13"/>
-    </row>
-    <row r="384" spans="18:25">
-      <c r="R384" s="16"/>
-      <c r="S384" s="16"/>
-      <c r="T384" s="16"/>
-      <c r="U384" s="16"/>
-      <c r="V384" s="16"/>
-      <c r="W384" s="16"/>
-      <c r="X384" s="16"/>
-      <c r="Y384" s="16"/>
-    </row>
-    <row r="385" spans="18:25">
-      <c r="R385" s="16"/>
-      <c r="S385" s="16"/>
-      <c r="T385" s="16"/>
-      <c r="U385" s="16"/>
-      <c r="V385" s="16"/>
-      <c r="W385" s="16"/>
-      <c r="X385" s="16"/>
-      <c r="Y385" s="16"/>
-    </row>
-    <row r="386" spans="2:25">
-      <c r="B386" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R386" s="16"/>
-      <c r="S386" s="16"/>
-      <c r="T386" s="16"/>
-      <c r="U386" s="16"/>
-      <c r="V386" s="16"/>
-      <c r="W386" s="16"/>
-      <c r="X386" s="16"/>
-      <c r="Y386" s="16"/>
-    </row>
-    <row r="387" spans="18:25">
-      <c r="R387" s="16"/>
-      <c r="S387" s="16"/>
-      <c r="T387" s="16"/>
-      <c r="U387" s="16"/>
-      <c r="V387" s="16"/>
-      <c r="W387" s="16"/>
-      <c r="X387" s="16"/>
-      <c r="Y387" s="16"/>
-    </row>
-    <row r="388" spans="2:8">
-      <c r="B388" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H388" s="1"/>
-    </row>
-    <row r="389" spans="2:8">
-      <c r="B389" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H389" s="1"/>
-    </row>
-    <row r="390" spans="2:8">
-      <c r="B390" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="H390" s="1"/>
-    </row>
-    <row r="391" spans="8:8">
-      <c r="H391" s="1"/>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394">
-        <v>15</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="396" spans="4:6">
-      <c r="D396" t="s">
-        <v>199</v>
-      </c>
-      <c r="F396" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="397" spans="4:6">
-      <c r="D397" t="s">
-        <v>201</v>
-      </c>
-      <c r="F397" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="399" spans="8:8">
-      <c r="H399" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="400" spans="9:9">
-      <c r="I400" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403">
-        <v>16</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="407" spans="8:8">
-      <c r="H407" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
-      <c r="A412">
-        <v>17</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="429" spans="1:11">
-      <c r="A429">
-        <v>18</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K429" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="432" spans="6:11">
-      <c r="F432" t="s">
-        <v>210</v>
-      </c>
-      <c r="K432" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2">
-      <c r="A436">
-        <v>19</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="440" spans="8:14">
-      <c r="H440" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="I440" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J440" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="K440" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="L440" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="M440" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="N440" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="441" spans="8:14">
-      <c r="H441" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I441" s="8">
-        <v>15000</v>
-      </c>
-      <c r="J441" s="8">
-        <v>1</v>
-      </c>
-      <c r="K441" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L441" s="8" t="s">
+      <c r="L423" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="M441" s="8" t="s">
+      <c r="M423" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="N441" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="442" spans="8:14">
-      <c r="H442" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I442" s="8">
-        <v>30000</v>
-      </c>
-      <c r="J442" s="8">
-        <v>1</v>
-      </c>
-      <c r="K442" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L442" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M442" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N442" s="35">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="443" spans="8:14">
-      <c r="H443" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="I443" s="8">
-        <v>60000</v>
-      </c>
-      <c r="J443" s="8">
-        <v>1</v>
-      </c>
-      <c r="K443" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L443" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M443" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N443" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="444" spans="8:14">
-      <c r="H444" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I444" s="8">
-        <v>17000</v>
-      </c>
-      <c r="J444" s="8">
-        <v>1</v>
-      </c>
-      <c r="K444" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L444" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M444" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N444" s="35">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="445" spans="8:14">
-      <c r="H445" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I445" s="8">
-        <v>23000</v>
-      </c>
-      <c r="J445" s="8">
-        <v>1</v>
-      </c>
-      <c r="K445" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L445" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M445" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N445" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="446" spans="8:14">
-      <c r="H446" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="I446" s="8">
-        <v>25000</v>
-      </c>
-      <c r="J446" s="8">
-        <v>2</v>
-      </c>
-      <c r="K446" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L446" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M446" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N446" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="447" spans="8:14">
-      <c r="H447" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I447" s="8">
-        <v>32000</v>
-      </c>
-      <c r="J447" s="8">
-        <v>2</v>
-      </c>
-      <c r="K447" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L447" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M447" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N447" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="448" spans="8:14">
-      <c r="H448" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I448" s="8">
-        <v>16000</v>
-      </c>
-      <c r="J448" s="8">
-        <v>2</v>
-      </c>
-      <c r="K448" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L448" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M448" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N448" s="35">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="449" spans="8:14">
-      <c r="H449" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I449" s="8">
-        <v>20000</v>
-      </c>
-      <c r="J449" s="8">
-        <v>2</v>
-      </c>
-      <c r="K449" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L449" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M449" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N449" s="35">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="450" spans="8:14">
-      <c r="H450" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I450" s="8">
-        <v>40000</v>
-      </c>
-      <c r="J450" s="8">
-        <v>2</v>
-      </c>
-      <c r="K450" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L450" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="M450" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N450" s="35">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="451" spans="8:14">
-      <c r="H451" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I451" s="8">
-        <v>17000</v>
-      </c>
-      <c r="J451" s="8">
-        <v>1</v>
-      </c>
-      <c r="K451" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L451" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M451" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="N451" s="35">
+      <c r="N423" s="32">
         <v>45047</v>
       </c>
     </row>

--- a/Problems 1.xlsx
+++ b/Problems 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10848" windowHeight="9192"/>
+    <workbookView windowWidth="22368" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Var2" sheetId="4" r:id="rId1"/>
@@ -2486,8 +2486,8 @@
   <sheetPr/>
   <dimension ref="A2:AJ423"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H287" workbookViewId="0">
-      <selection activeCell="N295" sqref="N295"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="P354" sqref="P354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
